--- a/nodes_source_analyses/energy/energy_hydrogen_solar_pv_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_hydrogen_solar_pv_solar_radiation.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29152926-E618-6F4A-93E3-89F902688EEE}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7EA1B8-63E5-1949-B691-7B3C7A9C680E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="27180" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="179017" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="179">
   <si>
     <t>Source</t>
   </si>
@@ -190,18 +190,6 @@
     <t>heat_output_capacity</t>
   </si>
   <si>
-    <t>simult_sd</t>
-  </si>
-  <si>
-    <t>simult_wd</t>
-  </si>
-  <si>
-    <t>simult_we</t>
-  </si>
-  <si>
-    <t>peak_load_units_present</t>
-  </si>
-  <si>
     <t>initial_investment</t>
   </si>
   <si>
@@ -236,9 +224,6 @@
   </si>
   <si>
     <t>hours_remov_nl</t>
-  </si>
-  <si>
-    <t>simult_se</t>
   </si>
   <si>
     <t>hours_maint_nl</t>
@@ -332,67 +317,6 @@
       </rPr>
       <t xml:space="preserve"> for ccs</t>
     </r>
-  </si>
-  <si>
-    <t>Probability that two peaks fall in the summer day</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probability that two peaks fall in the summer </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>evining</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probability that two peaks fall in the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>winter</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> day</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Probability that two peaks fall in the </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>winter evining</t>
-    </r>
-  </si>
-  <si>
-    <t>The number of units for the present year</t>
   </si>
   <si>
     <r>
@@ -1771,7 +1695,7 @@
     <xf numFmtId="43" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="217">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1914,82 +1838,79 @@
     <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="10" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -2004,44 +1925,44 @@
     <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="37" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="37" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="2" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -2068,8 +1989,57 @@
     <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="2" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="0" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="2" fillId="6" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="309" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -2096,55 +2066,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="2" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="1" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="1" fillId="6" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="1" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="15" fontId="1" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="309" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="310">
@@ -3376,16 +3297,16 @@
         <v>20</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="7"/>
       <c r="B5" s="10" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3409,107 +3330,107 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="7"/>
-      <c r="B9" s="104" t="s">
-        <v>82</v>
-      </c>
-      <c r="C9" s="105"/>
+      <c r="B9" s="101" t="s">
+        <v>72</v>
+      </c>
+      <c r="C9" s="102"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="7"/>
-      <c r="B10" s="106"/>
-      <c r="C10" s="107"/>
+      <c r="B10" s="103"/>
+      <c r="C10" s="104"/>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="7"/>
-      <c r="B11" s="106" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="108" t="s">
-        <v>84</v>
+      <c r="B11" s="103" t="s">
+        <v>73</v>
+      </c>
+      <c r="C11" s="105" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="17" thickBot="1">
       <c r="A12" s="7"/>
-      <c r="B12" s="106"/>
+      <c r="B12" s="103"/>
       <c r="C12" s="23" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="17" thickBot="1">
       <c r="A13" s="7"/>
-      <c r="B13" s="106"/>
-      <c r="C13" s="109" t="s">
-        <v>86</v>
+      <c r="B13" s="103"/>
+      <c r="C13" s="106" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" s="7"/>
-      <c r="B14" s="106"/>
-      <c r="C14" s="107" t="s">
-        <v>87</v>
+      <c r="B14" s="103"/>
+      <c r="C14" s="104" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" s="7"/>
-      <c r="B15" s="106"/>
-      <c r="C15" s="107"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="104"/>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="7"/>
-      <c r="B16" s="106" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="110" t="s">
-        <v>89</v>
+      <c r="B16" s="103" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="107" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="7"/>
-      <c r="B17" s="106"/>
-      <c r="C17" s="111" t="s">
-        <v>90</v>
+      <c r="B17" s="103"/>
+      <c r="C17" s="108" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="7"/>
-      <c r="B18" s="106"/>
-      <c r="C18" s="112" t="s">
-        <v>91</v>
+      <c r="B18" s="103"/>
+      <c r="C18" s="109" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="7"/>
-      <c r="B19" s="106"/>
-      <c r="C19" s="113" t="s">
-        <v>92</v>
+      <c r="B19" s="103"/>
+      <c r="C19" s="110" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="7"/>
-      <c r="B20" s="114"/>
-      <c r="C20" s="115" t="s">
-        <v>93</v>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="7"/>
-      <c r="B21" s="114"/>
-      <c r="C21" s="116" t="s">
-        <v>94</v>
+      <c r="B21" s="111"/>
+      <c r="C21" s="113" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="7"/>
-      <c r="B22" s="114"/>
-      <c r="C22" s="117" t="s">
-        <v>95</v>
+      <c r="B22" s="111"/>
+      <c r="C22" s="114" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="7"/>
-      <c r="B23" s="114"/>
-      <c r="C23" s="118" t="s">
-        <v>96</v>
+      <c r="B23" s="111"/>
+      <c r="C23" s="115" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -3523,10 +3444,10 @@
   <sheetPr codeName="Sheet2">
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:K58"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+      <selection activeCell="A22" sqref="A18:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3555,42 +3476,42 @@
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="182" t="s">
-        <v>136</v>
-      </c>
-      <c r="C2" s="183"/>
-      <c r="D2" s="183"/>
-      <c r="E2" s="184"/>
+      <c r="B2" s="208" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" s="209"/>
+      <c r="D2" s="209"/>
+      <c r="E2" s="210"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="185"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="186"/>
-      <c r="E3" s="187"/>
+      <c r="B3" s="211"/>
+      <c r="C3" s="212"/>
+      <c r="D3" s="212"/>
+      <c r="E3" s="213"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="185"/>
-      <c r="C4" s="186"/>
-      <c r="D4" s="186"/>
-      <c r="E4" s="187"/>
+      <c r="B4" s="211"/>
+      <c r="C4" s="212"/>
+      <c r="D4" s="212"/>
+      <c r="E4" s="213"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="188"/>
-      <c r="C5" s="189"/>
-      <c r="D5" s="189"/>
-      <c r="E5" s="190"/>
+      <c r="B5" s="214"/>
+      <c r="C5" s="215"/>
+      <c r="D5" s="215"/>
+      <c r="E5" s="216"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -3622,7 +3543,7 @@
       <c r="C8" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="135" t="s">
+      <c r="D8" s="132" t="s">
         <v>16</v>
       </c>
       <c r="E8" s="24" t="s">
@@ -3636,7 +3557,7 @@
       <c r="I8" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="J8" s="131"/>
+      <c r="J8" s="128"/>
     </row>
     <row r="9" spans="1:11" s="5" customFormat="1" ht="18">
       <c r="B9" s="40"/>
@@ -3652,7 +3573,7 @@
     <row r="10" spans="1:11" s="5" customFormat="1" ht="19" thickBot="1">
       <c r="B10" s="40"/>
       <c r="C10" s="23" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D10" s="70"/>
       <c r="E10" s="23"/>
@@ -3677,8 +3598,8 @@
       <c r="F11" s="30"/>
       <c r="G11" s="81"/>
       <c r="H11" s="69"/>
-      <c r="I11" s="161" t="s">
-        <v>117</v>
+      <c r="I11" s="158" t="s">
+        <v>107</v>
       </c>
       <c r="J11" s="22"/>
     </row>
@@ -3697,9 +3618,9 @@
       <c r="G12" s="30"/>
       <c r="H12" s="30"/>
       <c r="I12" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J12" s="132"/>
+        <v>63</v>
+      </c>
+      <c r="J12" s="129"/>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:11" ht="17" thickBot="1">
@@ -3717,9 +3638,9 @@
       <c r="G13" s="30"/>
       <c r="H13" s="30"/>
       <c r="I13" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J13" s="132"/>
+        <v>63</v>
+      </c>
+      <c r="J13" s="129"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:11" ht="17" thickBot="1">
@@ -3738,9 +3659,9 @@
       <c r="G14" s="30"/>
       <c r="H14" s="30"/>
       <c r="I14" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J14" s="133"/>
+        <v>63</v>
+      </c>
+      <c r="J14" s="130"/>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" ht="17" thickBot="1">
@@ -3759,9 +3680,9 @@
       <c r="G15" s="30"/>
       <c r="H15" s="30"/>
       <c r="I15" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J15" s="133"/>
+        <v>63</v>
+      </c>
+      <c r="J15" s="130"/>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1">
@@ -3771,7 +3692,7 @@
         <v>44</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E16" s="78">
         <f>'Research data'!H7</f>
@@ -3782,10 +3703,10 @@
         <v>29</v>
       </c>
       <c r="H16" s="30"/>
-      <c r="I16" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="J16" s="132"/>
+      <c r="I16" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="J16" s="129"/>
       <c r="K16" s="4"/>
     </row>
     <row r="17" spans="1:11" s="2" customFormat="1" ht="17" thickBot="1">
@@ -3795,151 +3716,153 @@
         <v>45</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="E17" s="78">
         <v>0</v>
       </c>
       <c r="F17" s="30"/>
       <c r="G17" s="80" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="H17" s="30"/>
-      <c r="I17" s="161" t="s">
-        <v>116</v>
-      </c>
-      <c r="J17" s="132"/>
+      <c r="I17" s="158" t="s">
+        <v>106</v>
+      </c>
+      <c r="J17" s="129"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="1:11" ht="17" thickBot="1">
+    <row r="18" spans="1:11">
       <c r="B18" s="34"/>
-      <c r="C18" s="75" t="s">
-        <v>46</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="78">
-        <v>-1</v>
-      </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="83" t="s">
-        <v>72</v>
-      </c>
-      <c r="H18" s="30"/>
-      <c r="I18" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J18" s="132"/>
+      <c r="C18" s="134"/>
+      <c r="D18" s="135"/>
+      <c r="E18" s="61"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="136"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="129"/>
     </row>
     <row r="19" spans="1:11" ht="17" thickBot="1">
       <c r="B19" s="34"/>
-      <c r="C19" s="75" t="s">
-        <v>62</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E19" s="78">
-        <v>-1</v>
-      </c>
-      <c r="F19" s="30"/>
-      <c r="G19" s="84" t="s">
-        <v>73</v>
-      </c>
-      <c r="H19" s="30"/>
-      <c r="I19" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J19" s="132"/>
+      <c r="C19" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D19" s="135"/>
+      <c r="E19" s="61"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="136"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="129"/>
     </row>
     <row r="20" spans="1:11" ht="17" thickBot="1">
       <c r="B20" s="34"/>
       <c r="C20" s="75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="33">
-        <f>-0.2</f>
-        <v>-0.2</v>
+        <v>36</v>
+      </c>
+      <c r="E20" s="36">
+        <f>'Research data'!H15</f>
+        <v>16420000</v>
       </c>
       <c r="F20" s="30"/>
-      <c r="G20" s="84" t="s">
-        <v>74</v>
+      <c r="G20" s="30" t="s">
+        <v>10</v>
       </c>
       <c r="H20" s="30"/>
-      <c r="I20" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J20" s="132"/>
+      <c r="I20" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="131"/>
     </row>
     <row r="21" spans="1:11" ht="17" thickBot="1">
       <c r="B21" s="34"/>
       <c r="C21" s="75" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E21" s="78">
         <v>0</v>
       </c>
       <c r="F21" s="30"/>
-      <c r="G21" s="84" t="s">
-        <v>75</v>
+      <c r="G21" s="80" t="s">
+        <v>65</v>
       </c>
       <c r="H21" s="30"/>
-      <c r="I21" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J21" s="132"/>
+      <c r="I21" s="158" t="s">
+        <v>106</v>
+      </c>
+      <c r="J21" s="131"/>
     </row>
     <row r="22" spans="1:11" ht="17" thickBot="1">
       <c r="B22" s="34"/>
       <c r="C22" s="75" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="E22" s="78">
+        <f>'Research data'!H20</f>
+        <v>1000000</v>
+      </c>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="30"/>
+      <c r="I22" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="J22" s="129"/>
+    </row>
+    <row r="23" spans="1:11" ht="17" thickBot="1">
+      <c r="B23" s="34"/>
+      <c r="C23" s="75" t="s">
+        <v>48</v>
+      </c>
+      <c r="D23" s="35" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="78">
         <v>0</v>
       </c>
-      <c r="F22" s="30"/>
-      <c r="G22" s="82" t="s">
-        <v>76</v>
-      </c>
-      <c r="H22" s="30"/>
-      <c r="I22" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J22" s="132"/>
-    </row>
-    <row r="23" spans="1:11">
-      <c r="B23" s="34"/>
-      <c r="C23" s="137"/>
-      <c r="D23" s="138"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="132"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="163" t="s">
+        <v>118</v>
+      </c>
+      <c r="H23" s="30"/>
+      <c r="I23" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J23" s="129"/>
     </row>
     <row r="24" spans="1:11" ht="17" thickBot="1">
       <c r="B24" s="34"/>
-      <c r="C24" s="23" t="s">
-        <v>105</v>
-      </c>
-      <c r="D24" s="138"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="32"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="32"/>
-      <c r="I24" s="32"/>
-      <c r="J24" s="132"/>
+      <c r="C24" s="75" t="s">
+        <v>49</v>
+      </c>
+      <c r="D24" s="35" t="s">
+        <v>59</v>
+      </c>
+      <c r="E24" s="133">
+        <f>'Research data'!H22</f>
+        <v>318000</v>
+      </c>
+      <c r="F24" s="30"/>
+      <c r="G24" s="76" t="s">
+        <v>61</v>
+      </c>
+      <c r="H24" s="30"/>
+      <c r="I24" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="J24" s="129"/>
     </row>
     <row r="25" spans="1:11" ht="17" thickBot="1">
       <c r="B25" s="34"/>
@@ -3947,21 +3870,21 @@
         <v>50</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E25" s="36">
-        <f>'Research data'!H15</f>
-        <v>16420000</v>
+        <v>60</v>
+      </c>
+      <c r="E25" s="133">
+        <f>'Research data'!H24</f>
+        <v>0</v>
       </c>
       <c r="F25" s="30"/>
-      <c r="G25" s="30" t="s">
-        <v>10</v>
+      <c r="G25" s="80" t="s">
+        <v>62</v>
       </c>
       <c r="H25" s="30"/>
-      <c r="I25" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25" s="134"/>
+      <c r="I25" s="158" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="129"/>
     </row>
     <row r="26" spans="1:11" ht="17" thickBot="1">
       <c r="B26" s="34"/>
@@ -3969,264 +3892,251 @@
         <v>51</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="78">
+        <v>60</v>
+      </c>
+      <c r="E26" s="133">
         <v>0</v>
       </c>
       <c r="F26" s="30"/>
       <c r="G26" s="80" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="H26" s="30"/>
-      <c r="I26" s="161" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" s="134"/>
+      <c r="I26" s="159" t="s">
+        <v>106</v>
+      </c>
+      <c r="J26" s="129"/>
     </row>
     <row r="27" spans="1:11" ht="17" thickBot="1">
       <c r="B27" s="34"/>
       <c r="C27" s="75" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="78">
-        <f>'Research data'!H20</f>
-        <v>1000000</v>
+        <v>3</v>
+      </c>
+      <c r="E27" s="100">
+        <f>'Research data'!H25</f>
+        <v>0.05</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H27" s="30"/>
-      <c r="I27" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" s="132"/>
+      <c r="I27" s="160" t="s">
+        <v>107</v>
+      </c>
+      <c r="J27" s="129"/>
     </row>
     <row r="28" spans="1:11" ht="17" thickBot="1">
       <c r="B28" s="34"/>
       <c r="C28" s="75" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="E28" s="78">
         <v>0</v>
       </c>
       <c r="F28" s="30"/>
-      <c r="G28" s="166" t="s">
-        <v>128</v>
-      </c>
+      <c r="G28" s="30"/>
       <c r="H28" s="30"/>
       <c r="I28" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J28" s="132"/>
-    </row>
-    <row r="29" spans="1:11" ht="17" thickBot="1">
+        <v>63</v>
+      </c>
+      <c r="J28" s="129"/>
+    </row>
+    <row r="29" spans="1:11">
       <c r="B29" s="34"/>
-      <c r="C29" s="75" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="E29" s="136">
-        <f>'Research data'!H22</f>
-        <v>318000</v>
-      </c>
-      <c r="F29" s="30"/>
-      <c r="G29" s="76" t="s">
-        <v>66</v>
-      </c>
-      <c r="H29" s="30"/>
-      <c r="I29" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="J29" s="132"/>
+      <c r="C29" s="134"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="61"/>
+      <c r="F29" s="32"/>
+      <c r="G29" s="32"/>
+      <c r="H29" s="32"/>
+      <c r="I29" s="32"/>
+      <c r="J29" s="129"/>
     </row>
     <row r="30" spans="1:11" ht="17" thickBot="1">
       <c r="B30" s="34"/>
-      <c r="C30" s="75" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E30" s="136">
-        <f>'Research data'!H24</f>
-        <v>0</v>
-      </c>
-      <c r="F30" s="30"/>
-      <c r="G30" s="80" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="30"/>
-      <c r="I30" s="161" t="s">
-        <v>117</v>
-      </c>
-      <c r="J30" s="132"/>
+      <c r="C30" s="23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="135"/>
+      <c r="E30" s="61"/>
+      <c r="F30" s="32"/>
+      <c r="G30" s="32"/>
+      <c r="H30" s="32"/>
+      <c r="I30" s="32"/>
+      <c r="J30" s="129"/>
     </row>
     <row r="31" spans="1:11" ht="17" thickBot="1">
       <c r="B31" s="34"/>
-      <c r="C31" s="75" t="s">
-        <v>55</v>
+      <c r="C31" s="73" t="s">
+        <v>40</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="136">
-        <v>0</v>
+        <v>4</v>
+      </c>
+      <c r="E31" s="99">
+        <f>'Research data'!H12</f>
+        <v>0.3</v>
       </c>
       <c r="F31" s="30"/>
-      <c r="G31" s="80" t="s">
-        <v>71</v>
+      <c r="G31" s="30" t="s">
+        <v>17</v>
       </c>
       <c r="H31" s="30"/>
-      <c r="I31" s="162" t="s">
-        <v>116</v>
-      </c>
-      <c r="J31" s="132"/>
+      <c r="I31" s="158" t="s">
+        <v>117</v>
+      </c>
+      <c r="J31" s="129"/>
     </row>
     <row r="32" spans="1:11" ht="17" thickBot="1">
       <c r="B32" s="34"/>
       <c r="C32" s="75" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>3</v>
-      </c>
-      <c r="E32" s="103">
-        <f>'Research data'!H25</f>
-        <v>0.05</v>
+        <v>2</v>
+      </c>
+      <c r="E32" s="133">
+        <f>'Research data'!H10</f>
+        <v>0.5</v>
       </c>
       <c r="F32" s="30"/>
       <c r="G32" s="30" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H32" s="30"/>
-      <c r="I32" s="163" t="s">
-        <v>117</v>
-      </c>
-      <c r="J32" s="132"/>
+      <c r="I32" s="177" t="s">
+        <v>69</v>
+      </c>
+      <c r="J32" s="129"/>
     </row>
     <row r="33" spans="2:10" ht="17" thickBot="1">
       <c r="B33" s="34"/>
       <c r="C33" s="75" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="E33" s="78">
+        <f>'Research data'!H11</f>
+        <v>25</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H33" s="30"/>
+      <c r="I33" s="160" t="s">
+        <v>107</v>
+      </c>
+      <c r="J33" s="129"/>
+    </row>
+    <row r="34" spans="2:10" ht="17" thickBot="1">
+      <c r="B34" s="34"/>
+      <c r="C34" s="73" t="s">
+        <v>38</v>
+      </c>
+      <c r="D34" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="78">
         <v>0</v>
       </c>
-      <c r="F33" s="30"/>
-      <c r="G33" s="30"/>
-      <c r="H33" s="30"/>
-      <c r="I33" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J33" s="132"/>
-    </row>
-    <row r="34" spans="2:10">
-      <c r="B34" s="34"/>
-      <c r="C34" s="137"/>
-      <c r="D34" s="138"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="32"/>
-      <c r="G34" s="32"/>
-      <c r="H34" s="32"/>
-      <c r="I34" s="32"/>
-      <c r="J34" s="132"/>
+      <c r="F34" s="30"/>
+      <c r="G34" s="30"/>
+      <c r="H34" s="30"/>
+      <c r="I34" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J34" s="129"/>
     </row>
     <row r="35" spans="2:10" ht="17" thickBot="1">
       <c r="B35" s="34"/>
-      <c r="C35" s="23" t="s">
-        <v>8</v>
-      </c>
-      <c r="D35" s="138"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="32"/>
-      <c r="G35" s="32"/>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="132"/>
+      <c r="C35" s="80" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="78">
+        <v>0</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J35" s="129"/>
     </row>
     <row r="36" spans="2:10" ht="17" thickBot="1">
       <c r="B36" s="34"/>
-      <c r="C36" s="73" t="s">
-        <v>40</v>
+      <c r="C36" s="75" t="s">
+        <v>14</v>
       </c>
       <c r="D36" s="35" t="s">
-        <v>4</v>
-      </c>
-      <c r="E36" s="102">
-        <f>'Research data'!H12</f>
-        <v>0.3</v>
+        <v>5</v>
+      </c>
+      <c r="E36" s="78">
+        <v>0</v>
       </c>
       <c r="F36" s="30"/>
-      <c r="G36" s="30" t="s">
-        <v>17</v>
-      </c>
+      <c r="G36" s="30"/>
       <c r="H36" s="30"/>
-      <c r="I36" s="161" t="s">
-        <v>127</v>
-      </c>
-      <c r="J36" s="132"/>
+      <c r="I36" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J36" s="129"/>
     </row>
     <row r="37" spans="2:10" ht="17" thickBot="1">
       <c r="B37" s="34"/>
-      <c r="C37" s="75" t="s">
+      <c r="C37" s="74" t="s">
         <v>56</v>
       </c>
       <c r="D37" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E37" s="136">
-        <f>'Research data'!H10</f>
-        <v>0.5</v>
+        <v>5</v>
+      </c>
+      <c r="E37" s="33">
+        <v>222222.22219999999</v>
       </c>
       <c r="F37" s="30"/>
-      <c r="G37" s="30" t="s">
-        <v>28</v>
-      </c>
+      <c r="G37" s="30"/>
       <c r="H37" s="30"/>
-      <c r="I37" s="180" t="s">
-        <v>79</v>
-      </c>
-      <c r="J37" s="132"/>
+      <c r="I37" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J37" s="129"/>
     </row>
     <row r="38" spans="2:10" ht="17" thickBot="1">
       <c r="B38" s="34"/>
-      <c r="C38" s="75" t="s">
-        <v>57</v>
+      <c r="C38" s="74" t="s">
+        <v>58</v>
       </c>
       <c r="D38" s="35" t="s">
-        <v>2</v>
-      </c>
-      <c r="E38" s="78">
-        <f>'Research data'!H11</f>
-        <v>25</v>
+        <v>5</v>
+      </c>
+      <c r="E38" s="33">
+        <v>4444.4444439999997</v>
       </c>
       <c r="F38" s="30"/>
-      <c r="G38" s="30" t="s">
-        <v>27</v>
-      </c>
+      <c r="G38" s="30"/>
       <c r="H38" s="30"/>
-      <c r="I38" s="163" t="s">
-        <v>117</v>
-      </c>
-      <c r="J38" s="132"/>
+      <c r="I38" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="J38" s="129"/>
     </row>
     <row r="39" spans="2:10" ht="17" thickBot="1">
       <c r="B39" s="34"/>
-      <c r="C39" s="73" t="s">
-        <v>38</v>
+      <c r="C39" s="75" t="s">
+        <v>57</v>
       </c>
       <c r="D39" s="35" t="s">
         <v>5</v>
@@ -4238,127 +4148,82 @@
       <c r="G39" s="30"/>
       <c r="H39" s="30"/>
       <c r="I39" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J39" s="132"/>
+        <v>63</v>
+      </c>
+      <c r="J39" s="129"/>
     </row>
     <row r="40" spans="2:10" ht="17" thickBot="1">
-      <c r="B40" s="34"/>
-      <c r="C40" s="80" t="s">
-        <v>59</v>
-      </c>
-      <c r="D40" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E40" s="78">
-        <v>0</v>
-      </c>
-      <c r="F40" s="30"/>
-      <c r="G40" s="30"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J40" s="132"/>
-    </row>
-    <row r="41" spans="2:10" ht="17" thickBot="1">
-      <c r="B41" s="34"/>
-      <c r="C41" s="75" t="s">
-        <v>14</v>
-      </c>
-      <c r="D41" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" s="78">
-        <v>0</v>
-      </c>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J41" s="132"/>
-    </row>
-    <row r="42" spans="2:10" ht="17" thickBot="1">
-      <c r="B42" s="34"/>
-      <c r="C42" s="74" t="s">
-        <v>60</v>
-      </c>
-      <c r="D42" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" s="33">
-        <v>222222.22219999999</v>
-      </c>
-      <c r="F42" s="30"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J42" s="132"/>
-    </row>
-    <row r="43" spans="2:10" ht="17" thickBot="1">
-      <c r="B43" s="34"/>
-      <c r="C43" s="74" t="s">
-        <v>63</v>
-      </c>
-      <c r="D43" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E43" s="33">
-        <v>4444.4444439999997</v>
-      </c>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J43" s="132"/>
-    </row>
-    <row r="44" spans="2:10" ht="17" thickBot="1">
-      <c r="B44" s="34"/>
-      <c r="C44" s="75" t="s">
-        <v>61</v>
-      </c>
-      <c r="D44" s="35" t="s">
-        <v>5</v>
-      </c>
-      <c r="E44" s="78">
-        <v>0</v>
-      </c>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
-      <c r="I44" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="J44" s="132"/>
-    </row>
-    <row r="45" spans="2:10" ht="17" thickBot="1">
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
-      <c r="G45" s="38"/>
-      <c r="H45" s="38"/>
-      <c r="I45" s="38"/>
-      <c r="J45" s="6"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="38"/>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="6"/>
+    </row>
+    <row r="41" spans="2:10">
+      <c r="B41" s="39"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="39"/>
+      <c r="E41" s="39"/>
+      <c r="F41" s="39"/>
+      <c r="G41" s="39"/>
+      <c r="H41" s="39"/>
+      <c r="I41" s="39"/>
+    </row>
+    <row r="42" spans="2:10" ht="20" customHeight="1">
+      <c r="B42" s="15"/>
+      <c r="C42" s="15"/>
+      <c r="D42" s="15"/>
+      <c r="E42" s="15"/>
+      <c r="F42" s="15"/>
+      <c r="G42" s="15"/>
+      <c r="H42" s="15"/>
+      <c r="I42" s="15"/>
+    </row>
+    <row r="43" spans="2:10">
+      <c r="B43" s="15"/>
+      <c r="C43" s="15"/>
+      <c r="D43" s="15"/>
+      <c r="E43" s="15"/>
+      <c r="F43" s="15"/>
+      <c r="G43" s="15"/>
+      <c r="H43" s="15"/>
+      <c r="I43" s="15"/>
+    </row>
+    <row r="44" spans="2:10">
+      <c r="B44" s="15"/>
+      <c r="C44" s="15"/>
+      <c r="D44" s="15"/>
+      <c r="E44" s="15"/>
+      <c r="F44" s="15"/>
+      <c r="G44" s="15"/>
+      <c r="H44" s="15"/>
+      <c r="I44" s="15"/>
+    </row>
+    <row r="45" spans="2:10">
+      <c r="B45" s="15"/>
+      <c r="C45" s="15"/>
+      <c r="D45" s="15"/>
+      <c r="E45" s="15"/>
+      <c r="F45" s="15"/>
+      <c r="G45" s="15"/>
+      <c r="H45" s="15"/>
+      <c r="I45" s="15"/>
     </row>
     <row r="46" spans="2:10">
-      <c r="B46" s="39"/>
-      <c r="C46" s="39"/>
-      <c r="D46" s="39"/>
-      <c r="E46" s="39"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="39"/>
-    </row>
-    <row r="47" spans="2:10" ht="20" customHeight="1">
+      <c r="B46" s="15"/>
+      <c r="C46" s="15"/>
+      <c r="D46" s="15"/>
+      <c r="E46" s="15"/>
+      <c r="F46" s="15"/>
+      <c r="G46" s="15"/>
+      <c r="H46" s="15"/>
+      <c r="I46" s="15"/>
+    </row>
+    <row r="47" spans="2:10">
       <c r="B47" s="15"/>
       <c r="C47" s="15"/>
       <c r="D47" s="15"/>
@@ -4427,56 +4292,6 @@
       <c r="G53" s="15"/>
       <c r="H53" s="15"/>
       <c r="I53" s="15"/>
-    </row>
-    <row r="54" spans="2:9">
-      <c r="B54" s="15"/>
-      <c r="C54" s="15"/>
-      <c r="D54" s="15"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="15"/>
-      <c r="G54" s="15"/>
-      <c r="H54" s="15"/>
-      <c r="I54" s="15"/>
-    </row>
-    <row r="55" spans="2:9">
-      <c r="B55" s="15"/>
-      <c r="C55" s="15"/>
-      <c r="D55" s="15"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="15"/>
-      <c r="G55" s="15"/>
-      <c r="H55" s="15"/>
-      <c r="I55" s="15"/>
-    </row>
-    <row r="56" spans="2:9">
-      <c r="B56" s="15"/>
-      <c r="C56" s="15"/>
-      <c r="D56" s="15"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="15"/>
-      <c r="G56" s="15"/>
-      <c r="H56" s="15"/>
-      <c r="I56" s="15"/>
-    </row>
-    <row r="57" spans="2:9">
-      <c r="B57" s="15"/>
-      <c r="C57" s="15"/>
-      <c r="D57" s="15"/>
-      <c r="E57" s="15"/>
-      <c r="F57" s="15"/>
-      <c r="G57" s="15"/>
-      <c r="H57" s="15"/>
-      <c r="I57" s="15"/>
-    </row>
-    <row r="58" spans="2:9">
-      <c r="B58" s="15"/>
-      <c r="C58" s="15"/>
-      <c r="D58" s="15"/>
-      <c r="E58" s="15"/>
-      <c r="F58" s="15"/>
-      <c r="G58" s="15"/>
-      <c r="H58" s="15"/>
-      <c r="I58" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4537,30 +4352,30 @@
     </row>
     <row r="3" spans="2:15" s="42" customFormat="1">
       <c r="B3" s="40"/>
-      <c r="C3" s="123" t="s">
-        <v>100</v>
+      <c r="C3" s="120" t="s">
+        <v>90</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="17"/>
-      <c r="F3" s="123" t="s">
+      <c r="F3" s="120" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="123"/>
-      <c r="H3" s="123" t="s">
-        <v>93</v>
-      </c>
-      <c r="I3" s="123"/>
-      <c r="J3" s="123"/>
-      <c r="K3" s="123" t="s">
-        <v>112</v>
-      </c>
-      <c r="L3" s="123"/>
-      <c r="M3" s="123" t="s">
-        <v>158</v>
-      </c>
-      <c r="N3" s="123"/>
-      <c r="O3" s="123" t="s">
-        <v>106</v>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120" t="s">
+        <v>102</v>
+      </c>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120" t="s">
+        <v>148</v>
+      </c>
+      <c r="N3" s="120"/>
+      <c r="O3" s="120" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="2:15">
@@ -4574,7 +4389,7 @@
       <c r="I4" s="44"/>
       <c r="J4" s="18"/>
       <c r="K4" s="17"/>
-      <c r="L4" s="130"/>
+      <c r="L4" s="127"/>
       <c r="M4" s="17"/>
       <c r="N4" s="17"/>
       <c r="O4" s="17"/>
@@ -4582,7 +4397,7 @@
     <row r="5" spans="2:15" ht="17" thickBot="1">
       <c r="B5" s="34"/>
       <c r="C5" s="72" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="D5" s="72"/>
       <c r="E5" s="72"/>
@@ -4599,22 +4414,22 @@
     </row>
     <row r="6" spans="2:15" ht="17" thickBot="1">
       <c r="B6" s="34"/>
-      <c r="C6" s="157" t="s">
-        <v>131</v>
+      <c r="C6" s="154" t="s">
+        <v>121</v>
       </c>
       <c r="D6" s="72"/>
       <c r="E6" s="72"/>
-      <c r="F6" s="158" t="s">
+      <c r="F6" s="155" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="72"/>
-      <c r="H6" s="179">
+      <c r="H6" s="176">
         <f>K6</f>
         <v>0.17</v>
       </c>
       <c r="I6" s="18"/>
       <c r="J6" s="18"/>
-      <c r="K6" s="159">
+      <c r="K6" s="156">
         <f>Notes!E9</f>
         <v>0.17</v>
       </c>
@@ -4630,25 +4445,25 @@
       </c>
       <c r="D7" s="45"/>
       <c r="E7" s="45"/>
-      <c r="F7" s="158" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="124"/>
-      <c r="H7" s="208">
+      <c r="F7" s="155" t="s">
+        <v>115</v>
+      </c>
+      <c r="G7" s="121"/>
+      <c r="H7" s="196">
         <f>K7</f>
         <v>20</v>
       </c>
       <c r="I7" s="47"/>
       <c r="J7" s="44"/>
-      <c r="K7" s="159">
+      <c r="K7" s="156">
         <f>Notes!E23</f>
         <v>20</v>
       </c>
       <c r="L7" s="32"/>
       <c r="M7" s="32"/>
       <c r="N7" s="32"/>
-      <c r="O7" s="166" t="s">
-        <v>129</v>
+      <c r="O7" s="163" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="8" spans="2:15">
@@ -4665,8 +4480,8 @@
       <c r="L8" s="32"/>
       <c r="M8" s="32"/>
       <c r="N8" s="32"/>
-      <c r="O8" s="167" t="s">
-        <v>130</v>
+      <c r="O8" s="164" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="2:15" ht="17" thickBot="1">
@@ -4685,7 +4500,7 @@
       <c r="L9" s="32"/>
       <c r="M9" s="32"/>
       <c r="N9" s="32"/>
-      <c r="O9" s="127"/>
+      <c r="O9" s="124"/>
     </row>
     <row r="10" spans="2:15" ht="17" thickBot="1">
       <c r="B10" s="34"/>
@@ -4698,7 +4513,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="47"/>
-      <c r="H10" s="196">
+      <c r="H10" s="184">
         <f>M10</f>
         <v>0.5</v>
       </c>
@@ -4706,12 +4521,12 @@
       <c r="J10" s="50"/>
       <c r="K10" s="32"/>
       <c r="L10" s="32"/>
-      <c r="M10" s="179">
+      <c r="M10" s="176">
         <f>Notes!E72</f>
         <v>0.5</v>
       </c>
       <c r="N10" s="32"/>
-      <c r="O10" s="86"/>
+      <c r="O10" s="83"/>
     </row>
     <row r="11" spans="2:15" ht="17" thickBot="1">
       <c r="B11" s="34"/>
@@ -4724,7 +4539,7 @@
         <v>2</v>
       </c>
       <c r="G11" s="47"/>
-      <c r="H11" s="87">
+      <c r="H11" s="84">
         <f>K11</f>
         <v>25</v>
       </c>
@@ -4741,8 +4556,8 @@
     </row>
     <row r="12" spans="2:15" ht="17" thickBot="1">
       <c r="B12" s="34"/>
-      <c r="C12" s="129" t="s">
-        <v>104</v>
+      <c r="C12" s="126" t="s">
+        <v>94</v>
       </c>
       <c r="D12" s="48"/>
       <c r="E12" s="48"/>
@@ -4763,8 +4578,8 @@
       <c r="L12" s="32"/>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
-      <c r="O12" s="181" t="s">
-        <v>135</v>
+      <c r="O12" s="178" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="2:15">
@@ -4781,12 +4596,12 @@
       <c r="L13" s="32"/>
       <c r="M13" s="32"/>
       <c r="N13" s="32"/>
-      <c r="O13" s="119"/>
+      <c r="O13" s="116"/>
     </row>
     <row r="14" spans="2:15" ht="17" thickBot="1">
       <c r="B14" s="34"/>
       <c r="C14" s="21" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
@@ -4799,26 +4614,26 @@
       <c r="L14" s="32"/>
       <c r="M14" s="32"/>
       <c r="N14" s="32"/>
-      <c r="O14" s="119"/>
+      <c r="O14" s="116"/>
     </row>
     <row r="15" spans="2:15" ht="17" thickBot="1">
       <c r="B15" s="34"/>
-      <c r="C15" s="121" t="s">
-        <v>98</v>
+      <c r="C15" s="118" t="s">
+        <v>88</v>
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="88" t="s">
+      <c r="F15" s="85" t="s">
         <v>36</v>
       </c>
-      <c r="G15" s="125"/>
-      <c r="H15" s="168">
+      <c r="G15" s="122"/>
+      <c r="H15" s="165">
         <f>H16*H7*1000</f>
         <v>16420000</v>
       </c>
-      <c r="I15" s="169"/>
+      <c r="I15" s="166"/>
       <c r="J15" s="50"/>
-      <c r="K15" s="170">
+      <c r="K15" s="167">
         <f>K16*H7*1000</f>
         <v>16420000</v>
       </c>
@@ -4829,15 +4644,15 @@
     </row>
     <row r="16" spans="2:15" ht="17" thickBot="1">
       <c r="B16" s="34"/>
-      <c r="C16" s="122" t="s">
+      <c r="C16" s="119" t="s">
         <v>10</v>
       </c>
       <c r="D16" s="56"/>
       <c r="E16" s="56"/>
-      <c r="F16" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="G16" s="124"/>
+      <c r="F16" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="121"/>
       <c r="H16" s="55">
         <f>K16</f>
         <v>821</v>
@@ -4851,19 +4666,19 @@
       <c r="L16" s="50"/>
       <c r="M16" s="32"/>
       <c r="N16" s="50"/>
-      <c r="O16" s="142"/>
+      <c r="O16" s="139"/>
     </row>
     <row r="17" spans="2:15" ht="17" thickBot="1">
       <c r="B17" s="34"/>
-      <c r="C17" s="156" t="s">
-        <v>114</v>
+      <c r="C17" s="153" t="s">
+        <v>104</v>
       </c>
       <c r="D17" s="57"/>
       <c r="E17" s="57"/>
-      <c r="F17" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="G17" s="124"/>
+      <c r="F17" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="G17" s="121"/>
       <c r="H17" s="50"/>
       <c r="I17" s="50"/>
       <c r="J17" s="50"/>
@@ -4874,19 +4689,19 @@
       <c r="L17" s="50"/>
       <c r="M17" s="32"/>
       <c r="N17" s="32"/>
-      <c r="O17" s="142"/>
+      <c r="O17" s="139"/>
     </row>
     <row r="18" spans="2:15" ht="17" thickBot="1">
       <c r="B18" s="34"/>
-      <c r="C18" s="156" t="s">
-        <v>113</v>
+      <c r="C18" s="153" t="s">
+        <v>103</v>
       </c>
       <c r="D18" s="57"/>
       <c r="E18" s="57"/>
-      <c r="F18" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="G18" s="124"/>
+      <c r="F18" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="G18" s="121"/>
       <c r="H18" s="50"/>
       <c r="I18" s="50"/>
       <c r="J18" s="50"/>
@@ -4897,19 +4712,19 @@
       <c r="L18" s="50"/>
       <c r="M18" s="32"/>
       <c r="N18" s="32"/>
-      <c r="O18" s="142"/>
+      <c r="O18" s="139"/>
     </row>
     <row r="19" spans="2:15" ht="17" thickBot="1">
       <c r="B19" s="34"/>
-      <c r="C19" s="156" t="s">
-        <v>115</v>
+      <c r="C19" s="153" t="s">
+        <v>105</v>
       </c>
       <c r="D19" s="58"/>
       <c r="E19" s="58"/>
-      <c r="F19" s="120" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="124"/>
+      <c r="F19" s="117" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="121"/>
       <c r="H19" s="50"/>
       <c r="I19" s="50"/>
       <c r="J19" s="50"/>
@@ -4920,19 +4735,19 @@
       <c r="L19" s="50"/>
       <c r="M19" s="32"/>
       <c r="N19" s="32"/>
-      <c r="O19" s="142"/>
+      <c r="O19" s="139"/>
     </row>
     <row r="20" spans="2:15" ht="17" thickBot="1">
       <c r="B20" s="34"/>
-      <c r="C20" s="217" t="s">
-        <v>186</v>
+      <c r="C20" s="205" t="s">
+        <v>176</v>
       </c>
       <c r="D20" s="58"/>
       <c r="E20" s="58"/>
-      <c r="F20" s="219" t="s">
+      <c r="F20" s="207" t="s">
         <v>36</v>
       </c>
-      <c r="G20" s="124"/>
+      <c r="G20" s="121"/>
       <c r="H20" s="55">
         <f>K20</f>
         <v>1000000</v>
@@ -4946,19 +4761,19 @@
       <c r="L20" s="50"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
-      <c r="O20" s="142"/>
+      <c r="O20" s="139"/>
     </row>
     <row r="21" spans="2:15" ht="17" thickBot="1">
       <c r="B21" s="34"/>
-      <c r="C21" s="217" t="s">
-        <v>165</v>
+      <c r="C21" s="205" t="s">
+        <v>155</v>
       </c>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
-      <c r="F21" s="219" t="s">
-        <v>185</v>
-      </c>
-      <c r="G21" s="124"/>
+      <c r="F21" s="207" t="s">
+        <v>175</v>
+      </c>
+      <c r="G21" s="121"/>
       <c r="H21" s="50"/>
       <c r="I21" s="50"/>
       <c r="J21" s="50"/>
@@ -4969,45 +4784,45 @@
       <c r="L21" s="50"/>
       <c r="M21" s="32"/>
       <c r="N21" s="32"/>
-      <c r="O21" s="142"/>
+      <c r="O21" s="139"/>
     </row>
     <row r="22" spans="2:15" ht="17" thickBot="1">
       <c r="B22" s="34"/>
-      <c r="C22" s="128" t="s">
-        <v>103</v>
+      <c r="C22" s="125" t="s">
+        <v>93</v>
       </c>
       <c r="D22" s="59"/>
       <c r="E22" s="59"/>
-      <c r="F22" s="120" t="s">
-        <v>64</v>
-      </c>
-      <c r="G22" s="124"/>
-      <c r="H22" s="171">
+      <c r="F22" s="117" t="s">
+        <v>59</v>
+      </c>
+      <c r="G22" s="121"/>
+      <c r="H22" s="168">
         <f>K22</f>
         <v>318000</v>
       </c>
-      <c r="I22" s="172"/>
+      <c r="I22" s="169"/>
       <c r="J22" s="50"/>
-      <c r="K22" s="171">
+      <c r="K22" s="168">
         <f>K23*H7*1000</f>
         <v>318000</v>
       </c>
       <c r="L22" s="32"/>
       <c r="M22" s="32"/>
       <c r="N22" s="32"/>
-      <c r="O22" s="143"/>
+      <c r="O22" s="140"/>
     </row>
     <row r="23" spans="2:15" ht="17" thickBot="1">
       <c r="B23" s="34"/>
-      <c r="C23" s="128" t="s">
-        <v>103</v>
+      <c r="C23" s="125" t="s">
+        <v>93</v>
       </c>
       <c r="D23" s="62"/>
       <c r="E23" s="62"/>
-      <c r="F23" s="120" t="s">
-        <v>99</v>
-      </c>
-      <c r="G23" s="124"/>
+      <c r="F23" s="117" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="121"/>
       <c r="H23" s="52">
         <f>K23</f>
         <v>15.899999999999999</v>
@@ -5021,19 +4836,19 @@
       <c r="L23" s="60"/>
       <c r="M23" s="60"/>
       <c r="N23" s="60"/>
-      <c r="O23" s="144"/>
+      <c r="O23" s="141"/>
     </row>
     <row r="24" spans="2:15" ht="17" thickBot="1">
       <c r="B24" s="34"/>
       <c r="C24" s="77" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D24" s="63"/>
       <c r="E24" s="63"/>
-      <c r="F24" s="85" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="126"/>
+      <c r="F24" s="82" t="s">
+        <v>67</v>
+      </c>
+      <c r="G24" s="123"/>
       <c r="H24" s="53">
         <f>K24</f>
         <v>0</v>
@@ -5046,19 +4861,19 @@
       <c r="L24" s="50"/>
       <c r="M24" s="60"/>
       <c r="N24" s="60"/>
-      <c r="O24" s="142"/>
+      <c r="O24" s="139"/>
     </row>
     <row r="25" spans="2:15" ht="17" thickBot="1">
       <c r="B25" s="34"/>
-      <c r="C25" s="160" t="s">
-        <v>58</v>
+      <c r="C25" s="157" t="s">
+        <v>54</v>
       </c>
       <c r="D25" s="63"/>
       <c r="E25" s="63"/>
-      <c r="F25" s="158" t="s">
+      <c r="F25" s="155" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="126"/>
+      <c r="G25" s="123"/>
       <c r="H25" s="53">
         <f>K25</f>
         <v>0.05</v>
@@ -5071,12 +4886,12 @@
       <c r="L25" s="50"/>
       <c r="M25" s="60"/>
       <c r="N25" s="60"/>
-      <c r="O25" s="142"/>
+      <c r="O25" s="139"/>
     </row>
     <row r="26" spans="2:15">
       <c r="B26" s="34"/>
-      <c r="C26" s="160"/>
-      <c r="O26" s="89"/>
+      <c r="C26" s="157"/>
+      <c r="O26" s="86"/>
     </row>
     <row r="27" spans="2:15">
       <c r="B27" s="34"/>
@@ -5100,32 +4915,32 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="90" customWidth="1"/>
-    <col min="2" max="2" width="3" style="90" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="90" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="90" customWidth="1"/>
-    <col min="5" max="5" width="14" style="90" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="90" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="91" customWidth="1"/>
-    <col min="9" max="9" width="32.5" style="91" customWidth="1"/>
-    <col min="10" max="10" width="76.5" style="90" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="90"/>
+    <col min="1" max="1" width="3.5" style="87" customWidth="1"/>
+    <col min="2" max="2" width="3" style="87" customWidth="1"/>
+    <col min="3" max="3" width="27.83203125" style="87" customWidth="1"/>
+    <col min="4" max="4" width="16.1640625" style="87" customWidth="1"/>
+    <col min="5" max="5" width="14" style="87" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" style="87" customWidth="1"/>
+    <col min="7" max="8" width="12.6640625" style="88" customWidth="1"/>
+    <col min="9" max="9" width="32.5" style="88" customWidth="1"/>
+    <col min="10" max="10" width="76.5" style="87" customWidth="1"/>
+    <col min="11" max="16384" width="33.1640625" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
     <row r="2" spans="2:11">
-      <c r="B2" s="92"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="94"/>
-      <c r="I2" s="94"/>
-      <c r="J2" s="93"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
+      <c r="G2" s="91"/>
+      <c r="H2" s="91"/>
+      <c r="I2" s="91"/>
+      <c r="J2" s="90"/>
     </row>
     <row r="3" spans="2:11">
-      <c r="B3" s="95"/>
+      <c r="B3" s="92"/>
       <c r="C3" s="23" t="s">
         <v>24</v>
       </c>
@@ -5135,21 +4950,21 @@
       <c r="G3" s="26"/>
       <c r="H3" s="26"/>
       <c r="I3" s="26"/>
-      <c r="J3" s="96"/>
+      <c r="J3" s="93"/>
     </row>
     <row r="4" spans="2:11">
-      <c r="B4" s="95"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="96"/>
-      <c r="F4" s="96"/>
-      <c r="G4" s="97"/>
-      <c r="H4" s="97"/>
-      <c r="I4" s="97"/>
-      <c r="J4" s="96"/>
+      <c r="B4" s="92"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+      <c r="F4" s="93"/>
+      <c r="G4" s="94"/>
+      <c r="H4" s="94"/>
+      <c r="I4" s="94"/>
+      <c r="J4" s="93"/>
     </row>
     <row r="5" spans="2:11">
-      <c r="B5" s="98"/>
+      <c r="B5" s="95"/>
       <c r="C5" s="24" t="s">
         <v>31</v>
       </c>
@@ -5166,17 +4981,17 @@
         <v>33</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
       <c r="I5" s="27" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="J5" s="24" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" spans="2:11">
-      <c r="B6" s="95"/>
+      <c r="B6" s="92"/>
       <c r="C6" s="23"/>
       <c r="D6" s="23"/>
       <c r="E6" s="23"/>
@@ -5187,284 +5002,284 @@
       <c r="J6" s="23"/>
     </row>
     <row r="7" spans="2:11">
-      <c r="B7" s="95"/>
-      <c r="C7" s="99" t="s">
+      <c r="B7" s="92"/>
+      <c r="C7" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="154" t="s">
-        <v>119</v>
-      </c>
-      <c r="E7" s="154" t="s">
-        <v>120</v>
-      </c>
-      <c r="F7" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="G7" s="165" t="s">
-        <v>122</v>
-      </c>
-      <c r="H7" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="I7" s="153" t="s">
-        <v>124</v>
-      </c>
-      <c r="J7" s="152" t="s">
-        <v>123</v>
+      <c r="D7" s="151" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="151" t="s">
+        <v>110</v>
+      </c>
+      <c r="F7" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7" s="162" t="s">
+        <v>112</v>
+      </c>
+      <c r="H7" s="162" t="s">
+        <v>111</v>
+      </c>
+      <c r="I7" s="150" t="s">
+        <v>114</v>
+      </c>
+      <c r="J7" s="149" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="2:11">
-      <c r="B8" s="95"/>
-      <c r="C8" s="100" t="s">
+      <c r="B8" s="92"/>
+      <c r="C8" s="97" t="s">
         <v>10</v>
       </c>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
-      <c r="H8" s="97"/>
-      <c r="I8" s="97"/>
-      <c r="J8" s="96"/>
+      <c r="D8" s="93"/>
+      <c r="E8" s="93"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="94"/>
+      <c r="I8" s="94"/>
+      <c r="J8" s="93"/>
     </row>
     <row r="9" spans="2:11">
-      <c r="B9" s="95"/>
-      <c r="C9" s="100" t="s">
+      <c r="B9" s="92"/>
+      <c r="C9" s="97" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="96"/>
-      <c r="E9" s="96"/>
-      <c r="F9" s="97"/>
-      <c r="G9" s="97"/>
-      <c r="H9" s="97"/>
-      <c r="I9" s="97"/>
-      <c r="J9" s="96"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="94"/>
+      <c r="I9" s="94"/>
+      <c r="J9" s="93"/>
     </row>
     <row r="10" spans="2:11">
-      <c r="B10" s="95"/>
-      <c r="C10" s="100" t="s">
+      <c r="B10" s="92"/>
+      <c r="C10" s="97" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="96"/>
-      <c r="E10" s="96"/>
-      <c r="F10" s="97"/>
-      <c r="G10" s="97"/>
-      <c r="H10" s="97"/>
-      <c r="I10" s="97"/>
-      <c r="J10" s="96"/>
+      <c r="D10" s="93"/>
+      <c r="E10" s="93"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="94"/>
+      <c r="I10" s="94"/>
+      <c r="J10" s="93"/>
     </row>
     <row r="11" spans="2:11">
-      <c r="B11" s="95"/>
-      <c r="C11" s="164" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" s="96"/>
-      <c r="E11" s="96"/>
-      <c r="F11" s="97"/>
-      <c r="G11" s="97"/>
-      <c r="H11" s="97"/>
-      <c r="I11" s="97"/>
-      <c r="J11" s="96"/>
+      <c r="B11" s="92"/>
+      <c r="C11" s="161" t="s">
+        <v>108</v>
+      </c>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="94"/>
+      <c r="I11" s="94"/>
+      <c r="J11" s="93"/>
     </row>
     <row r="12" spans="2:11">
-      <c r="B12" s="95"/>
-      <c r="C12" s="164" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="96"/>
-      <c r="E12" s="96"/>
-      <c r="F12" s="97"/>
-      <c r="G12" s="97"/>
-      <c r="H12" s="97"/>
-      <c r="I12" s="97"/>
+      <c r="B12" s="92"/>
+      <c r="C12" s="161" t="s">
+        <v>54</v>
+      </c>
+      <c r="D12" s="93"/>
+      <c r="E12" s="93"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="94"/>
+      <c r="I12" s="94"/>
     </row>
     <row r="13" spans="2:11">
-      <c r="B13" s="95"/>
+      <c r="B13" s="92"/>
     </row>
     <row r="14" spans="2:11">
-      <c r="B14" s="95"/>
-      <c r="C14" s="174"/>
-      <c r="D14" s="175"/>
-      <c r="E14" s="176"/>
-      <c r="F14" s="177"/>
-      <c r="G14" s="177"/>
-      <c r="H14" s="177"/>
-      <c r="I14" s="177"/>
-      <c r="J14" s="178"/>
-      <c r="K14" s="173"/>
+      <c r="B14" s="92"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="174"/>
+      <c r="H14" s="174"/>
+      <c r="I14" s="174"/>
+      <c r="J14" s="175"/>
+      <c r="K14" s="170"/>
     </row>
     <row r="15" spans="2:11">
-      <c r="B15" s="95"/>
-      <c r="K15" s="173"/>
+      <c r="B15" s="92"/>
+      <c r="K15" s="170"/>
     </row>
     <row r="16" spans="2:11">
-      <c r="B16" s="95"/>
-      <c r="C16" s="192" t="s">
-        <v>119</v>
-      </c>
-      <c r="D16" s="192" t="s">
-        <v>120</v>
-      </c>
-      <c r="E16" s="209">
+      <c r="B16" s="92"/>
+      <c r="C16" s="180" t="s">
+        <v>109</v>
+      </c>
+      <c r="D16" s="180" t="s">
+        <v>110</v>
+      </c>
+      <c r="E16" s="197">
         <v>43076</v>
       </c>
-      <c r="F16" s="210">
+      <c r="F16" s="198">
         <v>42744</v>
       </c>
-      <c r="G16" s="192"/>
-      <c r="H16" s="192" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" s="192" t="s">
-        <v>152</v>
-      </c>
-      <c r="J16" s="99"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180" t="s">
+        <v>141</v>
+      </c>
+      <c r="I16" s="180" t="s">
+        <v>142</v>
+      </c>
+      <c r="J16" s="96"/>
     </row>
     <row r="17" spans="2:10">
-      <c r="B17" s="95"/>
-      <c r="C17" s="191" t="s">
-        <v>117</v>
-      </c>
-      <c r="D17" s="192" t="s">
-        <v>120</v>
-      </c>
-      <c r="E17" s="192">
+      <c r="B17" s="92"/>
+      <c r="C17" s="179" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="180" t="s">
+        <v>110</v>
+      </c>
+      <c r="E17" s="180">
         <v>2018</v>
       </c>
-      <c r="F17" s="193" t="s">
-        <v>137</v>
-      </c>
-      <c r="G17" s="193" t="s">
-        <v>138</v>
-      </c>
-      <c r="H17" s="194" t="s">
-        <v>139</v>
-      </c>
-      <c r="I17" s="97"/>
-      <c r="J17" s="101"/>
+      <c r="F17" s="181" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" s="181" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" s="182" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17" s="94"/>
+      <c r="J17" s="98"/>
     </row>
     <row r="18" spans="2:10">
-      <c r="B18" s="95"/>
-      <c r="C18" s="155" t="s">
+      <c r="B18" s="92"/>
+      <c r="C18" s="152" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="2:10">
-      <c r="B19" s="95"/>
+      <c r="B19" s="92"/>
     </row>
     <row r="20" spans="2:10">
-      <c r="B20" s="95"/>
-      <c r="C20" s="192" t="s">
-        <v>181</v>
-      </c>
-      <c r="D20" s="192"/>
-      <c r="E20" s="192" t="s">
-        <v>182</v>
-      </c>
-      <c r="F20" s="215">
+      <c r="B20" s="92"/>
+      <c r="C20" s="180" t="s">
+        <v>171</v>
+      </c>
+      <c r="D20" s="180"/>
+      <c r="E20" s="180" t="s">
+        <v>172</v>
+      </c>
+      <c r="F20" s="203">
         <v>2017</v>
       </c>
-      <c r="G20" s="210"/>
-      <c r="H20" s="192">
+      <c r="G20" s="198"/>
+      <c r="H20" s="180">
         <v>2019</v>
       </c>
-      <c r="I20" s="192" t="s">
-        <v>183</v>
-      </c>
-      <c r="J20" s="192"/>
+      <c r="I20" s="180" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" s="180"/>
     </row>
     <row r="21" spans="2:10">
-      <c r="B21" s="95"/>
-      <c r="C21" s="192"/>
-      <c r="D21" s="192"/>
-      <c r="E21" s="192"/>
-      <c r="F21" s="215"/>
-      <c r="G21" s="216"/>
-      <c r="H21" s="192"/>
-      <c r="I21" s="192" t="s">
-        <v>184</v>
-      </c>
-      <c r="J21" s="192"/>
+      <c r="B21" s="92"/>
+      <c r="C21" s="180"/>
+      <c r="D21" s="180"/>
+      <c r="E21" s="180"/>
+      <c r="F21" s="203"/>
+      <c r="G21" s="204"/>
+      <c r="H21" s="180"/>
+      <c r="I21" s="180" t="s">
+        <v>174</v>
+      </c>
+      <c r="J21" s="180"/>
     </row>
     <row r="22" spans="2:10">
-      <c r="B22" s="95"/>
-      <c r="C22" s="192"/>
-      <c r="D22" s="192"/>
-      <c r="E22" s="192"/>
-      <c r="F22" s="215"/>
-      <c r="G22" s="210"/>
-      <c r="H22" s="192"/>
-      <c r="I22" s="192"/>
-      <c r="J22" s="192"/>
+      <c r="B22" s="92"/>
+      <c r="C22" s="180"/>
+      <c r="D22" s="180"/>
+      <c r="E22" s="180"/>
+      <c r="F22" s="203"/>
+      <c r="G22" s="198"/>
+      <c r="H22" s="180"/>
+      <c r="I22" s="180"/>
+      <c r="J22" s="180"/>
     </row>
     <row r="23" spans="2:10">
-      <c r="B23" s="95"/>
-      <c r="C23" s="192"/>
-      <c r="D23" s="192"/>
-      <c r="E23" s="192"/>
-      <c r="F23" s="215"/>
-      <c r="G23" s="216"/>
-      <c r="H23" s="192"/>
-      <c r="I23" s="192"/>
-      <c r="J23" s="192"/>
+      <c r="B23" s="92"/>
+      <c r="C23" s="180"/>
+      <c r="D23" s="180"/>
+      <c r="E23" s="180"/>
+      <c r="F23" s="203"/>
+      <c r="G23" s="204"/>
+      <c r="H23" s="180"/>
+      <c r="I23" s="180"/>
+      <c r="J23" s="180"/>
     </row>
     <row r="24" spans="2:10">
-      <c r="B24" s="95"/>
-      <c r="C24" s="192"/>
-      <c r="D24" s="192"/>
-      <c r="E24" s="192"/>
-      <c r="F24" s="215"/>
-      <c r="G24" s="216"/>
-      <c r="H24" s="192"/>
-      <c r="I24" s="192"/>
-      <c r="J24" s="192"/>
+      <c r="B24" s="92"/>
+      <c r="C24" s="180"/>
+      <c r="D24" s="180"/>
+      <c r="E24" s="180"/>
+      <c r="F24" s="203"/>
+      <c r="G24" s="204"/>
+      <c r="H24" s="180"/>
+      <c r="I24" s="180"/>
+      <c r="J24" s="180"/>
     </row>
     <row r="25" spans="2:10">
-      <c r="B25" s="95"/>
-      <c r="C25" s="192"/>
-      <c r="D25" s="192"/>
-      <c r="E25" s="192"/>
-      <c r="F25" s="215"/>
-      <c r="G25" s="210"/>
-      <c r="H25" s="192"/>
-      <c r="I25" s="192"/>
-      <c r="J25" s="192"/>
+      <c r="B25" s="92"/>
+      <c r="C25" s="180"/>
+      <c r="D25" s="180"/>
+      <c r="E25" s="180"/>
+      <c r="F25" s="203"/>
+      <c r="G25" s="198"/>
+      <c r="H25" s="180"/>
+      <c r="I25" s="180"/>
+      <c r="J25" s="180"/>
     </row>
     <row r="26" spans="2:10">
-      <c r="B26" s="95"/>
-      <c r="C26" s="192"/>
-      <c r="D26" s="192"/>
-      <c r="E26" s="192"/>
-      <c r="F26" s="215"/>
-      <c r="G26" s="216"/>
-      <c r="H26" s="192"/>
-      <c r="I26" s="192"/>
-      <c r="J26" s="192"/>
+      <c r="B26" s="92"/>
+      <c r="C26" s="180"/>
+      <c r="D26" s="180"/>
+      <c r="E26" s="180"/>
+      <c r="F26" s="203"/>
+      <c r="G26" s="204"/>
+      <c r="H26" s="180"/>
+      <c r="I26" s="180"/>
+      <c r="J26" s="180"/>
     </row>
     <row r="27" spans="2:10">
-      <c r="B27" s="95"/>
-      <c r="C27" s="192"/>
-      <c r="D27" s="192"/>
-      <c r="E27" s="192"/>
-      <c r="F27" s="215"/>
-      <c r="G27" s="210"/>
-      <c r="H27" s="192"/>
-      <c r="I27" s="192"/>
-      <c r="J27" s="192"/>
+      <c r="B27" s="92"/>
+      <c r="C27" s="180"/>
+      <c r="D27" s="180"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="203"/>
+      <c r="G27" s="198"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
     </row>
     <row r="28" spans="2:10">
-      <c r="B28" s="95"/>
+      <c r="B28" s="92"/>
     </row>
     <row r="29" spans="2:10">
-      <c r="B29" s="95"/>
+      <c r="B29" s="92"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="95"/>
+      <c r="B30" s="92"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="95"/>
+      <c r="B31" s="92"/>
     </row>
     <row r="32" spans="2:10">
-      <c r="B32" s="95"/>
+      <c r="B32" s="92"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5485,29 +5300,29 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="141" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="141" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="141" customWidth="1"/>
-    <col min="4" max="4" width="34" style="141" customWidth="1"/>
-    <col min="5" max="5" width="23" style="141" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="141"/>
+    <col min="1" max="1" width="4.5" style="138" customWidth="1"/>
+    <col min="2" max="2" width="5.5" style="138" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="138" customWidth="1"/>
+    <col min="4" max="4" width="34" style="138" customWidth="1"/>
+    <col min="5" max="5" width="23" style="138" customWidth="1"/>
+    <col min="6" max="16384" width="10.6640625" style="138"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
     <row r="2" spans="2:14">
-      <c r="B2" s="145"/>
-      <c r="C2" s="146"/>
-      <c r="D2" s="146"/>
-      <c r="E2" s="146"/>
-      <c r="F2" s="146"/>
-      <c r="G2" s="146"/>
-      <c r="H2" s="146"/>
-      <c r="I2" s="146"/>
-      <c r="J2" s="146"/>
-      <c r="K2" s="146"/>
-      <c r="L2" s="146"/>
-      <c r="M2" s="146"/>
-      <c r="N2" s="147"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="143"/>
+      <c r="I2" s="143"/>
+      <c r="J2" s="143"/>
+      <c r="K2" s="143"/>
+      <c r="L2" s="143"/>
+      <c r="M2" s="143"/>
+      <c r="N2" s="144"/>
     </row>
     <row r="3" spans="2:14" s="42" customFormat="1">
       <c r="B3" s="79"/>
@@ -5515,7 +5330,7 @@
         <v>0</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="E3" s="24"/>
       <c r="F3" s="24"/>
@@ -5526,2019 +5341,2019 @@
       <c r="K3" s="24"/>
       <c r="L3" s="24"/>
       <c r="M3" s="24"/>
-      <c r="N3" s="151"/>
+      <c r="N3" s="148"/>
     </row>
     <row r="4" spans="2:14">
-      <c r="B4" s="148"/>
-      <c r="C4" s="140"/>
-      <c r="D4" s="140"/>
-      <c r="E4" s="140"/>
-      <c r="F4" s="140"/>
-      <c r="G4" s="140"/>
-      <c r="H4" s="140"/>
-      <c r="I4" s="140"/>
-      <c r="J4" s="140"/>
-      <c r="K4" s="140"/>
-      <c r="L4" s="140"/>
-      <c r="M4" s="140"/>
-      <c r="N4" s="149"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="137"/>
+      <c r="D4" s="137"/>
+      <c r="E4" s="137"/>
+      <c r="F4" s="137"/>
+      <c r="G4" s="137"/>
+      <c r="H4" s="137"/>
+      <c r="I4" s="137"/>
+      <c r="J4" s="137"/>
+      <c r="K4" s="137"/>
+      <c r="L4" s="137"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="146"/>
     </row>
     <row r="5" spans="2:14">
-      <c r="B5" s="148"/>
-      <c r="C5" s="195" t="s">
-        <v>140</v>
-      </c>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
-      <c r="M5" s="140"/>
-      <c r="N5" s="149"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="183" t="s">
+        <v>130</v>
+      </c>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
+      <c r="F5" s="137"/>
+      <c r="G5" s="137"/>
+      <c r="H5" s="137"/>
+      <c r="I5" s="137"/>
+      <c r="J5" s="137"/>
+      <c r="K5" s="137"/>
+      <c r="L5" s="137"/>
+      <c r="M5" s="137"/>
+      <c r="N5" s="146"/>
     </row>
     <row r="6" spans="2:14">
-      <c r="B6" s="148"/>
-      <c r="C6" s="140"/>
-      <c r="D6" s="140"/>
-      <c r="E6" s="140"/>
-      <c r="F6" s="140"/>
-      <c r="G6" s="140"/>
-      <c r="H6" s="140"/>
-      <c r="I6" s="140"/>
-      <c r="J6" s="140"/>
-      <c r="K6" s="140"/>
-      <c r="L6" s="140"/>
-      <c r="M6" s="140"/>
-      <c r="N6" s="149"/>
+      <c r="B6" s="145"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
+      <c r="N6" s="146"/>
     </row>
     <row r="7" spans="2:14">
-      <c r="B7" s="148"/>
-      <c r="C7" s="140"/>
-      <c r="D7" s="140"/>
-      <c r="E7" s="140"/>
-      <c r="F7" s="140"/>
-      <c r="G7" s="140"/>
-      <c r="H7" s="140"/>
-      <c r="I7" s="140"/>
-      <c r="J7" s="140"/>
-      <c r="K7" s="140"/>
-      <c r="L7" s="140"/>
-      <c r="M7" s="140"/>
-      <c r="N7" s="149"/>
+      <c r="B7" s="145"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
+      <c r="N7" s="146"/>
     </row>
     <row r="8" spans="2:14">
-      <c r="B8" s="148"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="149"/>
+      <c r="B8" s="145"/>
+      <c r="C8" s="137"/>
+      <c r="D8" s="137"/>
+      <c r="E8" s="137"/>
+      <c r="F8" s="137"/>
+      <c r="G8" s="137"/>
+      <c r="H8" s="137"/>
+      <c r="I8" s="137"/>
+      <c r="J8" s="137"/>
+      <c r="K8" s="137"/>
+      <c r="L8" s="137"/>
+      <c r="M8" s="137"/>
+      <c r="N8" s="146"/>
     </row>
     <row r="9" spans="2:14">
-      <c r="B9" s="148"/>
-      <c r="C9" s="173" t="s">
+      <c r="B9" s="145"/>
+      <c r="C9" s="170" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="140"/>
-      <c r="E9" s="140">
+      <c r="D9" s="137"/>
+      <c r="E9" s="137">
         <v>0.17</v>
       </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="140"/>
-      <c r="I9" s="140"/>
-      <c r="J9" s="140"/>
-      <c r="K9" s="140"/>
-      <c r="L9" s="140"/>
-      <c r="M9" s="140"/>
-      <c r="N9" s="149"/>
+      <c r="F9" s="137"/>
+      <c r="G9" s="137"/>
+      <c r="H9" s="137"/>
+      <c r="I9" s="137"/>
+      <c r="J9" s="137"/>
+      <c r="K9" s="137"/>
+      <c r="L9" s="137"/>
+      <c r="M9" s="137"/>
+      <c r="N9" s="146"/>
     </row>
     <row r="10" spans="2:14">
-      <c r="B10" s="148"/>
-      <c r="C10" s="140"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="140"/>
-      <c r="F10" s="140"/>
-      <c r="G10" s="140"/>
-      <c r="H10" s="140"/>
-      <c r="I10" s="140"/>
-      <c r="J10" s="140"/>
-      <c r="K10" s="140"/>
-      <c r="L10" s="140"/>
-      <c r="M10" s="140"/>
-      <c r="N10" s="149"/>
+      <c r="B10" s="145"/>
+      <c r="C10" s="137"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="137"/>
+      <c r="F10" s="137"/>
+      <c r="G10" s="137"/>
+      <c r="H10" s="137"/>
+      <c r="I10" s="137"/>
+      <c r="J10" s="137"/>
+      <c r="K10" s="137"/>
+      <c r="L10" s="137"/>
+      <c r="M10" s="137"/>
+      <c r="N10" s="146"/>
     </row>
     <row r="11" spans="2:14">
-      <c r="B11" s="148"/>
-      <c r="C11" s="140"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="140"/>
-      <c r="F11" s="140"/>
-      <c r="G11" s="140"/>
-      <c r="H11" s="140"/>
-      <c r="I11" s="140"/>
-      <c r="J11" s="140"/>
-      <c r="K11" s="140"/>
-      <c r="L11" s="140"/>
-      <c r="M11" s="140"/>
-      <c r="N11" s="149"/>
+      <c r="B11" s="145"/>
+      <c r="C11" s="137"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="137"/>
+      <c r="F11" s="137"/>
+      <c r="G11" s="137"/>
+      <c r="H11" s="137"/>
+      <c r="I11" s="137"/>
+      <c r="J11" s="137"/>
+      <c r="K11" s="137"/>
+      <c r="L11" s="137"/>
+      <c r="M11" s="137"/>
+      <c r="N11" s="146"/>
     </row>
     <row r="12" spans="2:14">
-      <c r="B12" s="148"/>
-      <c r="C12" s="140"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="140"/>
-      <c r="F12" s="140"/>
-      <c r="G12" s="140"/>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="140"/>
-      <c r="K12" s="140"/>
-      <c r="L12" s="140"/>
-      <c r="M12" s="140"/>
-      <c r="N12" s="149"/>
+      <c r="B12" s="145"/>
+      <c r="C12" s="137"/>
+      <c r="D12" s="147"/>
+      <c r="E12" s="137"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="137"/>
+      <c r="H12" s="137"/>
+      <c r="I12" s="137"/>
+      <c r="J12" s="137"/>
+      <c r="K12" s="137"/>
+      <c r="L12" s="137"/>
+      <c r="M12" s="137"/>
+      <c r="N12" s="146"/>
     </row>
     <row r="13" spans="2:14">
-      <c r="B13" s="148"/>
-      <c r="C13" s="140"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="140"/>
-      <c r="F13" s="140"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="149"/>
+      <c r="B13" s="145"/>
+      <c r="C13" s="137"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="137"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="137"/>
+      <c r="H13" s="137"/>
+      <c r="I13" s="137"/>
+      <c r="J13" s="137"/>
+      <c r="K13" s="137"/>
+      <c r="L13" s="137"/>
+      <c r="M13" s="137"/>
+      <c r="N13" s="146"/>
     </row>
     <row r="14" spans="2:14">
-      <c r="B14" s="148"/>
-      <c r="C14" s="140"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="140"/>
-      <c r="F14" s="140"/>
-      <c r="G14" s="140"/>
-      <c r="H14" s="140"/>
-      <c r="I14" s="140"/>
-      <c r="J14" s="140"/>
-      <c r="K14" s="140"/>
-      <c r="L14" s="140"/>
-      <c r="M14" s="140"/>
-      <c r="N14" s="149"/>
+      <c r="B14" s="145"/>
+      <c r="C14" s="137"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="137"/>
+      <c r="F14" s="137"/>
+      <c r="G14" s="137"/>
+      <c r="H14" s="137"/>
+      <c r="I14" s="137"/>
+      <c r="J14" s="137"/>
+      <c r="K14" s="137"/>
+      <c r="L14" s="137"/>
+      <c r="M14" s="137"/>
+      <c r="N14" s="146"/>
     </row>
     <row r="15" spans="2:14">
-      <c r="B15" s="148"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
-      <c r="I15" s="140"/>
-      <c r="J15" s="140"/>
-      <c r="K15" s="140"/>
-      <c r="L15" s="140"/>
-      <c r="M15" s="140"/>
-      <c r="N15" s="149"/>
+      <c r="B15" s="145"/>
+      <c r="C15" s="137"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="137"/>
+      <c r="F15" s="137"/>
+      <c r="G15" s="137"/>
+      <c r="H15" s="137"/>
+      <c r="I15" s="137"/>
+      <c r="J15" s="137"/>
+      <c r="K15" s="137"/>
+      <c r="L15" s="137"/>
+      <c r="M15" s="137"/>
+      <c r="N15" s="146"/>
     </row>
     <row r="16" spans="2:14">
-      <c r="B16" s="148"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
-      <c r="I16" s="140"/>
-      <c r="J16" s="140"/>
-      <c r="K16" s="140"/>
-      <c r="L16" s="140"/>
-      <c r="M16" s="140"/>
-      <c r="N16" s="149"/>
+      <c r="B16" s="145"/>
+      <c r="C16" s="137"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="137"/>
+      <c r="F16" s="137"/>
+      <c r="G16" s="137"/>
+      <c r="H16" s="137"/>
+      <c r="I16" s="137"/>
+      <c r="J16" s="137"/>
+      <c r="K16" s="137"/>
+      <c r="L16" s="137"/>
+      <c r="M16" s="137"/>
+      <c r="N16" s="146"/>
     </row>
     <row r="17" spans="2:14">
-      <c r="B17" s="148"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="140"/>
-      <c r="F17" s="140"/>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
-      <c r="I17" s="140"/>
-      <c r="J17" s="140"/>
-      <c r="K17" s="140"/>
-      <c r="L17" s="140"/>
-      <c r="M17" s="140"/>
-      <c r="N17" s="149"/>
+      <c r="B17" s="145"/>
+      <c r="C17" s="137"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="137"/>
+      <c r="F17" s="137"/>
+      <c r="G17" s="137"/>
+      <c r="H17" s="137"/>
+      <c r="I17" s="137"/>
+      <c r="J17" s="137"/>
+      <c r="K17" s="137"/>
+      <c r="L17" s="137"/>
+      <c r="M17" s="137"/>
+      <c r="N17" s="146"/>
     </row>
     <row r="18" spans="2:14">
-      <c r="B18" s="148"/>
-      <c r="C18" s="195" t="s">
-        <v>153</v>
-      </c>
-      <c r="D18" s="140"/>
-      <c r="E18" s="140"/>
-      <c r="F18" s="140"/>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
-      <c r="I18" s="140"/>
-      <c r="J18" s="140"/>
-      <c r="K18" s="140"/>
-      <c r="L18" s="140"/>
-      <c r="M18" s="140"/>
-      <c r="N18" s="149"/>
+      <c r="B18" s="145"/>
+      <c r="C18" s="183" t="s">
+        <v>143</v>
+      </c>
+      <c r="D18" s="137"/>
+      <c r="E18" s="137"/>
+      <c r="F18" s="137"/>
+      <c r="G18" s="137"/>
+      <c r="H18" s="137"/>
+      <c r="I18" s="137"/>
+      <c r="J18" s="137"/>
+      <c r="K18" s="137"/>
+      <c r="L18" s="137"/>
+      <c r="M18" s="137"/>
+      <c r="N18" s="146"/>
     </row>
     <row r="19" spans="2:14">
-      <c r="B19" s="148"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
-      <c r="I19" s="140"/>
-      <c r="J19" s="140"/>
-      <c r="K19" s="140"/>
-      <c r="L19" s="140"/>
-      <c r="M19" s="140"/>
-      <c r="N19" s="149"/>
-    </row>
-    <row r="20" spans="2:14" s="192" customFormat="1">
-      <c r="B20" s="197"/>
-      <c r="C20" s="195"/>
-      <c r="D20" s="198"/>
-      <c r="E20" s="198"/>
-      <c r="F20" s="198"/>
-      <c r="G20" s="198"/>
-      <c r="H20" s="195"/>
-      <c r="I20" s="195"/>
-      <c r="J20" s="195"/>
-      <c r="K20" s="195"/>
-      <c r="L20" s="195"/>
-      <c r="M20" s="195"/>
-      <c r="N20" s="199"/>
-    </row>
-    <row r="21" spans="2:14" s="192" customFormat="1">
-      <c r="B21" s="197"/>
+      <c r="B19" s="145"/>
+      <c r="C19" s="137"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="137"/>
+      <c r="F19" s="137"/>
+      <c r="G19" s="137"/>
+      <c r="H19" s="137"/>
+      <c r="I19" s="137"/>
+      <c r="J19" s="137"/>
+      <c r="K19" s="137"/>
+      <c r="L19" s="137"/>
+      <c r="M19" s="137"/>
+      <c r="N19" s="146"/>
+    </row>
+    <row r="20" spans="2:14" s="180" customFormat="1">
+      <c r="B20" s="185"/>
+      <c r="C20" s="183"/>
+      <c r="D20" s="186"/>
+      <c r="E20" s="186"/>
+      <c r="F20" s="186"/>
+      <c r="G20" s="186"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="183"/>
+      <c r="J20" s="183"/>
+      <c r="K20" s="183"/>
+      <c r="L20" s="183"/>
+      <c r="M20" s="183"/>
+      <c r="N20" s="187"/>
+    </row>
+    <row r="21" spans="2:14" s="180" customFormat="1">
+      <c r="B21" s="185"/>
       <c r="C21" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D21" s="198"/>
-      <c r="E21" s="198"/>
-      <c r="F21" s="198"/>
-      <c r="G21" s="198"/>
-      <c r="H21" s="195"/>
-      <c r="I21" s="195"/>
-      <c r="J21" s="195"/>
-      <c r="K21" s="195"/>
-      <c r="L21" s="195"/>
-      <c r="M21" s="195"/>
-      <c r="N21" s="199"/>
-    </row>
-    <row r="22" spans="2:14" s="192" customFormat="1">
-      <c r="B22" s="197"/>
-      <c r="C22" s="195"/>
-      <c r="D22" s="198"/>
-      <c r="E22" s="198"/>
-      <c r="F22" s="198"/>
-      <c r="G22" s="198"/>
-      <c r="H22" s="195"/>
-      <c r="I22" s="195"/>
-      <c r="J22" s="195"/>
-      <c r="K22" s="195"/>
-      <c r="L22" s="195"/>
-      <c r="M22" s="195"/>
-      <c r="N22" s="199"/>
-    </row>
-    <row r="23" spans="2:14" s="192" customFormat="1">
-      <c r="B23" s="197"/>
-      <c r="D23" s="198" t="s">
-        <v>133</v>
-      </c>
-      <c r="E23" s="198">
+        <v>131</v>
+      </c>
+      <c r="D21" s="186"/>
+      <c r="E21" s="186"/>
+      <c r="F21" s="186"/>
+      <c r="G21" s="186"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="183"/>
+      <c r="J21" s="183"/>
+      <c r="K21" s="183"/>
+      <c r="L21" s="183"/>
+      <c r="M21" s="183"/>
+      <c r="N21" s="187"/>
+    </row>
+    <row r="22" spans="2:14" s="180" customFormat="1">
+      <c r="B22" s="185"/>
+      <c r="C22" s="183"/>
+      <c r="D22" s="186"/>
+      <c r="E22" s="186"/>
+      <c r="F22" s="186"/>
+      <c r="G22" s="186"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="183"/>
+      <c r="J22" s="183"/>
+      <c r="K22" s="183"/>
+      <c r="L22" s="183"/>
+      <c r="M22" s="183"/>
+      <c r="N22" s="187"/>
+    </row>
+    <row r="23" spans="2:14" s="180" customFormat="1">
+      <c r="B23" s="185"/>
+      <c r="D23" s="186" t="s">
+        <v>123</v>
+      </c>
+      <c r="E23" s="186">
         <v>20</v>
       </c>
-      <c r="F23" s="198" t="s">
-        <v>132</v>
-      </c>
-      <c r="G23" s="198"/>
-      <c r="H23" s="195"/>
-      <c r="I23" s="195"/>
-      <c r="J23" s="195"/>
-      <c r="K23" s="195"/>
-      <c r="L23" s="195"/>
-      <c r="M23" s="195"/>
-      <c r="N23" s="199"/>
-    </row>
-    <row r="24" spans="2:14" s="192" customFormat="1">
-      <c r="B24" s="197"/>
-      <c r="D24" s="198"/>
-      <c r="E24" s="200">
+      <c r="F23" s="186" t="s">
+        <v>122</v>
+      </c>
+      <c r="G23" s="186"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="183"/>
+      <c r="J23" s="183"/>
+      <c r="K23" s="183"/>
+      <c r="L23" s="183"/>
+      <c r="M23" s="183"/>
+      <c r="N23" s="187"/>
+    </row>
+    <row r="24" spans="2:14" s="180" customFormat="1">
+      <c r="B24" s="185"/>
+      <c r="D24" s="186"/>
+      <c r="E24" s="188">
         <f>E23*1000</f>
         <v>20000</v>
       </c>
-      <c r="F24" s="198" t="s">
+      <c r="F24" s="186" t="s">
+        <v>124</v>
+      </c>
+      <c r="G24" s="186"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="183"/>
+      <c r="J24" s="183"/>
+      <c r="K24" s="183"/>
+      <c r="L24" s="183"/>
+      <c r="M24" s="183"/>
+      <c r="N24" s="187"/>
+    </row>
+    <row r="25" spans="2:14" s="180" customFormat="1">
+      <c r="B25" s="185"/>
+      <c r="C25" s="183"/>
+      <c r="D25" s="186"/>
+      <c r="E25" s="186"/>
+      <c r="F25" s="186"/>
+      <c r="G25" s="186"/>
+      <c r="I25" s="183"/>
+      <c r="J25" s="183"/>
+      <c r="K25" s="183"/>
+      <c r="L25" s="183"/>
+      <c r="M25" s="183"/>
+      <c r="N25" s="187"/>
+    </row>
+    <row r="26" spans="2:14" s="180" customFormat="1">
+      <c r="B26" s="185"/>
+      <c r="C26" s="183"/>
+      <c r="D26" s="186"/>
+      <c r="E26" s="189"/>
+      <c r="F26" s="186"/>
+      <c r="G26" s="186"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="183"/>
+      <c r="J26" s="183"/>
+      <c r="K26" s="183"/>
+      <c r="L26" s="183"/>
+      <c r="M26" s="183"/>
+      <c r="N26" s="187"/>
+    </row>
+    <row r="27" spans="2:14" s="180" customFormat="1">
+      <c r="B27" s="185"/>
+      <c r="C27" s="183"/>
+      <c r="D27" s="186"/>
+      <c r="E27" s="190"/>
+      <c r="F27" s="186"/>
+      <c r="G27" s="186"/>
+      <c r="I27" s="183"/>
+      <c r="J27" s="183"/>
+      <c r="K27" s="183"/>
+      <c r="L27" s="183"/>
+      <c r="M27" s="183"/>
+      <c r="N27" s="187"/>
+    </row>
+    <row r="28" spans="2:14" s="180" customFormat="1">
+      <c r="B28" s="185"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="186"/>
+      <c r="E28" s="186"/>
+      <c r="F28" s="186"/>
+      <c r="G28" s="186"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="187"/>
+    </row>
+    <row r="29" spans="2:14" s="180" customFormat="1">
+      <c r="B29" s="185"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="186"/>
+      <c r="E29" s="186"/>
+      <c r="F29" s="186"/>
+      <c r="G29" s="186"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="187"/>
+    </row>
+    <row r="30" spans="2:14" s="180" customFormat="1">
+      <c r="B30" s="185"/>
+      <c r="C30" s="183" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" s="186"/>
+      <c r="E30" s="186"/>
+      <c r="F30" s="186"/>
+      <c r="G30" s="186" t="s">
+        <v>133</v>
+      </c>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="187"/>
+    </row>
+    <row r="31" spans="2:14" s="180" customFormat="1">
+      <c r="B31" s="185"/>
+      <c r="C31" s="183"/>
+      <c r="D31" s="186"/>
+      <c r="E31" s="186"/>
+      <c r="F31" s="186"/>
+      <c r="G31" s="186"/>
+      <c r="I31" s="183"/>
+      <c r="J31" s="183"/>
+      <c r="K31" s="183"/>
+      <c r="L31" s="183"/>
+      <c r="M31" s="183"/>
+      <c r="N31" s="187"/>
+    </row>
+    <row r="32" spans="2:14" s="180" customFormat="1">
+      <c r="B32" s="185"/>
+      <c r="C32" s="183"/>
+      <c r="D32" s="186"/>
+      <c r="E32" s="186"/>
+      <c r="F32" s="186"/>
+      <c r="G32" s="186"/>
+      <c r="I32" s="183"/>
+      <c r="J32" s="183"/>
+      <c r="K32" s="183"/>
+      <c r="L32" s="183"/>
+      <c r="M32" s="183"/>
+      <c r="N32" s="187"/>
+    </row>
+    <row r="33" spans="2:22" s="180" customFormat="1">
+      <c r="B33" s="185"/>
+      <c r="C33" s="183"/>
+      <c r="D33" s="186"/>
+      <c r="E33" s="186"/>
+      <c r="F33" s="186"/>
+      <c r="G33" s="186"/>
+      <c r="I33" s="183"/>
+      <c r="J33" s="183"/>
+      <c r="K33" s="183"/>
+      <c r="L33" s="183"/>
+      <c r="M33" s="183"/>
+      <c r="N33" s="187"/>
+    </row>
+    <row r="34" spans="2:22" s="180" customFormat="1">
+      <c r="B34" s="185"/>
+      <c r="D34" s="186" t="s">
         <v>134</v>
       </c>
-      <c r="G24" s="198"/>
-      <c r="H24" s="195"/>
-      <c r="I24" s="195"/>
-      <c r="J24" s="195"/>
-      <c r="K24" s="195"/>
-      <c r="L24" s="195"/>
-      <c r="M24" s="195"/>
-      <c r="N24" s="199"/>
-    </row>
-    <row r="25" spans="2:14" s="192" customFormat="1">
-      <c r="B25" s="197"/>
-      <c r="C25" s="195"/>
-      <c r="D25" s="198"/>
-      <c r="E25" s="198"/>
-      <c r="F25" s="198"/>
-      <c r="G25" s="198"/>
-      <c r="I25" s="195"/>
-      <c r="J25" s="195"/>
-      <c r="K25" s="195"/>
-      <c r="L25" s="195"/>
-      <c r="M25" s="195"/>
-      <c r="N25" s="199"/>
-    </row>
-    <row r="26" spans="2:14" s="192" customFormat="1">
-      <c r="B26" s="197"/>
-      <c r="C26" s="195"/>
-      <c r="D26" s="198"/>
-      <c r="E26" s="201"/>
-      <c r="F26" s="198"/>
-      <c r="G26" s="198"/>
-      <c r="H26" s="195"/>
-      <c r="I26" s="195"/>
-      <c r="J26" s="195"/>
-      <c r="K26" s="195"/>
-      <c r="L26" s="195"/>
-      <c r="M26" s="195"/>
-      <c r="N26" s="199"/>
-    </row>
-    <row r="27" spans="2:14" s="192" customFormat="1">
-      <c r="B27" s="197"/>
-      <c r="C27" s="195"/>
-      <c r="D27" s="198"/>
-      <c r="E27" s="202"/>
-      <c r="F27" s="198"/>
-      <c r="G27" s="198"/>
-      <c r="I27" s="195"/>
-      <c r="J27" s="195"/>
-      <c r="K27" s="195"/>
-      <c r="L27" s="195"/>
-      <c r="M27" s="195"/>
-      <c r="N27" s="199"/>
-    </row>
-    <row r="28" spans="2:14" s="192" customFormat="1">
-      <c r="B28" s="197"/>
-      <c r="C28" s="195"/>
-      <c r="D28" s="198"/>
-      <c r="E28" s="198"/>
-      <c r="F28" s="198"/>
-      <c r="G28" s="198"/>
-      <c r="I28" s="195"/>
-      <c r="J28" s="195"/>
-      <c r="K28" s="195"/>
-      <c r="L28" s="195"/>
-      <c r="M28" s="195"/>
-      <c r="N28" s="199"/>
-    </row>
-    <row r="29" spans="2:14" s="192" customFormat="1">
-      <c r="B29" s="197"/>
-      <c r="C29" s="195"/>
-      <c r="D29" s="198"/>
-      <c r="E29" s="198"/>
-      <c r="F29" s="198"/>
-      <c r="G29" s="198"/>
-      <c r="I29" s="195"/>
-      <c r="J29" s="195"/>
-      <c r="K29" s="195"/>
-      <c r="L29" s="195"/>
-      <c r="M29" s="195"/>
-      <c r="N29" s="199"/>
-    </row>
-    <row r="30" spans="2:14" s="192" customFormat="1">
-      <c r="B30" s="197"/>
-      <c r="C30" s="195" t="s">
-        <v>142</v>
-      </c>
-      <c r="D30" s="198"/>
-      <c r="E30" s="198"/>
-      <c r="F30" s="198"/>
-      <c r="G30" s="198" t="s">
-        <v>143</v>
-      </c>
-      <c r="I30" s="195"/>
-      <c r="J30" s="195"/>
-      <c r="K30" s="195"/>
-      <c r="L30" s="195"/>
-      <c r="M30" s="195"/>
-      <c r="N30" s="199"/>
-    </row>
-    <row r="31" spans="2:14" s="192" customFormat="1">
-      <c r="B31" s="197"/>
-      <c r="C31" s="195"/>
-      <c r="D31" s="198"/>
-      <c r="E31" s="198"/>
-      <c r="F31" s="198"/>
-      <c r="G31" s="198"/>
-      <c r="I31" s="195"/>
-      <c r="J31" s="195"/>
-      <c r="K31" s="195"/>
-      <c r="L31" s="195"/>
-      <c r="M31" s="195"/>
-      <c r="N31" s="199"/>
-    </row>
-    <row r="32" spans="2:14" s="192" customFormat="1">
-      <c r="B32" s="197"/>
-      <c r="C32" s="195"/>
-      <c r="D32" s="198"/>
-      <c r="E32" s="198"/>
-      <c r="F32" s="198"/>
-      <c r="G32" s="198"/>
-      <c r="I32" s="195"/>
-      <c r="J32" s="195"/>
-      <c r="K32" s="195"/>
-      <c r="L32" s="195"/>
-      <c r="M32" s="195"/>
-      <c r="N32" s="199"/>
-    </row>
-    <row r="33" spans="2:22" s="192" customFormat="1">
-      <c r="B33" s="197"/>
-      <c r="C33" s="195"/>
-      <c r="D33" s="198"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="198"/>
-      <c r="I33" s="195"/>
-      <c r="J33" s="195"/>
-      <c r="K33" s="195"/>
-      <c r="L33" s="195"/>
-      <c r="M33" s="195"/>
-      <c r="N33" s="199"/>
-    </row>
-    <row r="34" spans="2:22" s="192" customFormat="1">
-      <c r="B34" s="197"/>
-      <c r="D34" s="198" t="s">
-        <v>144</v>
-      </c>
-      <c r="E34" s="203">
+      <c r="E34" s="191">
         <v>40000</v>
       </c>
-      <c r="F34" s="198" t="s">
-        <v>132</v>
-      </c>
-      <c r="G34" s="198"/>
-      <c r="I34" s="195"/>
-      <c r="J34" s="195"/>
-      <c r="K34" s="195"/>
-      <c r="L34" s="195"/>
-      <c r="M34" s="195"/>
-      <c r="N34" s="199"/>
-    </row>
-    <row r="35" spans="2:22" s="192" customFormat="1">
-      <c r="B35" s="197"/>
-      <c r="D35" s="198" t="s">
-        <v>145</v>
-      </c>
-      <c r="E35" s="203">
+      <c r="F34" s="186" t="s">
+        <v>122</v>
+      </c>
+      <c r="G34" s="186"/>
+      <c r="I34" s="183"/>
+      <c r="J34" s="183"/>
+      <c r="K34" s="183"/>
+      <c r="L34" s="183"/>
+      <c r="M34" s="183"/>
+      <c r="N34" s="187"/>
+    </row>
+    <row r="35" spans="2:22" s="180" customFormat="1">
+      <c r="B35" s="185"/>
+      <c r="D35" s="186" t="s">
+        <v>135</v>
+      </c>
+      <c r="E35" s="191">
         <v>600000000</v>
       </c>
-      <c r="F35" s="198" t="s">
-        <v>109</v>
-      </c>
-      <c r="G35" s="198"/>
-      <c r="I35" s="195"/>
-      <c r="J35" s="195"/>
-      <c r="K35" s="195"/>
-      <c r="L35" s="195"/>
-      <c r="M35" s="195"/>
-      <c r="N35" s="199"/>
-    </row>
-    <row r="36" spans="2:22" s="192" customFormat="1">
-      <c r="B36" s="197"/>
-      <c r="D36" s="198"/>
-      <c r="E36" s="203"/>
-      <c r="F36" s="198"/>
-      <c r="G36" s="198"/>
-      <c r="I36" s="195"/>
-      <c r="J36" s="195"/>
-      <c r="K36" s="195"/>
-      <c r="L36" s="195"/>
-      <c r="M36" s="195"/>
-      <c r="N36" s="199"/>
-    </row>
-    <row r="37" spans="2:22" s="192" customFormat="1">
-      <c r="B37" s="197"/>
-      <c r="D37" s="198"/>
-      <c r="E37" s="198"/>
-      <c r="F37" s="198"/>
-      <c r="G37" s="198"/>
-      <c r="I37" s="195"/>
-      <c r="J37" s="195"/>
-      <c r="K37" s="195"/>
-      <c r="L37" s="195"/>
-      <c r="M37" s="195"/>
-      <c r="N37" s="199"/>
-    </row>
-    <row r="38" spans="2:22" s="192" customFormat="1">
-      <c r="B38" s="197"/>
-      <c r="D38" s="198" t="s">
-        <v>148</v>
-      </c>
-      <c r="E38" s="204">
+      <c r="F35" s="186" t="s">
+        <v>99</v>
+      </c>
+      <c r="G35" s="186"/>
+      <c r="I35" s="183"/>
+      <c r="J35" s="183"/>
+      <c r="K35" s="183"/>
+      <c r="L35" s="183"/>
+      <c r="M35" s="183"/>
+      <c r="N35" s="187"/>
+    </row>
+    <row r="36" spans="2:22" s="180" customFormat="1">
+      <c r="B36" s="185"/>
+      <c r="D36" s="186"/>
+      <c r="E36" s="191"/>
+      <c r="F36" s="186"/>
+      <c r="G36" s="186"/>
+      <c r="I36" s="183"/>
+      <c r="J36" s="183"/>
+      <c r="K36" s="183"/>
+      <c r="L36" s="183"/>
+      <c r="M36" s="183"/>
+      <c r="N36" s="187"/>
+    </row>
+    <row r="37" spans="2:22" s="180" customFormat="1">
+      <c r="B37" s="185"/>
+      <c r="D37" s="186"/>
+      <c r="E37" s="186"/>
+      <c r="F37" s="186"/>
+      <c r="G37" s="186"/>
+      <c r="I37" s="183"/>
+      <c r="J37" s="183"/>
+      <c r="K37" s="183"/>
+      <c r="L37" s="183"/>
+      <c r="M37" s="183"/>
+      <c r="N37" s="187"/>
+    </row>
+    <row r="38" spans="2:22" s="180" customFormat="1">
+      <c r="B38" s="185"/>
+      <c r="D38" s="186" t="s">
+        <v>138</v>
+      </c>
+      <c r="E38" s="192">
         <f>E35/(E34*1000)</f>
         <v>15</v>
       </c>
-      <c r="F38" s="204" t="s">
-        <v>146</v>
-      </c>
-      <c r="G38" s="198"/>
-      <c r="I38" s="195"/>
-      <c r="J38" s="195"/>
-      <c r="K38" s="195"/>
-      <c r="L38" s="195"/>
-      <c r="M38" s="195"/>
-      <c r="N38" s="199"/>
-    </row>
-    <row r="39" spans="2:22" s="192" customFormat="1">
-      <c r="B39" s="197"/>
-      <c r="D39" s="198" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="205">
+      <c r="F38" s="192" t="s">
+        <v>136</v>
+      </c>
+      <c r="G38" s="186"/>
+      <c r="I38" s="183"/>
+      <c r="J38" s="183"/>
+      <c r="K38" s="183"/>
+      <c r="L38" s="183"/>
+      <c r="M38" s="183"/>
+      <c r="N38" s="187"/>
+    </row>
+    <row r="39" spans="2:22" s="180" customFormat="1">
+      <c r="B39" s="185"/>
+      <c r="D39" s="186" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="193">
         <f>E38*E24</f>
         <v>300000</v>
       </c>
-      <c r="F39" s="204" t="s">
-        <v>109</v>
-      </c>
-      <c r="G39" s="198"/>
-      <c r="I39" s="195"/>
-      <c r="J39" s="195"/>
-      <c r="K39" s="195"/>
-      <c r="L39" s="195"/>
-      <c r="M39" s="195"/>
-      <c r="N39" s="199"/>
-    </row>
-    <row r="40" spans="2:22" s="192" customFormat="1">
-      <c r="B40" s="197"/>
-      <c r="D40" s="198" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="206">
+      <c r="F39" s="192" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39" s="186"/>
+      <c r="I39" s="183"/>
+      <c r="J39" s="183"/>
+      <c r="K39" s="183"/>
+      <c r="L39" s="183"/>
+      <c r="M39" s="183"/>
+      <c r="N39" s="187"/>
+    </row>
+    <row r="40" spans="2:22" s="180" customFormat="1">
+      <c r="B40" s="185"/>
+      <c r="D40" s="186" t="s">
+        <v>140</v>
+      </c>
+      <c r="E40" s="194">
         <f>E39/1000000</f>
         <v>0.3</v>
       </c>
-      <c r="F40" s="204" t="s">
+      <c r="F40" s="192" t="s">
         <v>4</v>
       </c>
-      <c r="G40" s="198"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="195"/>
-      <c r="K40" s="195"/>
-      <c r="L40" s="195"/>
-      <c r="M40" s="195"/>
-      <c r="N40" s="199"/>
-    </row>
-    <row r="41" spans="2:22" s="192" customFormat="1">
-      <c r="B41" s="197"/>
-      <c r="C41" s="195"/>
-      <c r="E41" s="207"/>
-      <c r="F41" s="204"/>
-      <c r="G41" s="198"/>
-      <c r="I41" s="195"/>
-      <c r="J41" s="195"/>
-      <c r="K41" s="195"/>
-      <c r="L41" s="195"/>
-      <c r="M41" s="195"/>
-      <c r="N41" s="199"/>
-    </row>
-    <row r="42" spans="2:22" s="192" customFormat="1">
-      <c r="B42" s="197"/>
-      <c r="C42" s="195"/>
-      <c r="D42" s="198"/>
-      <c r="E42" s="198"/>
-      <c r="F42" s="198"/>
-      <c r="G42" s="198"/>
-      <c r="I42" s="195"/>
-      <c r="J42" s="195"/>
-      <c r="K42" s="195"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="195"/>
-      <c r="N42" s="199"/>
-    </row>
-    <row r="43" spans="2:22" s="192" customFormat="1">
-      <c r="B43" s="197"/>
-      <c r="C43" s="195"/>
-      <c r="D43" s="198"/>
-      <c r="E43" s="198"/>
-      <c r="F43" s="198"/>
-      <c r="G43" s="198"/>
-      <c r="I43" s="195"/>
-      <c r="J43" s="195"/>
-      <c r="K43" s="195"/>
-      <c r="L43" s="195"/>
-      <c r="M43" s="195"/>
-      <c r="N43" s="199"/>
-    </row>
-    <row r="44" spans="2:22" s="192" customFormat="1">
-      <c r="B44" s="197"/>
-      <c r="C44" s="195"/>
-      <c r="D44" s="198"/>
-      <c r="E44" s="198"/>
-      <c r="F44" s="198"/>
-      <c r="G44" s="198"/>
-      <c r="I44" s="195"/>
-      <c r="J44" s="195"/>
-      <c r="K44" s="195"/>
-      <c r="L44" s="195"/>
-      <c r="M44" s="195"/>
-      <c r="N44" s="199"/>
-    </row>
-    <row r="45" spans="2:22" s="192" customFormat="1">
-      <c r="B45" s="197"/>
-      <c r="C45" s="195"/>
-      <c r="D45" s="198"/>
-      <c r="E45" s="198"/>
-      <c r="F45" s="198"/>
-      <c r="G45" s="198"/>
-      <c r="I45" s="195"/>
-      <c r="J45" s="195"/>
-      <c r="K45" s="195"/>
-      <c r="L45" s="195"/>
-      <c r="M45" s="195"/>
-      <c r="N45" s="199"/>
-      <c r="V45" s="192">
+      <c r="G40" s="186"/>
+      <c r="I40" s="183"/>
+      <c r="J40" s="183"/>
+      <c r="K40" s="183"/>
+      <c r="L40" s="183"/>
+      <c r="M40" s="183"/>
+      <c r="N40" s="187"/>
+    </row>
+    <row r="41" spans="2:22" s="180" customFormat="1">
+      <c r="B41" s="185"/>
+      <c r="C41" s="183"/>
+      <c r="E41" s="195"/>
+      <c r="F41" s="192"/>
+      <c r="G41" s="186"/>
+      <c r="I41" s="183"/>
+      <c r="J41" s="183"/>
+      <c r="K41" s="183"/>
+      <c r="L41" s="183"/>
+      <c r="M41" s="183"/>
+      <c r="N41" s="187"/>
+    </row>
+    <row r="42" spans="2:22" s="180" customFormat="1">
+      <c r="B42" s="185"/>
+      <c r="C42" s="183"/>
+      <c r="D42" s="186"/>
+      <c r="E42" s="186"/>
+      <c r="F42" s="186"/>
+      <c r="G42" s="186"/>
+      <c r="I42" s="183"/>
+      <c r="J42" s="183"/>
+      <c r="K42" s="183"/>
+      <c r="L42" s="183"/>
+      <c r="M42" s="183"/>
+      <c r="N42" s="187"/>
+    </row>
+    <row r="43" spans="2:22" s="180" customFormat="1">
+      <c r="B43" s="185"/>
+      <c r="C43" s="183"/>
+      <c r="D43" s="186"/>
+      <c r="E43" s="186"/>
+      <c r="F43" s="186"/>
+      <c r="G43" s="186"/>
+      <c r="I43" s="183"/>
+      <c r="J43" s="183"/>
+      <c r="K43" s="183"/>
+      <c r="L43" s="183"/>
+      <c r="M43" s="183"/>
+      <c r="N43" s="187"/>
+    </row>
+    <row r="44" spans="2:22" s="180" customFormat="1">
+      <c r="B44" s="185"/>
+      <c r="C44" s="183"/>
+      <c r="D44" s="186"/>
+      <c r="E44" s="186"/>
+      <c r="F44" s="186"/>
+      <c r="G44" s="186"/>
+      <c r="I44" s="183"/>
+      <c r="J44" s="183"/>
+      <c r="K44" s="183"/>
+      <c r="L44" s="183"/>
+      <c r="M44" s="183"/>
+      <c r="N44" s="187"/>
+    </row>
+    <row r="45" spans="2:22" s="180" customFormat="1">
+      <c r="B45" s="185"/>
+      <c r="C45" s="183"/>
+      <c r="D45" s="186"/>
+      <c r="E45" s="186"/>
+      <c r="F45" s="186"/>
+      <c r="G45" s="186"/>
+      <c r="I45" s="183"/>
+      <c r="J45" s="183"/>
+      <c r="K45" s="183"/>
+      <c r="L45" s="183"/>
+      <c r="M45" s="183"/>
+      <c r="N45" s="187"/>
+      <c r="V45" s="180">
         <f>0.8*755</f>
         <v>604</v>
       </c>
     </row>
-    <row r="46" spans="2:22" s="192" customFormat="1">
-      <c r="B46" s="197"/>
-      <c r="C46" s="195"/>
-      <c r="D46" s="198"/>
-      <c r="E46" s="198"/>
-      <c r="F46" s="198"/>
-      <c r="G46" s="198"/>
-      <c r="I46" s="195"/>
-      <c r="J46" s="195"/>
-      <c r="K46" s="195"/>
-      <c r="L46" s="195"/>
-      <c r="M46" s="195"/>
-      <c r="N46" s="199"/>
-    </row>
-    <row r="47" spans="2:22" s="192" customFormat="1">
-      <c r="B47" s="197"/>
-      <c r="C47" s="195"/>
-      <c r="D47" s="198"/>
-      <c r="E47" s="198"/>
-      <c r="F47" s="198"/>
-      <c r="G47" s="198"/>
-      <c r="I47" s="195"/>
-      <c r="J47" s="195"/>
-      <c r="K47" s="195"/>
-      <c r="L47" s="195"/>
-      <c r="M47" s="195"/>
-      <c r="N47" s="199"/>
-    </row>
-    <row r="48" spans="2:22" s="192" customFormat="1">
-      <c r="B48" s="197"/>
-      <c r="C48" s="195"/>
-      <c r="D48" s="198"/>
-      <c r="E48" s="198"/>
-      <c r="F48" s="198"/>
-      <c r="G48" s="198"/>
-      <c r="I48" s="195"/>
-      <c r="J48" s="195"/>
-      <c r="K48" s="195"/>
-      <c r="L48" s="195"/>
-      <c r="M48" s="195"/>
-      <c r="N48" s="199"/>
-    </row>
-    <row r="49" spans="2:14" s="192" customFormat="1">
-      <c r="B49" s="197"/>
-      <c r="C49" s="195"/>
-      <c r="D49" s="198"/>
-      <c r="E49" s="198"/>
-      <c r="F49" s="198"/>
-      <c r="G49" s="198"/>
-      <c r="I49" s="195"/>
-      <c r="J49" s="195"/>
-      <c r="K49" s="195"/>
-      <c r="L49" s="195"/>
-      <c r="M49" s="195"/>
-      <c r="N49" s="199"/>
-    </row>
-    <row r="50" spans="2:14" s="192" customFormat="1">
-      <c r="B50" s="197"/>
-      <c r="C50" s="195"/>
-      <c r="D50" s="198"/>
-      <c r="E50" s="198"/>
-      <c r="F50" s="198"/>
-      <c r="G50" s="198"/>
-      <c r="I50" s="195"/>
-      <c r="J50" s="195"/>
-      <c r="K50" s="195"/>
-      <c r="L50" s="195"/>
-      <c r="M50" s="195"/>
-      <c r="N50" s="199"/>
-    </row>
-    <row r="51" spans="2:14" s="192" customFormat="1">
-      <c r="B51" s="197"/>
-      <c r="C51" s="195"/>
-      <c r="D51" s="198"/>
-      <c r="E51" s="198"/>
-      <c r="F51" s="198"/>
-      <c r="G51" s="198"/>
-      <c r="I51" s="195"/>
-      <c r="J51" s="195"/>
-      <c r="K51" s="195"/>
-      <c r="L51" s="195"/>
-      <c r="M51" s="195"/>
-      <c r="N51" s="199"/>
-    </row>
-    <row r="52" spans="2:14" s="192" customFormat="1">
-      <c r="B52" s="197"/>
-      <c r="C52" s="195"/>
-      <c r="D52" s="198"/>
-      <c r="E52" s="198"/>
-      <c r="F52" s="198"/>
-      <c r="G52" s="198"/>
-      <c r="I52" s="108" t="s">
-        <v>147</v>
-      </c>
-      <c r="J52" s="195"/>
-      <c r="K52" s="195"/>
-      <c r="L52" s="195"/>
-      <c r="M52" s="195"/>
-      <c r="N52" s="199"/>
-    </row>
-    <row r="53" spans="2:14" s="192" customFormat="1">
-      <c r="B53" s="197"/>
-      <c r="C53" s="195"/>
-      <c r="D53" s="198"/>
-      <c r="E53" s="198"/>
-      <c r="F53" s="198"/>
-      <c r="G53" s="198"/>
-      <c r="I53" s="195"/>
-      <c r="J53" s="195"/>
-      <c r="K53" s="195"/>
-      <c r="L53" s="195"/>
-      <c r="M53" s="195"/>
-      <c r="N53" s="199"/>
-    </row>
-    <row r="54" spans="2:14" s="192" customFormat="1">
-      <c r="B54" s="197"/>
-      <c r="C54" s="195"/>
-      <c r="D54" s="198"/>
-      <c r="E54" s="198"/>
-      <c r="F54" s="198"/>
-      <c r="G54" s="198"/>
-      <c r="J54" s="195"/>
-      <c r="K54" s="195"/>
-      <c r="L54" s="195"/>
-      <c r="M54" s="195"/>
-      <c r="N54" s="199"/>
-    </row>
-    <row r="55" spans="2:14" s="192" customFormat="1">
-      <c r="B55" s="197"/>
-      <c r="C55" s="195"/>
-      <c r="D55" s="198"/>
-      <c r="E55" s="198"/>
-      <c r="F55" s="198"/>
-      <c r="G55" s="198"/>
-      <c r="I55" s="195"/>
-      <c r="J55" s="195"/>
-      <c r="K55" s="195"/>
-      <c r="L55" s="195"/>
-      <c r="M55" s="195"/>
-      <c r="N55" s="199"/>
+    <row r="46" spans="2:22" s="180" customFormat="1">
+      <c r="B46" s="185"/>
+      <c r="C46" s="183"/>
+      <c r="D46" s="186"/>
+      <c r="E46" s="186"/>
+      <c r="F46" s="186"/>
+      <c r="G46" s="186"/>
+      <c r="I46" s="183"/>
+      <c r="J46" s="183"/>
+      <c r="K46" s="183"/>
+      <c r="L46" s="183"/>
+      <c r="M46" s="183"/>
+      <c r="N46" s="187"/>
+    </row>
+    <row r="47" spans="2:22" s="180" customFormat="1">
+      <c r="B47" s="185"/>
+      <c r="C47" s="183"/>
+      <c r="D47" s="186"/>
+      <c r="E47" s="186"/>
+      <c r="F47" s="186"/>
+      <c r="G47" s="186"/>
+      <c r="I47" s="183"/>
+      <c r="J47" s="183"/>
+      <c r="K47" s="183"/>
+      <c r="L47" s="183"/>
+      <c r="M47" s="183"/>
+      <c r="N47" s="187"/>
+    </row>
+    <row r="48" spans="2:22" s="180" customFormat="1">
+      <c r="B48" s="185"/>
+      <c r="C48" s="183"/>
+      <c r="D48" s="186"/>
+      <c r="E48" s="186"/>
+      <c r="F48" s="186"/>
+      <c r="G48" s="186"/>
+      <c r="I48" s="183"/>
+      <c r="J48" s="183"/>
+      <c r="K48" s="183"/>
+      <c r="L48" s="183"/>
+      <c r="M48" s="183"/>
+      <c r="N48" s="187"/>
+    </row>
+    <row r="49" spans="2:14" s="180" customFormat="1">
+      <c r="B49" s="185"/>
+      <c r="C49" s="183"/>
+      <c r="D49" s="186"/>
+      <c r="E49" s="186"/>
+      <c r="F49" s="186"/>
+      <c r="G49" s="186"/>
+      <c r="I49" s="183"/>
+      <c r="J49" s="183"/>
+      <c r="K49" s="183"/>
+      <c r="L49" s="183"/>
+      <c r="M49" s="183"/>
+      <c r="N49" s="187"/>
+    </row>
+    <row r="50" spans="2:14" s="180" customFormat="1">
+      <c r="B50" s="185"/>
+      <c r="C50" s="183"/>
+      <c r="D50" s="186"/>
+      <c r="E50" s="186"/>
+      <c r="F50" s="186"/>
+      <c r="G50" s="186"/>
+      <c r="I50" s="183"/>
+      <c r="J50" s="183"/>
+      <c r="K50" s="183"/>
+      <c r="L50" s="183"/>
+      <c r="M50" s="183"/>
+      <c r="N50" s="187"/>
+    </row>
+    <row r="51" spans="2:14" s="180" customFormat="1">
+      <c r="B51" s="185"/>
+      <c r="C51" s="183"/>
+      <c r="D51" s="186"/>
+      <c r="E51" s="186"/>
+      <c r="F51" s="186"/>
+      <c r="G51" s="186"/>
+      <c r="I51" s="183"/>
+      <c r="J51" s="183"/>
+      <c r="K51" s="183"/>
+      <c r="L51" s="183"/>
+      <c r="M51" s="183"/>
+      <c r="N51" s="187"/>
+    </row>
+    <row r="52" spans="2:14" s="180" customFormat="1">
+      <c r="B52" s="185"/>
+      <c r="C52" s="183"/>
+      <c r="D52" s="186"/>
+      <c r="E52" s="186"/>
+      <c r="F52" s="186"/>
+      <c r="G52" s="186"/>
+      <c r="I52" s="105" t="s">
+        <v>137</v>
+      </c>
+      <c r="J52" s="183"/>
+      <c r="K52" s="183"/>
+      <c r="L52" s="183"/>
+      <c r="M52" s="183"/>
+      <c r="N52" s="187"/>
+    </row>
+    <row r="53" spans="2:14" s="180" customFormat="1">
+      <c r="B53" s="185"/>
+      <c r="C53" s="183"/>
+      <c r="D53" s="186"/>
+      <c r="E53" s="186"/>
+      <c r="F53" s="186"/>
+      <c r="G53" s="186"/>
+      <c r="I53" s="183"/>
+      <c r="J53" s="183"/>
+      <c r="K53" s="183"/>
+      <c r="L53" s="183"/>
+      <c r="M53" s="183"/>
+      <c r="N53" s="187"/>
+    </row>
+    <row r="54" spans="2:14" s="180" customFormat="1">
+      <c r="B54" s="185"/>
+      <c r="C54" s="183"/>
+      <c r="D54" s="186"/>
+      <c r="E54" s="186"/>
+      <c r="F54" s="186"/>
+      <c r="G54" s="186"/>
+      <c r="J54" s="183"/>
+      <c r="K54" s="183"/>
+      <c r="L54" s="183"/>
+      <c r="M54" s="183"/>
+      <c r="N54" s="187"/>
+    </row>
+    <row r="55" spans="2:14" s="180" customFormat="1">
+      <c r="B55" s="185"/>
+      <c r="C55" s="183"/>
+      <c r="D55" s="186"/>
+      <c r="E55" s="186"/>
+      <c r="F55" s="186"/>
+      <c r="G55" s="186"/>
+      <c r="I55" s="183"/>
+      <c r="J55" s="183"/>
+      <c r="K55" s="183"/>
+      <c r="L55" s="183"/>
+      <c r="M55" s="183"/>
+      <c r="N55" s="187"/>
     </row>
     <row r="56" spans="2:14">
-      <c r="B56" s="148"/>
-      <c r="C56" s="195" t="s">
-        <v>153</v>
-      </c>
-      <c r="D56" s="140"/>
-      <c r="E56" s="140"/>
-      <c r="F56" s="140"/>
-      <c r="G56" s="140"/>
-      <c r="H56" s="140"/>
-      <c r="I56" s="140"/>
-      <c r="J56" s="140"/>
-      <c r="K56" s="140"/>
-      <c r="L56" s="140"/>
-      <c r="M56" s="140"/>
-      <c r="N56" s="149"/>
+      <c r="B56" s="145"/>
+      <c r="C56" s="183" t="s">
+        <v>143</v>
+      </c>
+      <c r="D56" s="137"/>
+      <c r="E56" s="137"/>
+      <c r="F56" s="137"/>
+      <c r="G56" s="137"/>
+      <c r="H56" s="137"/>
+      <c r="I56" s="137"/>
+      <c r="J56" s="137"/>
+      <c r="K56" s="137"/>
+      <c r="L56" s="137"/>
+      <c r="M56" s="137"/>
+      <c r="N56" s="146"/>
     </row>
     <row r="57" spans="2:14">
-      <c r="B57" s="148"/>
-      <c r="C57" s="140"/>
-      <c r="D57" s="195" t="s">
-        <v>108</v>
-      </c>
-      <c r="E57" s="140"/>
-      <c r="F57" s="140"/>
-      <c r="G57" s="140"/>
-      <c r="H57" s="140"/>
-      <c r="I57" s="140"/>
-      <c r="J57" s="140"/>
-      <c r="K57" s="140"/>
-      <c r="L57" s="140"/>
-      <c r="M57" s="140"/>
-      <c r="N57" s="149"/>
+      <c r="B57" s="145"/>
+      <c r="C57" s="137"/>
+      <c r="D57" s="183" t="s">
+        <v>98</v>
+      </c>
+      <c r="E57" s="137"/>
+      <c r="F57" s="137"/>
+      <c r="G57" s="137"/>
+      <c r="H57" s="137"/>
+      <c r="I57" s="137"/>
+      <c r="J57" s="137"/>
+      <c r="K57" s="137"/>
+      <c r="L57" s="137"/>
+      <c r="M57" s="137"/>
+      <c r="N57" s="146"/>
     </row>
     <row r="58" spans="2:14">
-      <c r="B58" s="148"/>
-      <c r="C58" s="140"/>
+      <c r="B58" s="145"/>
+      <c r="C58" s="137"/>
       <c r="D58" s="54" t="s">
         <v>6</v>
       </c>
-      <c r="E58" s="140">
+      <c r="E58" s="137">
         <v>20</v>
       </c>
-      <c r="F58" s="195" t="s">
+      <c r="F58" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="G58" s="140"/>
-      <c r="H58" s="140"/>
-      <c r="I58" s="140"/>
-      <c r="J58" s="140"/>
-      <c r="K58" s="140"/>
-      <c r="L58" s="140"/>
-      <c r="M58" s="140"/>
-      <c r="N58" s="149"/>
+      <c r="G58" s="137"/>
+      <c r="H58" s="137"/>
+      <c r="I58" s="137"/>
+      <c r="J58" s="137"/>
+      <c r="K58" s="137"/>
+      <c r="L58" s="137"/>
+      <c r="M58" s="137"/>
+      <c r="N58" s="146"/>
     </row>
     <row r="59" spans="2:14">
-      <c r="B59" s="148"/>
-      <c r="C59" s="140"/>
-      <c r="D59" s="140"/>
-      <c r="E59" s="140">
+      <c r="B59" s="145"/>
+      <c r="C59" s="137"/>
+      <c r="D59" s="137"/>
+      <c r="E59" s="137">
         <v>30</v>
       </c>
-      <c r="F59" s="195" t="s">
+      <c r="F59" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="G59" s="140"/>
-      <c r="H59" s="140"/>
-      <c r="I59" s="140"/>
-      <c r="J59" s="140"/>
-      <c r="K59" s="140"/>
-      <c r="L59" s="140"/>
-      <c r="M59" s="140"/>
-      <c r="N59" s="149"/>
+      <c r="G59" s="137"/>
+      <c r="H59" s="137"/>
+      <c r="I59" s="137"/>
+      <c r="J59" s="137"/>
+      <c r="K59" s="137"/>
+      <c r="L59" s="137"/>
+      <c r="M59" s="137"/>
+      <c r="N59" s="146"/>
     </row>
     <row r="60" spans="2:14">
-      <c r="B60" s="148"/>
-      <c r="C60" s="140"/>
-      <c r="D60" s="195" t="s">
-        <v>154</v>
-      </c>
-      <c r="E60" s="195">
+      <c r="B60" s="145"/>
+      <c r="C60" s="137"/>
+      <c r="D60" s="183" t="s">
+        <v>144</v>
+      </c>
+      <c r="E60" s="183">
         <f>AVERAGE(E58,E59)</f>
         <v>25</v>
       </c>
-      <c r="F60" s="140"/>
-      <c r="G60" s="140"/>
-      <c r="H60" s="140"/>
-      <c r="I60" s="140"/>
-      <c r="J60" s="140"/>
-      <c r="K60" s="140"/>
-      <c r="L60" s="140"/>
-      <c r="M60" s="140"/>
-      <c r="N60" s="149"/>
+      <c r="F60" s="137"/>
+      <c r="G60" s="137"/>
+      <c r="H60" s="137"/>
+      <c r="I60" s="137"/>
+      <c r="J60" s="137"/>
+      <c r="K60" s="137"/>
+      <c r="L60" s="137"/>
+      <c r="M60" s="137"/>
+      <c r="N60" s="146"/>
     </row>
     <row r="61" spans="2:14">
-      <c r="B61" s="148"/>
-      <c r="C61" s="140"/>
-      <c r="D61" s="140"/>
-      <c r="E61" s="140"/>
-      <c r="F61" s="140"/>
-      <c r="G61" s="140"/>
-      <c r="H61" s="140"/>
-      <c r="I61" s="140"/>
-      <c r="J61" s="140"/>
-      <c r="K61" s="140"/>
-      <c r="L61" s="140"/>
-      <c r="M61" s="140"/>
-      <c r="N61" s="149"/>
+      <c r="B61" s="145"/>
+      <c r="C61" s="137"/>
+      <c r="D61" s="137"/>
+      <c r="E61" s="137"/>
+      <c r="F61" s="137"/>
+      <c r="G61" s="137"/>
+      <c r="H61" s="137"/>
+      <c r="I61" s="137"/>
+      <c r="J61" s="137"/>
+      <c r="K61" s="137"/>
+      <c r="L61" s="137"/>
+      <c r="M61" s="137"/>
+      <c r="N61" s="146"/>
     </row>
     <row r="62" spans="2:14">
-      <c r="B62" s="148"/>
-      <c r="C62" s="140"/>
-      <c r="D62" s="140"/>
-      <c r="E62" s="140"/>
-      <c r="F62" s="140"/>
-      <c r="G62" s="140"/>
-      <c r="H62" s="140"/>
-      <c r="I62" s="140"/>
-      <c r="J62" s="140"/>
-      <c r="K62" s="140"/>
-      <c r="L62" s="140"/>
-      <c r="M62" s="140"/>
-      <c r="N62" s="149"/>
+      <c r="B62" s="145"/>
+      <c r="C62" s="137"/>
+      <c r="D62" s="137"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="137"/>
+      <c r="G62" s="137"/>
+      <c r="H62" s="137"/>
+      <c r="I62" s="137"/>
+      <c r="J62" s="137"/>
+      <c r="K62" s="137"/>
+      <c r="L62" s="137"/>
+      <c r="M62" s="137"/>
+      <c r="N62" s="146"/>
     </row>
     <row r="63" spans="2:14">
-      <c r="B63" s="148"/>
-      <c r="C63" s="140"/>
-      <c r="D63" s="140"/>
-      <c r="E63" s="140"/>
-      <c r="F63" s="140"/>
-      <c r="G63" s="140"/>
-      <c r="H63" s="140"/>
-      <c r="I63" s="140"/>
-      <c r="J63" s="140"/>
-      <c r="K63" s="140"/>
-      <c r="L63" s="140"/>
-      <c r="M63" s="140"/>
-      <c r="N63" s="149"/>
+      <c r="B63" s="145"/>
+      <c r="C63" s="137"/>
+      <c r="D63" s="137"/>
+      <c r="E63" s="137"/>
+      <c r="F63" s="137"/>
+      <c r="G63" s="137"/>
+      <c r="H63" s="137"/>
+      <c r="I63" s="137"/>
+      <c r="J63" s="137"/>
+      <c r="K63" s="137"/>
+      <c r="L63" s="137"/>
+      <c r="M63" s="137"/>
+      <c r="N63" s="146"/>
     </row>
     <row r="64" spans="2:14">
-      <c r="B64" s="148"/>
-      <c r="C64" s="140"/>
-      <c r="D64" s="140"/>
-      <c r="E64" s="140"/>
-      <c r="F64" s="140"/>
-      <c r="G64" s="140"/>
-      <c r="H64" s="140"/>
-      <c r="I64" s="140"/>
-      <c r="J64" s="140"/>
-      <c r="K64" s="140"/>
-      <c r="L64" s="140"/>
-      <c r="M64" s="140"/>
-      <c r="N64" s="149"/>
+      <c r="B64" s="145"/>
+      <c r="C64" s="137"/>
+      <c r="D64" s="137"/>
+      <c r="E64" s="137"/>
+      <c r="F64" s="137"/>
+      <c r="G64" s="137"/>
+      <c r="H64" s="137"/>
+      <c r="I64" s="137"/>
+      <c r="J64" s="137"/>
+      <c r="K64" s="137"/>
+      <c r="L64" s="137"/>
+      <c r="M64" s="137"/>
+      <c r="N64" s="146"/>
     </row>
     <row r="65" spans="2:14">
-      <c r="B65" s="148"/>
-      <c r="C65" s="140"/>
-      <c r="D65" s="140"/>
-      <c r="E65" s="140"/>
-      <c r="F65" s="140"/>
-      <c r="G65" s="140"/>
-      <c r="H65" s="140"/>
-      <c r="I65" s="140"/>
-      <c r="J65" s="140"/>
-      <c r="K65" s="140"/>
-      <c r="L65" s="140"/>
-      <c r="M65" s="140"/>
-      <c r="N65" s="149"/>
+      <c r="B65" s="145"/>
+      <c r="C65" s="137"/>
+      <c r="D65" s="137"/>
+      <c r="E65" s="137"/>
+      <c r="F65" s="137"/>
+      <c r="G65" s="137"/>
+      <c r="H65" s="137"/>
+      <c r="I65" s="137"/>
+      <c r="J65" s="137"/>
+      <c r="K65" s="137"/>
+      <c r="L65" s="137"/>
+      <c r="M65" s="137"/>
+      <c r="N65" s="146"/>
     </row>
     <row r="66" spans="2:14">
-      <c r="B66" s="148"/>
-      <c r="C66" s="140"/>
-      <c r="D66" s="140"/>
-      <c r="E66" s="140"/>
-      <c r="F66" s="140"/>
-      <c r="G66" s="140"/>
-      <c r="H66" s="140"/>
-      <c r="I66" s="140"/>
-      <c r="J66" s="140"/>
-      <c r="K66" s="140"/>
-      <c r="L66" s="140"/>
-      <c r="M66" s="140"/>
-      <c r="N66" s="149"/>
+      <c r="B66" s="145"/>
+      <c r="C66" s="137"/>
+      <c r="D66" s="137"/>
+      <c r="E66" s="137"/>
+      <c r="F66" s="137"/>
+      <c r="G66" s="137"/>
+      <c r="H66" s="137"/>
+      <c r="I66" s="137"/>
+      <c r="J66" s="137"/>
+      <c r="K66" s="137"/>
+      <c r="L66" s="137"/>
+      <c r="M66" s="137"/>
+      <c r="N66" s="146"/>
     </row>
     <row r="67" spans="2:14">
-      <c r="B67" s="148"/>
-      <c r="C67" s="140"/>
-      <c r="D67" s="140"/>
-      <c r="E67" s="140"/>
-      <c r="F67" s="140"/>
-      <c r="G67" s="140"/>
-      <c r="H67" s="140"/>
-      <c r="I67" s="140"/>
-      <c r="J67" s="140"/>
-      <c r="K67" s="140"/>
-      <c r="L67" s="140"/>
-      <c r="M67" s="140"/>
-      <c r="N67" s="149"/>
+      <c r="B67" s="145"/>
+      <c r="C67" s="137"/>
+      <c r="D67" s="137"/>
+      <c r="E67" s="137"/>
+      <c r="F67" s="137"/>
+      <c r="G67" s="137"/>
+      <c r="H67" s="137"/>
+      <c r="I67" s="137"/>
+      <c r="J67" s="137"/>
+      <c r="K67" s="137"/>
+      <c r="L67" s="137"/>
+      <c r="M67" s="137"/>
+      <c r="N67" s="146"/>
     </row>
     <row r="68" spans="2:14">
-      <c r="B68" s="148"/>
-      <c r="C68" s="140"/>
-      <c r="D68" s="140"/>
-      <c r="E68" s="140"/>
-      <c r="F68" s="140"/>
-      <c r="G68" s="140"/>
-      <c r="H68" s="140"/>
-      <c r="I68" s="140"/>
-      <c r="J68" s="140"/>
-      <c r="K68" s="140"/>
-      <c r="L68" s="140"/>
-      <c r="M68" s="140"/>
-      <c r="N68" s="149"/>
+      <c r="B68" s="145"/>
+      <c r="C68" s="137"/>
+      <c r="D68" s="137"/>
+      <c r="E68" s="137"/>
+      <c r="F68" s="137"/>
+      <c r="G68" s="137"/>
+      <c r="H68" s="137"/>
+      <c r="I68" s="137"/>
+      <c r="J68" s="137"/>
+      <c r="K68" s="137"/>
+      <c r="L68" s="137"/>
+      <c r="M68" s="137"/>
+      <c r="N68" s="146"/>
     </row>
     <row r="69" spans="2:14">
-      <c r="B69" s="148"/>
-      <c r="C69" s="140"/>
-      <c r="D69" s="140"/>
-      <c r="E69" s="140"/>
-      <c r="F69" s="140"/>
-      <c r="G69" s="140"/>
-      <c r="H69" s="140"/>
-      <c r="I69" s="140"/>
-      <c r="J69" s="140"/>
-      <c r="K69" s="140"/>
-      <c r="L69" s="140"/>
-      <c r="M69" s="140"/>
-      <c r="N69" s="149"/>
+      <c r="B69" s="145"/>
+      <c r="C69" s="137"/>
+      <c r="D69" s="137"/>
+      <c r="E69" s="137"/>
+      <c r="F69" s="137"/>
+      <c r="G69" s="137"/>
+      <c r="H69" s="137"/>
+      <c r="I69" s="137"/>
+      <c r="J69" s="137"/>
+      <c r="K69" s="137"/>
+      <c r="L69" s="137"/>
+      <c r="M69" s="137"/>
+      <c r="N69" s="146"/>
     </row>
     <row r="70" spans="2:14">
-      <c r="B70" s="148"/>
-      <c r="C70" s="195" t="s">
-        <v>155</v>
-      </c>
-      <c r="D70" s="140"/>
-      <c r="E70" s="140"/>
-      <c r="F70" s="140"/>
-      <c r="G70" s="140"/>
-      <c r="H70" s="140"/>
-      <c r="I70" s="140"/>
-      <c r="J70" s="140"/>
-      <c r="K70" s="140"/>
-      <c r="L70" s="140"/>
-      <c r="M70" s="140"/>
-      <c r="N70" s="149"/>
+      <c r="B70" s="145"/>
+      <c r="C70" s="183" t="s">
+        <v>145</v>
+      </c>
+      <c r="D70" s="137"/>
+      <c r="E70" s="137"/>
+      <c r="F70" s="137"/>
+      <c r="G70" s="137"/>
+      <c r="H70" s="137"/>
+      <c r="I70" s="137"/>
+      <c r="J70" s="137"/>
+      <c r="K70" s="137"/>
+      <c r="L70" s="137"/>
+      <c r="M70" s="137"/>
+      <c r="N70" s="146"/>
     </row>
     <row r="71" spans="2:14">
-      <c r="B71" s="148"/>
-      <c r="C71" s="140"/>
-      <c r="D71" s="195" t="s">
-        <v>156</v>
-      </c>
-      <c r="E71" s="195" t="s">
-        <v>157</v>
-      </c>
-      <c r="F71" s="140"/>
-      <c r="G71" s="140"/>
-      <c r="H71" s="140"/>
-      <c r="I71" s="140"/>
-      <c r="J71" s="140"/>
-      <c r="K71" s="140"/>
-      <c r="L71" s="140"/>
-      <c r="M71" s="140"/>
-      <c r="N71" s="149"/>
+      <c r="B71" s="145"/>
+      <c r="C71" s="137"/>
+      <c r="D71" s="183" t="s">
+        <v>146</v>
+      </c>
+      <c r="E71" s="183" t="s">
+        <v>147</v>
+      </c>
+      <c r="F71" s="137"/>
+      <c r="G71" s="137"/>
+      <c r="H71" s="137"/>
+      <c r="I71" s="137"/>
+      <c r="J71" s="137"/>
+      <c r="K71" s="137"/>
+      <c r="L71" s="137"/>
+      <c r="M71" s="137"/>
+      <c r="N71" s="146"/>
     </row>
     <row r="72" spans="2:14">
-      <c r="B72" s="148"/>
-      <c r="C72" s="140"/>
-      <c r="D72" s="140"/>
-      <c r="E72" s="140">
+      <c r="B72" s="145"/>
+      <c r="C72" s="137"/>
+      <c r="D72" s="137"/>
+      <c r="E72" s="137">
         <v>0.5</v>
       </c>
-      <c r="F72" s="195" t="s">
+      <c r="F72" s="183" t="s">
         <v>2</v>
       </c>
-      <c r="G72" s="140"/>
-      <c r="H72" s="140"/>
-      <c r="I72" s="140"/>
-      <c r="J72" s="140"/>
-      <c r="K72" s="140"/>
-      <c r="L72" s="140"/>
-      <c r="M72" s="140"/>
-      <c r="N72" s="149"/>
+      <c r="G72" s="137"/>
+      <c r="H72" s="137"/>
+      <c r="I72" s="137"/>
+      <c r="J72" s="137"/>
+      <c r="K72" s="137"/>
+      <c r="L72" s="137"/>
+      <c r="M72" s="137"/>
+      <c r="N72" s="146"/>
     </row>
     <row r="73" spans="2:14">
-      <c r="B73" s="148"/>
-      <c r="C73" s="140"/>
-      <c r="D73" s="140"/>
-      <c r="E73" s="140"/>
-      <c r="F73" s="140"/>
-      <c r="G73" s="140"/>
-      <c r="H73" s="140"/>
-      <c r="I73" s="140"/>
-      <c r="J73" s="140"/>
-      <c r="K73" s="140"/>
-      <c r="L73" s="140"/>
-      <c r="M73" s="140"/>
-      <c r="N73" s="149"/>
+      <c r="B73" s="145"/>
+      <c r="C73" s="137"/>
+      <c r="D73" s="137"/>
+      <c r="E73" s="137"/>
+      <c r="F73" s="137"/>
+      <c r="G73" s="137"/>
+      <c r="H73" s="137"/>
+      <c r="I73" s="137"/>
+      <c r="J73" s="137"/>
+      <c r="K73" s="137"/>
+      <c r="L73" s="137"/>
+      <c r="M73" s="137"/>
+      <c r="N73" s="146"/>
     </row>
     <row r="74" spans="2:14">
-      <c r="B74" s="148"/>
-      <c r="C74" s="140"/>
-      <c r="D74" s="140"/>
-      <c r="E74" s="140"/>
-      <c r="F74" s="140"/>
-      <c r="G74" s="140"/>
-      <c r="H74" s="140"/>
-      <c r="I74" s="140"/>
-      <c r="J74" s="140"/>
-      <c r="K74" s="140"/>
-      <c r="L74" s="140"/>
-      <c r="M74" s="140"/>
-      <c r="N74" s="149"/>
+      <c r="B74" s="145"/>
+      <c r="C74" s="137"/>
+      <c r="D74" s="137"/>
+      <c r="E74" s="137"/>
+      <c r="F74" s="137"/>
+      <c r="G74" s="137"/>
+      <c r="H74" s="137"/>
+      <c r="I74" s="137"/>
+      <c r="J74" s="137"/>
+      <c r="K74" s="137"/>
+      <c r="L74" s="137"/>
+      <c r="M74" s="137"/>
+      <c r="N74" s="146"/>
     </row>
     <row r="75" spans="2:14">
-      <c r="B75" s="148"/>
-      <c r="C75" s="140"/>
-      <c r="D75" s="140"/>
-      <c r="E75" s="140"/>
-      <c r="F75" s="140"/>
-      <c r="G75" s="140"/>
-      <c r="H75" s="140"/>
-      <c r="I75" s="140"/>
-      <c r="J75" s="140"/>
-      <c r="K75" s="140"/>
-      <c r="L75" s="140"/>
-      <c r="M75" s="140"/>
-      <c r="N75" s="149"/>
+      <c r="B75" s="145"/>
+      <c r="C75" s="137"/>
+      <c r="D75" s="137"/>
+      <c r="E75" s="137"/>
+      <c r="F75" s="137"/>
+      <c r="G75" s="137"/>
+      <c r="H75" s="137"/>
+      <c r="I75" s="137"/>
+      <c r="J75" s="137"/>
+      <c r="K75" s="137"/>
+      <c r="L75" s="137"/>
+      <c r="M75" s="137"/>
+      <c r="N75" s="146"/>
     </row>
     <row r="76" spans="2:14">
-      <c r="B76" s="148"/>
-      <c r="C76" s="140"/>
-      <c r="D76" s="140"/>
-      <c r="E76" s="140"/>
-      <c r="F76" s="140"/>
-      <c r="G76" s="140"/>
-      <c r="H76" s="140"/>
-      <c r="I76" s="140"/>
-      <c r="J76" s="140"/>
-      <c r="K76" s="140"/>
-      <c r="L76" s="140"/>
-      <c r="M76" s="140"/>
-      <c r="N76" s="149"/>
+      <c r="B76" s="145"/>
+      <c r="C76" s="137"/>
+      <c r="D76" s="137"/>
+      <c r="E76" s="137"/>
+      <c r="F76" s="137"/>
+      <c r="G76" s="137"/>
+      <c r="H76" s="137"/>
+      <c r="I76" s="137"/>
+      <c r="J76" s="137"/>
+      <c r="K76" s="137"/>
+      <c r="L76" s="137"/>
+      <c r="M76" s="137"/>
+      <c r="N76" s="146"/>
     </row>
     <row r="77" spans="2:14">
-      <c r="B77" s="148"/>
-      <c r="C77" s="140"/>
-      <c r="D77" s="140"/>
-      <c r="E77" s="140"/>
-      <c r="F77" s="140"/>
-      <c r="G77" s="140"/>
-      <c r="H77" s="140"/>
-      <c r="I77" s="140"/>
-      <c r="J77" s="140"/>
-      <c r="K77" s="140"/>
-      <c r="L77" s="140"/>
-      <c r="M77" s="140"/>
-      <c r="N77" s="149"/>
+      <c r="B77" s="145"/>
+      <c r="C77" s="137"/>
+      <c r="D77" s="137"/>
+      <c r="E77" s="137"/>
+      <c r="F77" s="137"/>
+      <c r="G77" s="137"/>
+      <c r="H77" s="137"/>
+      <c r="I77" s="137"/>
+      <c r="J77" s="137"/>
+      <c r="K77" s="137"/>
+      <c r="L77" s="137"/>
+      <c r="M77" s="137"/>
+      <c r="N77" s="146"/>
     </row>
     <row r="78" spans="2:14">
-      <c r="B78" s="148"/>
-      <c r="C78" s="140"/>
-      <c r="D78" s="140"/>
-      <c r="E78" s="140"/>
-      <c r="F78" s="140"/>
-      <c r="G78" s="140"/>
-      <c r="H78" s="140"/>
-      <c r="I78" s="140"/>
-      <c r="J78" s="140"/>
-      <c r="K78" s="140"/>
-      <c r="L78" s="140"/>
-      <c r="M78" s="140"/>
-      <c r="N78" s="149"/>
+      <c r="B78" s="145"/>
+      <c r="C78" s="137"/>
+      <c r="D78" s="137"/>
+      <c r="E78" s="137"/>
+      <c r="F78" s="137"/>
+      <c r="G78" s="137"/>
+      <c r="H78" s="137"/>
+      <c r="I78" s="137"/>
+      <c r="J78" s="137"/>
+      <c r="K78" s="137"/>
+      <c r="L78" s="137"/>
+      <c r="M78" s="137"/>
+      <c r="N78" s="146"/>
     </row>
     <row r="79" spans="2:14">
-      <c r="B79" s="148"/>
-      <c r="C79" s="140"/>
-      <c r="D79" s="140"/>
-      <c r="E79" s="140"/>
-      <c r="F79" s="140"/>
-      <c r="G79" s="140"/>
-      <c r="H79" s="140"/>
-      <c r="I79" s="140"/>
-      <c r="J79" s="140"/>
-      <c r="K79" s="140"/>
-      <c r="L79" s="140"/>
-      <c r="M79" s="140"/>
-      <c r="N79" s="149"/>
+      <c r="B79" s="145"/>
+      <c r="C79" s="137"/>
+      <c r="D79" s="137"/>
+      <c r="E79" s="137"/>
+      <c r="F79" s="137"/>
+      <c r="G79" s="137"/>
+      <c r="H79" s="137"/>
+      <c r="I79" s="137"/>
+      <c r="J79" s="137"/>
+      <c r="K79" s="137"/>
+      <c r="L79" s="137"/>
+      <c r="M79" s="137"/>
+      <c r="N79" s="146"/>
     </row>
     <row r="80" spans="2:14">
-      <c r="B80" s="148"/>
-      <c r="C80" s="140"/>
-      <c r="D80" s="140"/>
-      <c r="E80" s="140"/>
-      <c r="F80" s="140"/>
-      <c r="G80" s="140"/>
-      <c r="H80" s="140"/>
-      <c r="I80" s="140"/>
-      <c r="J80" s="140"/>
-      <c r="K80" s="140"/>
-      <c r="L80" s="140"/>
-      <c r="M80" s="140"/>
-      <c r="N80" s="149"/>
+      <c r="B80" s="145"/>
+      <c r="C80" s="137"/>
+      <c r="D80" s="137"/>
+      <c r="E80" s="137"/>
+      <c r="F80" s="137"/>
+      <c r="G80" s="137"/>
+      <c r="H80" s="137"/>
+      <c r="I80" s="137"/>
+      <c r="J80" s="137"/>
+      <c r="K80" s="137"/>
+      <c r="L80" s="137"/>
+      <c r="M80" s="137"/>
+      <c r="N80" s="146"/>
     </row>
     <row r="81" spans="2:14">
-      <c r="B81" s="148"/>
-      <c r="C81" s="140"/>
-      <c r="D81" s="140"/>
-      <c r="E81" s="140"/>
-      <c r="F81" s="140"/>
-      <c r="G81" s="140"/>
-      <c r="H81" s="140"/>
-      <c r="I81" s="140"/>
-      <c r="J81" s="140"/>
-      <c r="K81" s="140"/>
-      <c r="L81" s="140"/>
-      <c r="M81" s="140"/>
-      <c r="N81" s="149"/>
+      <c r="B81" s="145"/>
+      <c r="C81" s="137"/>
+      <c r="D81" s="137"/>
+      <c r="E81" s="137"/>
+      <c r="F81" s="137"/>
+      <c r="G81" s="137"/>
+      <c r="H81" s="137"/>
+      <c r="I81" s="137"/>
+      <c r="J81" s="137"/>
+      <c r="K81" s="137"/>
+      <c r="L81" s="137"/>
+      <c r="M81" s="137"/>
+      <c r="N81" s="146"/>
     </row>
     <row r="82" spans="2:14">
-      <c r="B82" s="148"/>
-      <c r="C82" s="140"/>
-      <c r="D82" s="140"/>
-      <c r="E82" s="140"/>
-      <c r="F82" s="140"/>
-      <c r="G82" s="140"/>
-      <c r="H82" s="140"/>
-      <c r="I82" s="140"/>
-      <c r="J82" s="140"/>
-      <c r="K82" s="140"/>
-      <c r="L82" s="140"/>
-      <c r="M82" s="140"/>
-      <c r="N82" s="149"/>
+      <c r="B82" s="145"/>
+      <c r="C82" s="137"/>
+      <c r="D82" s="137"/>
+      <c r="E82" s="137"/>
+      <c r="F82" s="137"/>
+      <c r="G82" s="137"/>
+      <c r="H82" s="137"/>
+      <c r="I82" s="137"/>
+      <c r="J82" s="137"/>
+      <c r="K82" s="137"/>
+      <c r="L82" s="137"/>
+      <c r="M82" s="137"/>
+      <c r="N82" s="146"/>
     </row>
     <row r="83" spans="2:14">
-      <c r="B83" s="148"/>
-      <c r="C83" s="140"/>
-      <c r="D83" s="140"/>
-      <c r="E83" s="140"/>
-      <c r="F83" s="140"/>
-      <c r="G83" s="140"/>
-      <c r="H83" s="140"/>
-      <c r="I83" s="140"/>
-      <c r="J83" s="140"/>
-      <c r="K83" s="140"/>
-      <c r="L83" s="140"/>
-      <c r="M83" s="140"/>
-      <c r="N83" s="149"/>
+      <c r="B83" s="145"/>
+      <c r="C83" s="137"/>
+      <c r="D83" s="137"/>
+      <c r="E83" s="137"/>
+      <c r="F83" s="137"/>
+      <c r="G83" s="137"/>
+      <c r="H83" s="137"/>
+      <c r="I83" s="137"/>
+      <c r="J83" s="137"/>
+      <c r="K83" s="137"/>
+      <c r="L83" s="137"/>
+      <c r="M83" s="137"/>
+      <c r="N83" s="146"/>
     </row>
     <row r="84" spans="2:14">
-      <c r="B84" s="148"/>
-      <c r="C84" s="140"/>
-      <c r="D84" s="140"/>
-      <c r="E84" s="140"/>
-      <c r="F84" s="140"/>
-      <c r="G84" s="140"/>
-      <c r="H84" s="140"/>
-      <c r="I84" s="140"/>
-      <c r="J84" s="140"/>
-      <c r="K84" s="140"/>
-      <c r="L84" s="140"/>
-      <c r="M84" s="140"/>
-      <c r="N84" s="149"/>
+      <c r="B84" s="145"/>
+      <c r="C84" s="137"/>
+      <c r="D84" s="137"/>
+      <c r="E84" s="137"/>
+      <c r="F84" s="137"/>
+      <c r="G84" s="137"/>
+      <c r="H84" s="137"/>
+      <c r="I84" s="137"/>
+      <c r="J84" s="137"/>
+      <c r="K84" s="137"/>
+      <c r="L84" s="137"/>
+      <c r="M84" s="137"/>
+      <c r="N84" s="146"/>
     </row>
     <row r="85" spans="2:14">
-      <c r="B85" s="148"/>
-      <c r="C85" s="140"/>
-      <c r="D85" s="140"/>
-      <c r="E85" s="140"/>
-      <c r="F85" s="140"/>
-      <c r="G85" s="140"/>
-      <c r="H85" s="140"/>
-      <c r="I85" s="140"/>
-      <c r="J85" s="140"/>
-      <c r="K85" s="140"/>
-      <c r="L85" s="140"/>
-      <c r="M85" s="140"/>
-      <c r="N85" s="149"/>
+      <c r="B85" s="145"/>
+      <c r="C85" s="137"/>
+      <c r="D85" s="137"/>
+      <c r="E85" s="137"/>
+      <c r="F85" s="137"/>
+      <c r="G85" s="137"/>
+      <c r="H85" s="137"/>
+      <c r="I85" s="137"/>
+      <c r="J85" s="137"/>
+      <c r="K85" s="137"/>
+      <c r="L85" s="137"/>
+      <c r="M85" s="137"/>
+      <c r="N85" s="146"/>
     </row>
     <row r="86" spans="2:14">
-      <c r="B86" s="148"/>
-      <c r="C86" s="140"/>
-      <c r="D86" s="140"/>
-      <c r="E86" s="140"/>
-      <c r="F86" s="140"/>
-      <c r="G86" s="140"/>
-      <c r="H86" s="140"/>
-      <c r="I86" s="140"/>
-      <c r="J86" s="140"/>
-      <c r="K86" s="140"/>
-      <c r="L86" s="140"/>
-      <c r="M86" s="140"/>
-      <c r="N86" s="149"/>
+      <c r="B86" s="145"/>
+      <c r="C86" s="137"/>
+      <c r="D86" s="137"/>
+      <c r="E86" s="137"/>
+      <c r="F86" s="137"/>
+      <c r="G86" s="137"/>
+      <c r="H86" s="137"/>
+      <c r="I86" s="137"/>
+      <c r="J86" s="137"/>
+      <c r="K86" s="137"/>
+      <c r="L86" s="137"/>
+      <c r="M86" s="137"/>
+      <c r="N86" s="146"/>
     </row>
     <row r="87" spans="2:14">
-      <c r="B87" s="148"/>
-      <c r="C87" s="140"/>
-      <c r="D87" s="140"/>
-      <c r="E87" s="140"/>
-      <c r="F87" s="140"/>
-      <c r="G87" s="140"/>
-      <c r="H87" s="140"/>
-      <c r="I87" s="140"/>
-      <c r="J87" s="140"/>
-      <c r="K87" s="140"/>
-      <c r="L87" s="140"/>
-      <c r="M87" s="140"/>
-      <c r="N87" s="149"/>
+      <c r="B87" s="145"/>
+      <c r="C87" s="137"/>
+      <c r="D87" s="137"/>
+      <c r="E87" s="137"/>
+      <c r="F87" s="137"/>
+      <c r="G87" s="137"/>
+      <c r="H87" s="137"/>
+      <c r="I87" s="137"/>
+      <c r="J87" s="137"/>
+      <c r="K87" s="137"/>
+      <c r="L87" s="137"/>
+      <c r="M87" s="137"/>
+      <c r="N87" s="146"/>
     </row>
     <row r="88" spans="2:14">
-      <c r="B88" s="148"/>
-      <c r="C88" s="140"/>
-      <c r="D88" s="140"/>
-      <c r="E88" s="140"/>
-      <c r="F88" s="140"/>
-      <c r="G88" s="140"/>
-      <c r="H88" s="140"/>
-      <c r="I88" s="140"/>
-      <c r="J88" s="140"/>
-      <c r="K88" s="140"/>
-      <c r="L88" s="140"/>
-      <c r="M88" s="140"/>
-      <c r="N88" s="149"/>
+      <c r="B88" s="145"/>
+      <c r="C88" s="137"/>
+      <c r="D88" s="137"/>
+      <c r="E88" s="137"/>
+      <c r="F88" s="137"/>
+      <c r="G88" s="137"/>
+      <c r="H88" s="137"/>
+      <c r="I88" s="137"/>
+      <c r="J88" s="137"/>
+      <c r="K88" s="137"/>
+      <c r="L88" s="137"/>
+      <c r="M88" s="137"/>
+      <c r="N88" s="146"/>
     </row>
     <row r="89" spans="2:14">
-      <c r="B89" s="148"/>
-      <c r="C89" s="140"/>
-      <c r="D89" s="140"/>
-      <c r="E89" s="140"/>
-      <c r="F89" s="140"/>
-      <c r="G89" s="140"/>
-      <c r="H89" s="140"/>
-      <c r="I89" s="140"/>
-      <c r="J89" s="140"/>
-      <c r="K89" s="140"/>
-      <c r="L89" s="140"/>
-      <c r="M89" s="140"/>
-      <c r="N89" s="149"/>
+      <c r="B89" s="145"/>
+      <c r="C89" s="137"/>
+      <c r="D89" s="137"/>
+      <c r="E89" s="137"/>
+      <c r="F89" s="137"/>
+      <c r="G89" s="137"/>
+      <c r="H89" s="137"/>
+      <c r="I89" s="137"/>
+      <c r="J89" s="137"/>
+      <c r="K89" s="137"/>
+      <c r="L89" s="137"/>
+      <c r="M89" s="137"/>
+      <c r="N89" s="146"/>
     </row>
     <row r="90" spans="2:14">
-      <c r="B90" s="148"/>
-      <c r="C90" s="140"/>
-      <c r="D90" s="140"/>
-      <c r="E90" s="140"/>
-      <c r="F90" s="140"/>
-      <c r="G90" s="140"/>
-      <c r="H90" s="140"/>
-      <c r="I90" s="140"/>
-      <c r="J90" s="140"/>
-      <c r="K90" s="140"/>
-      <c r="L90" s="140"/>
-      <c r="M90" s="140"/>
-      <c r="N90" s="149"/>
+      <c r="B90" s="145"/>
+      <c r="C90" s="137"/>
+      <c r="D90" s="137"/>
+      <c r="E90" s="137"/>
+      <c r="F90" s="137"/>
+      <c r="G90" s="137"/>
+      <c r="H90" s="137"/>
+      <c r="I90" s="137"/>
+      <c r="J90" s="137"/>
+      <c r="K90" s="137"/>
+      <c r="L90" s="137"/>
+      <c r="M90" s="137"/>
+      <c r="N90" s="146"/>
     </row>
     <row r="91" spans="2:14">
-      <c r="B91" s="148"/>
-      <c r="C91" s="140"/>
-      <c r="D91" s="140"/>
-      <c r="E91" s="140"/>
-      <c r="F91" s="140"/>
-      <c r="G91" s="140"/>
-      <c r="H91" s="140"/>
-      <c r="I91" s="140"/>
-      <c r="J91" s="140"/>
-      <c r="K91" s="140"/>
-      <c r="L91" s="140"/>
-      <c r="M91" s="140"/>
-      <c r="N91" s="149"/>
+      <c r="B91" s="145"/>
+      <c r="C91" s="137"/>
+      <c r="D91" s="137"/>
+      <c r="E91" s="137"/>
+      <c r="F91" s="137"/>
+      <c r="G91" s="137"/>
+      <c r="H91" s="137"/>
+      <c r="I91" s="137"/>
+      <c r="J91" s="137"/>
+      <c r="K91" s="137"/>
+      <c r="L91" s="137"/>
+      <c r="M91" s="137"/>
+      <c r="N91" s="146"/>
     </row>
     <row r="92" spans="2:14">
-      <c r="B92" s="148"/>
-      <c r="C92" s="140"/>
-      <c r="D92" s="140"/>
-      <c r="E92" s="140"/>
-      <c r="F92" s="140"/>
-      <c r="G92" s="140"/>
-      <c r="H92" s="140"/>
-      <c r="I92" s="140"/>
-      <c r="J92" s="140"/>
-      <c r="K92" s="140"/>
-      <c r="L92" s="140"/>
-      <c r="M92" s="140"/>
-      <c r="N92" s="149"/>
+      <c r="B92" s="145"/>
+      <c r="C92" s="137"/>
+      <c r="D92" s="137"/>
+      <c r="E92" s="137"/>
+      <c r="F92" s="137"/>
+      <c r="G92" s="137"/>
+      <c r="H92" s="137"/>
+      <c r="I92" s="137"/>
+      <c r="J92" s="137"/>
+      <c r="K92" s="137"/>
+      <c r="L92" s="137"/>
+      <c r="M92" s="137"/>
+      <c r="N92" s="146"/>
     </row>
     <row r="93" spans="2:14">
-      <c r="B93" s="148"/>
-      <c r="C93" s="140"/>
-      <c r="D93" s="140"/>
-      <c r="E93" s="140"/>
-      <c r="F93" s="140"/>
-      <c r="G93" s="140"/>
-      <c r="H93" s="140"/>
-      <c r="I93" s="140"/>
-      <c r="J93" s="140"/>
-      <c r="K93" s="140"/>
-      <c r="L93" s="140"/>
-      <c r="M93" s="140"/>
-      <c r="N93" s="149"/>
+      <c r="B93" s="145"/>
+      <c r="C93" s="137"/>
+      <c r="D93" s="137"/>
+      <c r="E93" s="137"/>
+      <c r="F93" s="137"/>
+      <c r="G93" s="137"/>
+      <c r="H93" s="137"/>
+      <c r="I93" s="137"/>
+      <c r="J93" s="137"/>
+      <c r="K93" s="137"/>
+      <c r="L93" s="137"/>
+      <c r="M93" s="137"/>
+      <c r="N93" s="146"/>
     </row>
     <row r="94" spans="2:14">
-      <c r="B94" s="148"/>
-      <c r="C94" s="140"/>
-      <c r="D94" s="140"/>
-      <c r="E94" s="140"/>
-      <c r="F94" s="140"/>
-      <c r="G94" s="140"/>
-      <c r="H94" s="140"/>
-      <c r="I94" s="140"/>
-      <c r="J94" s="140"/>
-      <c r="K94" s="140"/>
-      <c r="L94" s="140"/>
-      <c r="M94" s="140"/>
-      <c r="N94" s="149"/>
+      <c r="B94" s="145"/>
+      <c r="C94" s="137"/>
+      <c r="D94" s="137"/>
+      <c r="E94" s="137"/>
+      <c r="F94" s="137"/>
+      <c r="G94" s="137"/>
+      <c r="H94" s="137"/>
+      <c r="I94" s="137"/>
+      <c r="J94" s="137"/>
+      <c r="K94" s="137"/>
+      <c r="L94" s="137"/>
+      <c r="M94" s="137"/>
+      <c r="N94" s="146"/>
     </row>
     <row r="95" spans="2:14">
-      <c r="B95" s="148"/>
-      <c r="C95" s="140"/>
-      <c r="D95" s="140"/>
-      <c r="E95" s="140"/>
-      <c r="F95" s="140"/>
-      <c r="G95" s="140"/>
-      <c r="H95" s="140"/>
-      <c r="I95" s="140"/>
-      <c r="J95" s="140"/>
-      <c r="K95" s="140"/>
-      <c r="L95" s="140"/>
-      <c r="M95" s="140"/>
-      <c r="N95" s="149"/>
+      <c r="B95" s="145"/>
+      <c r="C95" s="137"/>
+      <c r="D95" s="137"/>
+      <c r="E95" s="137"/>
+      <c r="F95" s="137"/>
+      <c r="G95" s="137"/>
+      <c r="H95" s="137"/>
+      <c r="I95" s="137"/>
+      <c r="J95" s="137"/>
+      <c r="K95" s="137"/>
+      <c r="L95" s="137"/>
+      <c r="M95" s="137"/>
+      <c r="N95" s="146"/>
     </row>
     <row r="96" spans="2:14">
-      <c r="B96" s="148"/>
-      <c r="C96" s="140"/>
-      <c r="D96" s="140"/>
-      <c r="E96" s="140"/>
-      <c r="F96" s="140"/>
-      <c r="G96" s="140"/>
-      <c r="H96" s="140"/>
-      <c r="I96" s="140"/>
-      <c r="J96" s="140"/>
-      <c r="K96" s="140"/>
-      <c r="L96" s="140"/>
-      <c r="M96" s="140"/>
-      <c r="N96" s="149"/>
+      <c r="B96" s="145"/>
+      <c r="C96" s="137"/>
+      <c r="D96" s="137"/>
+      <c r="E96" s="137"/>
+      <c r="F96" s="137"/>
+      <c r="G96" s="137"/>
+      <c r="H96" s="137"/>
+      <c r="I96" s="137"/>
+      <c r="J96" s="137"/>
+      <c r="K96" s="137"/>
+      <c r="L96" s="137"/>
+      <c r="M96" s="137"/>
+      <c r="N96" s="146"/>
     </row>
     <row r="97" spans="2:14">
-      <c r="B97" s="148"/>
-      <c r="C97" s="140"/>
-      <c r="D97" s="140"/>
-      <c r="E97" s="140"/>
-      <c r="F97" s="140"/>
-      <c r="G97" s="140"/>
-      <c r="H97" s="140"/>
-      <c r="I97" s="140"/>
-      <c r="J97" s="140"/>
-      <c r="K97" s="140"/>
-      <c r="L97" s="140"/>
-      <c r="M97" s="140"/>
-      <c r="N97" s="149"/>
+      <c r="B97" s="145"/>
+      <c r="C97" s="137"/>
+      <c r="D97" s="137"/>
+      <c r="E97" s="137"/>
+      <c r="F97" s="137"/>
+      <c r="G97" s="137"/>
+      <c r="H97" s="137"/>
+      <c r="I97" s="137"/>
+      <c r="J97" s="137"/>
+      <c r="K97" s="137"/>
+      <c r="L97" s="137"/>
+      <c r="M97" s="137"/>
+      <c r="N97" s="146"/>
     </row>
     <row r="98" spans="2:14">
-      <c r="B98" s="148"/>
-      <c r="C98" s="140"/>
-      <c r="D98" s="140"/>
-      <c r="E98" s="140"/>
-      <c r="F98" s="140"/>
-      <c r="G98" s="140"/>
-      <c r="H98" s="140"/>
-      <c r="I98" s="140"/>
-      <c r="J98" s="140"/>
-      <c r="K98" s="140"/>
-      <c r="L98" s="140"/>
-      <c r="M98" s="140"/>
-      <c r="N98" s="149"/>
+      <c r="B98" s="145"/>
+      <c r="C98" s="137"/>
+      <c r="D98" s="137"/>
+      <c r="E98" s="137"/>
+      <c r="F98" s="137"/>
+      <c r="G98" s="137"/>
+      <c r="H98" s="137"/>
+      <c r="I98" s="137"/>
+      <c r="J98" s="137"/>
+      <c r="K98" s="137"/>
+      <c r="L98" s="137"/>
+      <c r="M98" s="137"/>
+      <c r="N98" s="146"/>
     </row>
     <row r="99" spans="2:14">
-      <c r="B99" s="148"/>
-      <c r="C99" s="140"/>
-      <c r="D99" s="140"/>
-      <c r="E99" s="140"/>
-      <c r="F99" s="140"/>
-      <c r="G99" s="140"/>
-      <c r="H99" s="140"/>
-      <c r="I99" s="140"/>
-      <c r="J99" s="140"/>
-      <c r="K99" s="140"/>
-      <c r="L99" s="140"/>
-      <c r="M99" s="140"/>
-      <c r="N99" s="149"/>
+      <c r="B99" s="145"/>
+      <c r="C99" s="137"/>
+      <c r="D99" s="137"/>
+      <c r="E99" s="137"/>
+      <c r="F99" s="137"/>
+      <c r="G99" s="137"/>
+      <c r="H99" s="137"/>
+      <c r="I99" s="137"/>
+      <c r="J99" s="137"/>
+      <c r="K99" s="137"/>
+      <c r="L99" s="137"/>
+      <c r="M99" s="137"/>
+      <c r="N99" s="146"/>
     </row>
     <row r="100" spans="2:14">
-      <c r="B100" s="148"/>
-      <c r="C100" s="140"/>
-      <c r="D100" s="140"/>
-      <c r="E100" s="140"/>
-      <c r="F100" s="140"/>
-      <c r="G100" s="140"/>
-      <c r="H100" s="140"/>
-      <c r="I100" s="140"/>
-      <c r="J100" s="140"/>
-      <c r="K100" s="140"/>
-      <c r="L100" s="140"/>
-      <c r="M100" s="140"/>
-      <c r="N100" s="149"/>
+      <c r="B100" s="145"/>
+      <c r="C100" s="137"/>
+      <c r="D100" s="137"/>
+      <c r="E100" s="137"/>
+      <c r="F100" s="137"/>
+      <c r="G100" s="137"/>
+      <c r="H100" s="137"/>
+      <c r="I100" s="137"/>
+      <c r="J100" s="137"/>
+      <c r="K100" s="137"/>
+      <c r="L100" s="137"/>
+      <c r="M100" s="137"/>
+      <c r="N100" s="146"/>
     </row>
     <row r="101" spans="2:14">
-      <c r="B101" s="148"/>
-      <c r="C101" s="140"/>
-      <c r="D101" s="140"/>
-      <c r="E101" s="140"/>
-      <c r="F101" s="140"/>
-      <c r="G101" s="140"/>
-      <c r="H101" s="140"/>
-      <c r="I101" s="140"/>
-      <c r="J101" s="140"/>
-      <c r="K101" s="140"/>
-      <c r="L101" s="140"/>
-      <c r="M101" s="140"/>
-      <c r="N101" s="149"/>
+      <c r="B101" s="145"/>
+      <c r="C101" s="137"/>
+      <c r="D101" s="137"/>
+      <c r="E101" s="137"/>
+      <c r="F101" s="137"/>
+      <c r="G101" s="137"/>
+      <c r="H101" s="137"/>
+      <c r="I101" s="137"/>
+      <c r="J101" s="137"/>
+      <c r="K101" s="137"/>
+      <c r="L101" s="137"/>
+      <c r="M101" s="137"/>
+      <c r="N101" s="146"/>
     </row>
     <row r="102" spans="2:14">
-      <c r="B102" s="148"/>
-      <c r="C102" s="140"/>
-      <c r="D102" s="140"/>
-      <c r="E102" s="140"/>
-      <c r="F102" s="140"/>
-      <c r="G102" s="140"/>
-      <c r="H102" s="140"/>
-      <c r="I102" s="140"/>
-      <c r="J102" s="140"/>
-      <c r="K102" s="140"/>
-      <c r="L102" s="140"/>
-      <c r="M102" s="140"/>
-      <c r="N102" s="149"/>
-    </row>
-    <row r="103" spans="2:14" s="192" customFormat="1">
-      <c r="B103" s="197"/>
-      <c r="D103" s="198"/>
-      <c r="E103" s="198"/>
-      <c r="F103" s="198"/>
-      <c r="G103" s="198"/>
-      <c r="I103" s="198" t="s">
-        <v>159</v>
-      </c>
-      <c r="N103" s="199"/>
-    </row>
-    <row r="104" spans="2:14" s="192" customFormat="1">
-      <c r="B104" s="197"/>
+      <c r="B102" s="145"/>
+      <c r="C102" s="137"/>
+      <c r="D102" s="137"/>
+      <c r="E102" s="137"/>
+      <c r="F102" s="137"/>
+      <c r="G102" s="137"/>
+      <c r="H102" s="137"/>
+      <c r="I102" s="137"/>
+      <c r="J102" s="137"/>
+      <c r="K102" s="137"/>
+      <c r="L102" s="137"/>
+      <c r="M102" s="137"/>
+      <c r="N102" s="146"/>
+    </row>
+    <row r="103" spans="2:14" s="180" customFormat="1">
+      <c r="B103" s="185"/>
+      <c r="D103" s="186"/>
+      <c r="E103" s="186"/>
+      <c r="F103" s="186"/>
+      <c r="G103" s="186"/>
+      <c r="I103" s="186" t="s">
+        <v>149</v>
+      </c>
+      <c r="N103" s="187"/>
+    </row>
+    <row r="104" spans="2:14" s="180" customFormat="1">
+      <c r="B104" s="185"/>
       <c r="C104" s="23" t="s">
-        <v>160</v>
-      </c>
-      <c r="D104" s="198"/>
-      <c r="E104" s="198"/>
-      <c r="F104" s="198"/>
-      <c r="G104" s="198"/>
-      <c r="N104" s="199"/>
-    </row>
-    <row r="105" spans="2:14" s="192" customFormat="1">
-      <c r="B105" s="197"/>
-      <c r="D105" s="198"/>
-      <c r="E105" s="198"/>
-      <c r="F105" s="198"/>
-      <c r="G105" s="198"/>
-      <c r="K105" s="211" t="s">
-        <v>161</v>
-      </c>
-      <c r="L105" s="212">
+        <v>150</v>
+      </c>
+      <c r="D104" s="186"/>
+      <c r="E104" s="186"/>
+      <c r="F104" s="186"/>
+      <c r="G104" s="186"/>
+      <c r="N104" s="187"/>
+    </row>
+    <row r="105" spans="2:14" s="180" customFormat="1">
+      <c r="B105" s="185"/>
+      <c r="D105" s="186"/>
+      <c r="E105" s="186"/>
+      <c r="F105" s="186"/>
+      <c r="G105" s="186"/>
+      <c r="K105" s="199" t="s">
+        <v>151</v>
+      </c>
+      <c r="L105" s="200">
         <f>0.83611</f>
         <v>0.83611000000000002</v>
       </c>
-      <c r="M105" s="211" t="s">
-        <v>162</v>
-      </c>
-      <c r="N105" s="199"/>
-    </row>
-    <row r="106" spans="2:14" s="192" customFormat="1">
-      <c r="B106" s="197"/>
+      <c r="M105" s="199" t="s">
+        <v>152</v>
+      </c>
+      <c r="N105" s="187"/>
+    </row>
+    <row r="106" spans="2:14" s="180" customFormat="1">
+      <c r="B106" s="185"/>
       <c r="C106" s="42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D106" s="186"/>
+      <c r="E106" s="186"/>
+      <c r="F106" s="186"/>
+      <c r="G106" s="186"/>
+      <c r="K106" s="199"/>
+      <c r="L106" s="201" t="s">
+        <v>154</v>
+      </c>
+      <c r="M106" s="199"/>
+      <c r="N106" s="187"/>
+    </row>
+    <row r="107" spans="2:14" s="180" customFormat="1">
+      <c r="B107" s="185"/>
+      <c r="D107" s="186"/>
+      <c r="E107" s="186"/>
+      <c r="F107" s="186"/>
+      <c r="G107" s="186"/>
+      <c r="K107" s="199"/>
+      <c r="L107" s="202">
+        <v>42987</v>
+      </c>
+      <c r="M107" s="199"/>
+      <c r="N107" s="187"/>
+    </row>
+    <row r="108" spans="2:14" s="180" customFormat="1">
+      <c r="B108" s="185"/>
+      <c r="D108" s="186"/>
+      <c r="E108" s="186"/>
+      <c r="F108" s="186"/>
+      <c r="G108" s="186"/>
+      <c r="N108" s="187"/>
+    </row>
+    <row r="109" spans="2:14" s="180" customFormat="1">
+      <c r="B109" s="185"/>
+      <c r="D109" s="186"/>
+      <c r="E109" s="186"/>
+      <c r="F109" s="186"/>
+      <c r="G109" s="186"/>
+      <c r="N109" s="187"/>
+    </row>
+    <row r="110" spans="2:14" s="180" customFormat="1">
+      <c r="B110" s="185"/>
+      <c r="D110" s="186"/>
+      <c r="E110" s="186"/>
+      <c r="F110" s="186"/>
+      <c r="G110" s="186"/>
+      <c r="N110" s="187"/>
+    </row>
+    <row r="111" spans="2:14" s="180" customFormat="1">
+      <c r="B111" s="185"/>
+      <c r="D111" s="186"/>
+      <c r="E111" s="186"/>
+      <c r="F111" s="186"/>
+      <c r="G111" s="186"/>
+      <c r="N111" s="187"/>
+    </row>
+    <row r="112" spans="2:14" s="180" customFormat="1">
+      <c r="B112" s="185"/>
+      <c r="D112" s="186"/>
+      <c r="E112" s="186"/>
+      <c r="F112" s="186"/>
+      <c r="G112" s="186"/>
+      <c r="N112" s="187"/>
+    </row>
+    <row r="113" spans="2:14" s="180" customFormat="1">
+      <c r="B113" s="185"/>
+      <c r="D113" s="186"/>
+      <c r="E113" s="186"/>
+      <c r="F113" s="186"/>
+      <c r="G113" s="186"/>
+      <c r="N113" s="187"/>
+    </row>
+    <row r="114" spans="2:14" s="180" customFormat="1">
+      <c r="B114" s="185"/>
+      <c r="C114" s="186" t="s">
+        <v>157</v>
+      </c>
+      <c r="D114" s="186" t="s">
+        <v>159</v>
+      </c>
+      <c r="E114" s="186"/>
+      <c r="F114" s="186"/>
+      <c r="G114" s="186"/>
+      <c r="N114" s="187"/>
+    </row>
+    <row r="115" spans="2:14" s="180" customFormat="1">
+      <c r="B115" s="185"/>
+      <c r="C115" s="183"/>
+      <c r="D115" s="186"/>
+      <c r="E115" s="186" t="s">
         <v>163</v>
       </c>
-      <c r="D106" s="198"/>
-      <c r="E106" s="198"/>
-      <c r="F106" s="198"/>
-      <c r="G106" s="198"/>
-      <c r="K106" s="211"/>
-      <c r="L106" s="213" t="s">
+      <c r="F115" s="186">
+        <v>871</v>
+      </c>
+      <c r="G115" s="186" t="s">
+        <v>156</v>
+      </c>
+      <c r="N115" s="187"/>
+    </row>
+    <row r="116" spans="2:14" s="180" customFormat="1">
+      <c r="B116" s="185"/>
+      <c r="C116" s="183"/>
+      <c r="D116" s="186" t="s">
         <v>164</v>
       </c>
-      <c r="M106" s="211"/>
-      <c r="N106" s="199"/>
-    </row>
-    <row r="107" spans="2:14" s="192" customFormat="1">
-      <c r="B107" s="197"/>
-      <c r="D107" s="198"/>
-      <c r="E107" s="198"/>
-      <c r="F107" s="198"/>
-      <c r="G107" s="198"/>
-      <c r="K107" s="211"/>
-      <c r="L107" s="214">
-        <v>42987</v>
-      </c>
-      <c r="M107" s="211"/>
-      <c r="N107" s="199"/>
-    </row>
-    <row r="108" spans="2:14" s="192" customFormat="1">
-      <c r="B108" s="197"/>
-      <c r="D108" s="198"/>
-      <c r="E108" s="198"/>
-      <c r="F108" s="198"/>
-      <c r="G108" s="198"/>
-      <c r="N108" s="199"/>
-    </row>
-    <row r="109" spans="2:14" s="192" customFormat="1">
-      <c r="B109" s="197"/>
-      <c r="D109" s="198"/>
-      <c r="E109" s="198"/>
-      <c r="F109" s="198"/>
-      <c r="G109" s="198"/>
-      <c r="N109" s="199"/>
-    </row>
-    <row r="110" spans="2:14" s="192" customFormat="1">
-      <c r="B110" s="197"/>
-      <c r="D110" s="198"/>
-      <c r="E110" s="198"/>
-      <c r="F110" s="198"/>
-      <c r="G110" s="198"/>
-      <c r="N110" s="199"/>
-    </row>
-    <row r="111" spans="2:14" s="192" customFormat="1">
-      <c r="B111" s="197"/>
-      <c r="D111" s="198"/>
-      <c r="E111" s="198"/>
-      <c r="F111" s="198"/>
-      <c r="G111" s="198"/>
-      <c r="N111" s="199"/>
-    </row>
-    <row r="112" spans="2:14" s="192" customFormat="1">
-      <c r="B112" s="197"/>
-      <c r="D112" s="198"/>
-      <c r="E112" s="198"/>
-      <c r="F112" s="198"/>
-      <c r="G112" s="198"/>
-      <c r="N112" s="199"/>
-    </row>
-    <row r="113" spans="2:14" s="192" customFormat="1">
-      <c r="B113" s="197"/>
-      <c r="D113" s="198"/>
-      <c r="E113" s="198"/>
-      <c r="F113" s="198"/>
-      <c r="G113" s="198"/>
-      <c r="N113" s="199"/>
-    </row>
-    <row r="114" spans="2:14" s="192" customFormat="1">
-      <c r="B114" s="197"/>
-      <c r="C114" s="198" t="s">
-        <v>167</v>
-      </c>
-      <c r="D114" s="198" t="s">
-        <v>169</v>
-      </c>
-      <c r="E114" s="198"/>
-      <c r="F114" s="198"/>
-      <c r="G114" s="198"/>
-      <c r="N114" s="199"/>
-    </row>
-    <row r="115" spans="2:14" s="192" customFormat="1">
-      <c r="B115" s="197"/>
-      <c r="C115" s="195"/>
-      <c r="D115" s="198"/>
-      <c r="E115" s="198" t="s">
-        <v>173</v>
-      </c>
-      <c r="F115" s="198">
-        <v>871</v>
-      </c>
-      <c r="G115" s="198" t="s">
-        <v>166</v>
-      </c>
-      <c r="N115" s="199"/>
-    </row>
-    <row r="116" spans="2:14" s="192" customFormat="1">
-      <c r="B116" s="197"/>
-      <c r="C116" s="195"/>
-      <c r="D116" s="198" t="s">
-        <v>174</v>
-      </c>
-      <c r="E116" s="198"/>
-      <c r="F116" s="198"/>
-      <c r="G116" s="198"/>
-      <c r="N116" s="199"/>
-    </row>
-    <row r="117" spans="2:14" s="192" customFormat="1">
-      <c r="B117" s="197"/>
-      <c r="C117" s="195"/>
-      <c r="D117" s="198" t="s">
-        <v>175</v>
-      </c>
-      <c r="E117" s="198"/>
-      <c r="F117" s="198">
+      <c r="E116" s="186"/>
+      <c r="F116" s="186"/>
+      <c r="G116" s="186"/>
+      <c r="N116" s="187"/>
+    </row>
+    <row r="117" spans="2:14" s="180" customFormat="1">
+      <c r="B117" s="185"/>
+      <c r="C117" s="183"/>
+      <c r="D117" s="186" t="s">
+        <v>165</v>
+      </c>
+      <c r="E117" s="186"/>
+      <c r="F117" s="186">
         <v>440</v>
       </c>
-      <c r="G117" s="198" t="s">
-        <v>166</v>
-      </c>
-      <c r="N117" s="199"/>
-    </row>
-    <row r="118" spans="2:14" s="192" customFormat="1">
-      <c r="B118" s="197"/>
-      <c r="C118" s="195"/>
-      <c r="D118" s="198" t="s">
-        <v>168</v>
-      </c>
-      <c r="E118" s="198"/>
-      <c r="F118" s="198">
+      <c r="G117" s="186" t="s">
+        <v>156</v>
+      </c>
+      <c r="N117" s="187"/>
+    </row>
+    <row r="118" spans="2:14" s="180" customFormat="1">
+      <c r="B118" s="185"/>
+      <c r="C118" s="183"/>
+      <c r="D118" s="186" t="s">
+        <v>158</v>
+      </c>
+      <c r="E118" s="186"/>
+      <c r="F118" s="186">
         <v>84</v>
       </c>
-      <c r="G118" s="198" t="s">
-        <v>166</v>
-      </c>
-      <c r="N118" s="199"/>
-    </row>
-    <row r="119" spans="2:14" s="192" customFormat="1">
-      <c r="B119" s="197"/>
-      <c r="D119" s="198" t="s">
-        <v>180</v>
-      </c>
-      <c r="E119" s="198"/>
-      <c r="F119" s="198">
+      <c r="G118" s="186" t="s">
+        <v>156</v>
+      </c>
+      <c r="N118" s="187"/>
+    </row>
+    <row r="119" spans="2:14" s="180" customFormat="1">
+      <c r="B119" s="185"/>
+      <c r="D119" s="186" t="s">
+        <v>170</v>
+      </c>
+      <c r="E119" s="186"/>
+      <c r="F119" s="186">
         <f>F115-F117-F118-F120</f>
         <v>297</v>
       </c>
-      <c r="G119" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="N119" s="199"/>
-    </row>
-    <row r="120" spans="2:14" s="192" customFormat="1">
-      <c r="B120" s="197"/>
-      <c r="D120" s="198" t="s">
-        <v>176</v>
-      </c>
-      <c r="E120" s="218"/>
-      <c r="F120" s="192">
+      <c r="G119" s="186" t="s">
+        <v>169</v>
+      </c>
+      <c r="N119" s="187"/>
+    </row>
+    <row r="120" spans="2:14" s="180" customFormat="1">
+      <c r="B120" s="185"/>
+      <c r="D120" s="186" t="s">
+        <v>166</v>
+      </c>
+      <c r="E120" s="206"/>
+      <c r="F120" s="180">
         <v>50</v>
       </c>
-      <c r="G120" s="198" t="s">
-        <v>179</v>
-      </c>
-      <c r="N120" s="199"/>
-    </row>
-    <row r="121" spans="2:14" s="192" customFormat="1">
-      <c r="B121" s="197"/>
-      <c r="F121" s="192" t="s">
-        <v>187</v>
-      </c>
-      <c r="N121" s="199"/>
-    </row>
-    <row r="122" spans="2:14" s="192" customFormat="1">
-      <c r="B122" s="197"/>
-      <c r="D122" s="198"/>
-      <c r="E122" s="198"/>
-      <c r="F122" s="198"/>
-      <c r="G122" s="198"/>
-      <c r="N122" s="199"/>
-    </row>
-    <row r="123" spans="2:14" s="192" customFormat="1">
-      <c r="B123" s="197"/>
-      <c r="D123" s="198"/>
-      <c r="E123" s="198"/>
-      <c r="F123" s="198"/>
-      <c r="G123" s="198"/>
-      <c r="N123" s="199"/>
-    </row>
-    <row r="124" spans="2:14" s="192" customFormat="1">
-      <c r="B124" s="197"/>
-      <c r="D124" s="198" t="s">
-        <v>170</v>
-      </c>
-      <c r="E124" s="198">
+      <c r="G120" s="186" t="s">
+        <v>169</v>
+      </c>
+      <c r="N120" s="187"/>
+    </row>
+    <row r="121" spans="2:14" s="180" customFormat="1">
+      <c r="B121" s="185"/>
+      <c r="F121" s="180" t="s">
+        <v>177</v>
+      </c>
+      <c r="N121" s="187"/>
+    </row>
+    <row r="122" spans="2:14" s="180" customFormat="1">
+      <c r="B122" s="185"/>
+      <c r="D122" s="186"/>
+      <c r="E122" s="186"/>
+      <c r="F122" s="186"/>
+      <c r="G122" s="186"/>
+      <c r="N122" s="187"/>
+    </row>
+    <row r="123" spans="2:14" s="180" customFormat="1">
+      <c r="B123" s="185"/>
+      <c r="D123" s="186"/>
+      <c r="E123" s="186"/>
+      <c r="F123" s="186"/>
+      <c r="G123" s="186"/>
+      <c r="N123" s="187"/>
+    </row>
+    <row r="124" spans="2:14" s="180" customFormat="1">
+      <c r="B124" s="185"/>
+      <c r="D124" s="186" t="s">
+        <v>160</v>
+      </c>
+      <c r="E124" s="186">
         <v>14.7</v>
       </c>
-      <c r="F124" s="198" t="s">
-        <v>172</v>
-      </c>
-      <c r="G124" s="198"/>
-      <c r="N124" s="199"/>
-    </row>
-    <row r="125" spans="2:14" s="192" customFormat="1">
-      <c r="B125" s="197"/>
-      <c r="D125" s="198"/>
-      <c r="E125" s="198"/>
-      <c r="F125" s="198" t="s">
-        <v>171</v>
-      </c>
-      <c r="G125" s="198"/>
-      <c r="N125" s="199"/>
-    </row>
-    <row r="126" spans="2:14" s="192" customFormat="1">
-      <c r="B126" s="197"/>
-      <c r="D126" s="198" t="s">
-        <v>177</v>
-      </c>
-      <c r="E126" s="198">
+      <c r="F124" s="186" t="s">
+        <v>162</v>
+      </c>
+      <c r="G124" s="186"/>
+      <c r="N124" s="187"/>
+    </row>
+    <row r="125" spans="2:14" s="180" customFormat="1">
+      <c r="B125" s="185"/>
+      <c r="D125" s="186"/>
+      <c r="E125" s="186"/>
+      <c r="F125" s="186" t="s">
+        <v>161</v>
+      </c>
+      <c r="G125" s="186"/>
+      <c r="N125" s="187"/>
+    </row>
+    <row r="126" spans="2:14" s="180" customFormat="1">
+      <c r="B126" s="185"/>
+      <c r="D126" s="186" t="s">
+        <v>167</v>
+      </c>
+      <c r="E126" s="186">
         <v>30</v>
       </c>
-      <c r="G126" s="198" t="s">
-        <v>166</v>
-      </c>
-      <c r="N126" s="199"/>
-    </row>
-    <row r="127" spans="2:14" s="192" customFormat="1">
-      <c r="B127" s="197"/>
-      <c r="D127" s="198"/>
-      <c r="E127" s="198"/>
-      <c r="F127" s="198"/>
-      <c r="G127" s="198"/>
-      <c r="N127" s="199"/>
-    </row>
-    <row r="128" spans="2:14" s="192" customFormat="1">
-      <c r="B128" s="197"/>
-      <c r="D128" s="198" t="s">
-        <v>178</v>
-      </c>
-      <c r="E128" s="198">
+      <c r="G126" s="186" t="s">
+        <v>156</v>
+      </c>
+      <c r="N126" s="187"/>
+    </row>
+    <row r="127" spans="2:14" s="180" customFormat="1">
+      <c r="B127" s="185"/>
+      <c r="D127" s="186"/>
+      <c r="E127" s="186"/>
+      <c r="F127" s="186"/>
+      <c r="G127" s="186"/>
+      <c r="N127" s="187"/>
+    </row>
+    <row r="128" spans="2:14" s="180" customFormat="1">
+      <c r="B128" s="185"/>
+      <c r="D128" s="186" t="s">
+        <v>168</v>
+      </c>
+      <c r="E128" s="186">
         <f>E124+(E126/E60)</f>
         <v>15.899999999999999</v>
       </c>
-      <c r="F128" s="198" t="s">
-        <v>172</v>
-      </c>
-      <c r="G128" s="198"/>
-      <c r="N128" s="199"/>
-    </row>
-    <row r="129" spans="2:14" s="192" customFormat="1">
-      <c r="B129" s="197"/>
-      <c r="D129" s="198"/>
-      <c r="E129" s="198"/>
-      <c r="F129" s="198"/>
-      <c r="G129" s="198"/>
-      <c r="N129" s="199"/>
-    </row>
-    <row r="130" spans="2:14" s="192" customFormat="1">
-      <c r="B130" s="197"/>
-      <c r="D130" s="198"/>
-      <c r="E130" s="198"/>
-      <c r="F130" s="198"/>
-      <c r="G130" s="198"/>
-      <c r="N130" s="199"/>
-    </row>
-    <row r="131" spans="2:14" s="192" customFormat="1">
-      <c r="B131" s="197"/>
-      <c r="D131" s="198"/>
-      <c r="E131" s="198"/>
-      <c r="F131" s="198"/>
-      <c r="G131" s="198"/>
-      <c r="N131" s="199"/>
-    </row>
-    <row r="132" spans="2:14" s="192" customFormat="1">
-      <c r="B132" s="197"/>
-      <c r="D132" s="198"/>
-      <c r="E132" s="198"/>
-      <c r="F132" s="198"/>
-      <c r="G132" s="198"/>
-      <c r="N132" s="199"/>
-    </row>
-    <row r="133" spans="2:14" s="192" customFormat="1">
-      <c r="B133" s="197"/>
-      <c r="D133" s="198"/>
-      <c r="E133" s="198"/>
-      <c r="F133" s="198"/>
-      <c r="G133" s="198"/>
-      <c r="N133" s="199"/>
-    </row>
-    <row r="134" spans="2:14" s="192" customFormat="1">
-      <c r="B134" s="197"/>
-      <c r="D134" s="198"/>
-      <c r="E134" s="198"/>
-      <c r="F134" s="198"/>
-      <c r="G134" s="198"/>
-      <c r="N134" s="199"/>
-    </row>
-    <row r="135" spans="2:14" s="192" customFormat="1">
-      <c r="B135" s="197"/>
-      <c r="D135" s="198"/>
-      <c r="E135" s="198"/>
-      <c r="F135" s="198"/>
-      <c r="G135" s="198"/>
-      <c r="N135" s="199"/>
+      <c r="F128" s="186" t="s">
+        <v>162</v>
+      </c>
+      <c r="G128" s="186"/>
+      <c r="N128" s="187"/>
+    </row>
+    <row r="129" spans="2:14" s="180" customFormat="1">
+      <c r="B129" s="185"/>
+      <c r="D129" s="186"/>
+      <c r="E129" s="186"/>
+      <c r="F129" s="186"/>
+      <c r="G129" s="186"/>
+      <c r="N129" s="187"/>
+    </row>
+    <row r="130" spans="2:14" s="180" customFormat="1">
+      <c r="B130" s="185"/>
+      <c r="D130" s="186"/>
+      <c r="E130" s="186"/>
+      <c r="F130" s="186"/>
+      <c r="G130" s="186"/>
+      <c r="N130" s="187"/>
+    </row>
+    <row r="131" spans="2:14" s="180" customFormat="1">
+      <c r="B131" s="185"/>
+      <c r="D131" s="186"/>
+      <c r="E131" s="186"/>
+      <c r="F131" s="186"/>
+      <c r="G131" s="186"/>
+      <c r="N131" s="187"/>
+    </row>
+    <row r="132" spans="2:14" s="180" customFormat="1">
+      <c r="B132" s="185"/>
+      <c r="D132" s="186"/>
+      <c r="E132" s="186"/>
+      <c r="F132" s="186"/>
+      <c r="G132" s="186"/>
+      <c r="N132" s="187"/>
+    </row>
+    <row r="133" spans="2:14" s="180" customFormat="1">
+      <c r="B133" s="185"/>
+      <c r="D133" s="186"/>
+      <c r="E133" s="186"/>
+      <c r="F133" s="186"/>
+      <c r="G133" s="186"/>
+      <c r="N133" s="187"/>
+    </row>
+    <row r="134" spans="2:14" s="180" customFormat="1">
+      <c r="B134" s="185"/>
+      <c r="D134" s="186"/>
+      <c r="E134" s="186"/>
+      <c r="F134" s="186"/>
+      <c r="G134" s="186"/>
+      <c r="N134" s="187"/>
+    </row>
+    <row r="135" spans="2:14" s="180" customFormat="1">
+      <c r="B135" s="185"/>
+      <c r="D135" s="186"/>
+      <c r="E135" s="186"/>
+      <c r="F135" s="186"/>
+      <c r="G135" s="186"/>
+      <c r="N135" s="187"/>
     </row>
     <row r="136" spans="2:14">
-      <c r="B136" s="148"/>
-      <c r="C136" s="140"/>
-      <c r="D136" s="140"/>
-      <c r="E136" s="140"/>
-      <c r="F136" s="140"/>
-      <c r="G136" s="140"/>
-      <c r="H136" s="140"/>
-      <c r="I136" s="140"/>
-      <c r="J136" s="140"/>
-      <c r="K136" s="140"/>
-      <c r="L136" s="140"/>
-      <c r="M136" s="140"/>
-      <c r="N136" s="149"/>
+      <c r="B136" s="145"/>
+      <c r="C136" s="137"/>
+      <c r="D136" s="137"/>
+      <c r="E136" s="137"/>
+      <c r="F136" s="137"/>
+      <c r="G136" s="137"/>
+      <c r="H136" s="137"/>
+      <c r="I136" s="137"/>
+      <c r="J136" s="137"/>
+      <c r="K136" s="137"/>
+      <c r="L136" s="137"/>
+      <c r="M136" s="137"/>
+      <c r="N136" s="146"/>
     </row>
     <row r="137" spans="2:14">
-      <c r="B137" s="148"/>
-      <c r="G137" s="140"/>
-      <c r="H137" s="140"/>
-      <c r="I137" s="140"/>
-      <c r="J137" s="140"/>
-      <c r="K137" s="140"/>
-      <c r="L137" s="140"/>
-      <c r="M137" s="140"/>
-      <c r="N137" s="149"/>
+      <c r="B137" s="145"/>
+      <c r="G137" s="137"/>
+      <c r="H137" s="137"/>
+      <c r="I137" s="137"/>
+      <c r="J137" s="137"/>
+      <c r="K137" s="137"/>
+      <c r="L137" s="137"/>
+      <c r="M137" s="137"/>
+      <c r="N137" s="146"/>
     </row>
     <row r="138" spans="2:14">
-      <c r="B138" s="148"/>
-      <c r="G138" s="140"/>
-      <c r="H138" s="140"/>
-      <c r="I138" s="140"/>
-      <c r="J138" s="140"/>
-      <c r="K138" s="140"/>
-      <c r="L138" s="140"/>
-      <c r="M138" s="140"/>
-      <c r="N138" s="149"/>
+      <c r="B138" s="145"/>
+      <c r="G138" s="137"/>
+      <c r="H138" s="137"/>
+      <c r="I138" s="137"/>
+      <c r="J138" s="137"/>
+      <c r="K138" s="137"/>
+      <c r="L138" s="137"/>
+      <c r="M138" s="137"/>
+      <c r="N138" s="146"/>
     </row>
     <row r="139" spans="2:14">
-      <c r="B139" s="148"/>
-      <c r="N139" s="149"/>
+      <c r="B139" s="145"/>
+      <c r="N139" s="146"/>
     </row>
     <row r="140" spans="2:14">
-      <c r="B140" s="148"/>
-      <c r="N140" s="149"/>
+      <c r="B140" s="145"/>
+      <c r="N140" s="146"/>
     </row>
     <row r="141" spans="2:14">
-      <c r="B141" s="148"/>
-      <c r="D141" s="192" t="s">
-        <v>188</v>
-      </c>
-      <c r="N141" s="149"/>
+      <c r="B141" s="145"/>
+      <c r="D141" s="180" t="s">
+        <v>178</v>
+      </c>
+      <c r="N141" s="146"/>
     </row>
     <row r="142" spans="2:14">
-      <c r="B142" s="148"/>
-      <c r="C142" s="140"/>
-      <c r="D142" s="140"/>
-      <c r="E142" s="140"/>
-      <c r="F142" s="107"/>
-      <c r="G142" s="107"/>
-      <c r="H142" s="107"/>
-      <c r="I142" s="107"/>
-      <c r="J142" s="107"/>
-      <c r="K142" s="140"/>
-      <c r="L142" s="140"/>
-      <c r="M142" s="140"/>
-      <c r="N142" s="149"/>
+      <c r="B142" s="145"/>
+      <c r="C142" s="137"/>
+      <c r="D142" s="137"/>
+      <c r="E142" s="137"/>
+      <c r="F142" s="104"/>
+      <c r="G142" s="104"/>
+      <c r="H142" s="104"/>
+      <c r="I142" s="104"/>
+      <c r="J142" s="104"/>
+      <c r="K142" s="137"/>
+      <c r="L142" s="137"/>
+      <c r="M142" s="137"/>
+      <c r="N142" s="146"/>
     </row>
     <row r="143" spans="2:14">
-      <c r="B143" s="148"/>
-      <c r="C143" s="140"/>
-      <c r="D143" s="140"/>
-      <c r="E143" s="140"/>
-      <c r="F143" s="140"/>
-      <c r="G143" s="140"/>
-      <c r="H143" s="140"/>
-      <c r="I143" s="140"/>
-      <c r="J143" s="140"/>
-      <c r="K143" s="140"/>
-      <c r="L143" s="140"/>
-      <c r="M143" s="140"/>
-      <c r="N143" s="149"/>
+      <c r="B143" s="145"/>
+      <c r="C143" s="137"/>
+      <c r="D143" s="137"/>
+      <c r="E143" s="137"/>
+      <c r="F143" s="137"/>
+      <c r="G143" s="137"/>
+      <c r="H143" s="137"/>
+      <c r="I143" s="137"/>
+      <c r="J143" s="137"/>
+      <c r="K143" s="137"/>
+      <c r="L143" s="137"/>
+      <c r="M143" s="137"/>
+      <c r="N143" s="146"/>
     </row>
     <row r="144" spans="2:14">
-      <c r="B144" s="148"/>
-      <c r="N144" s="149"/>
+      <c r="B144" s="145"/>
+      <c r="N144" s="146"/>
     </row>
     <row r="145" spans="2:14">
-      <c r="B145" s="148"/>
-      <c r="D145" s="192"/>
-      <c r="N145" s="149"/>
+      <c r="B145" s="145"/>
+      <c r="D145" s="180"/>
+      <c r="N145" s="146"/>
     </row>
     <row r="146" spans="2:14">
-      <c r="B146" s="148"/>
-      <c r="D146" s="192"/>
-      <c r="N146" s="149"/>
+      <c r="B146" s="145"/>
+      <c r="D146" s="180"/>
+      <c r="N146" s="146"/>
     </row>
     <row r="147" spans="2:14">
-      <c r="B147" s="148"/>
-      <c r="D147" s="192"/>
-      <c r="N147" s="149"/>
+      <c r="B147" s="145"/>
+      <c r="D147" s="180"/>
+      <c r="N147" s="146"/>
     </row>
     <row r="148" spans="2:14">
-      <c r="B148" s="148"/>
-      <c r="N148" s="149"/>
+      <c r="B148" s="145"/>
+      <c r="N148" s="146"/>
     </row>
     <row r="149" spans="2:14">
-      <c r="B149" s="148"/>
-      <c r="N149" s="149"/>
+      <c r="B149" s="145"/>
+      <c r="N149" s="146"/>
     </row>
     <row r="150" spans="2:14">
-      <c r="B150" s="148"/>
-      <c r="N150" s="149"/>
+      <c r="B150" s="145"/>
+      <c r="N150" s="146"/>
     </row>
     <row r="151" spans="2:14">
-      <c r="B151" s="148"/>
-      <c r="N151" s="149"/>
+      <c r="B151" s="145"/>
+      <c r="N151" s="146"/>
     </row>
     <row r="152" spans="2:14">
-      <c r="B152" s="148"/>
-      <c r="N152" s="149"/>
+      <c r="B152" s="145"/>
+      <c r="N152" s="146"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/nodes_source_analyses/energy/energy_hydrogen_solar_pv_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_hydrogen_solar_pv_solar_radiation.central_producer.xlsx
@@ -5,12 +5,12 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B7EA1B8-63E5-1949-B691-7B3C7A9C680E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3D900E-C2D8-7C4C-9794-1E7E946508CF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25600" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13400" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,7 +37,7 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017" concurrentCalc="0"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
   <si>
     <t>Source</t>
   </si>
@@ -760,6 +760,12 @@
   </si>
   <si>
     <t>Fraunhofer 2015 p.40</t>
+  </si>
+  <si>
+    <t>moved cost of installing to initial investment costs</t>
+  </si>
+  <si>
+    <t>Installation costs set to 0, they are added to initial investment</t>
   </si>
 </sst>
 </file>
@@ -1695,7 +1701,7 @@
     <xf numFmtId="43" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="217">
+  <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -2067,6 +2073,8 @@
     <xf numFmtId="0" fontId="37" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="310">
     <cellStyle name="Comma" xfId="308" builtinId="3"/>
@@ -3447,7 +3455,7 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A18:XFD22"/>
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -3766,7 +3774,7 @@
       </c>
       <c r="E20" s="36">
         <f>'Research data'!H15</f>
-        <v>16420000</v>
+        <v>17420000</v>
       </c>
       <c r="F20" s="30"/>
       <c r="G20" s="30" t="s">
@@ -3809,15 +3817,15 @@
       </c>
       <c r="E22" s="78">
         <f>'Research data'!H20</f>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="30"/>
       <c r="G22" s="30" t="s">
         <v>26</v>
       </c>
       <c r="H22" s="30"/>
-      <c r="I22" s="158" t="s">
-        <v>107</v>
+      <c r="I22" s="218" t="s">
+        <v>180</v>
       </c>
       <c r="J22" s="129"/>
     </row>
@@ -4310,7 +4318,7 @@
   <dimension ref="B1:O27"/>
   <sheetViews>
     <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
@@ -4628,14 +4636,14 @@
       </c>
       <c r="G15" s="122"/>
       <c r="H15" s="165">
-        <f>H16*H7*1000</f>
-        <v>16420000</v>
+        <f>K15</f>
+        <v>17420000</v>
       </c>
       <c r="I15" s="166"/>
       <c r="J15" s="50"/>
       <c r="K15" s="167">
-        <f>K16*H7*1000</f>
-        <v>16420000</v>
+        <f>K16*H7*1000+K20</f>
+        <v>17420000</v>
       </c>
       <c r="L15" s="61"/>
       <c r="M15" s="32"/>
@@ -4749,8 +4757,7 @@
       </c>
       <c r="G20" s="121"/>
       <c r="H20" s="55">
-        <f>K20</f>
-        <v>1000000</v>
+        <v>0</v>
       </c>
       <c r="I20" s="50"/>
       <c r="J20" s="50"/>
@@ -4761,7 +4768,9 @@
       <c r="L20" s="50"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
-      <c r="O20" s="139"/>
+      <c r="O20" s="217" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="21" spans="2:15" ht="17" thickBot="1">
       <c r="B21" s="34"/>

--- a/nodes_source_analyses/energy/energy_hydrogen_solar_pv_solar_radiation.central_producer.xlsx
+++ b/nodes_source_analyses/energy/energy_hydrogen_solar_pv_solar_radiation.central_producer.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10523"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michieldenhaan/Projects/etdataset/nodes_source_analyses/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/marliekeverweij/Projects/etdataset/nodes_source_analyses/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3D900E-C2D8-7C4C-9794-1E7E946508CF}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E66C93F3-B821-BE4E-A4E2-42F720B377B3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="460" windowWidth="25600" windowHeight="26820" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="28340" tabRatio="762" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -37,10 +37,16 @@
     <definedName name="Wp_to_kWp">#REF!</definedName>
     <definedName name="WP_to_MWp">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -50,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="182">
   <si>
     <t>Source</t>
   </si>
@@ -767,6 +773,9 @@
   <si>
     <t>Installation costs set to 0, they are added to initial investment</t>
   </si>
+  <si>
+    <t>See https://github.com/quintel/documentation/blob/master/general/cost_calculations.md#weighted-average-cost-of-capital</t>
+  </si>
 </sst>
 </file>
 
@@ -782,12 +791,19 @@
     <numFmt numFmtId="169" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="40">
+  <fonts count="41">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Lettertype hoofdtekst"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
@@ -1388,318 +1404,318 @@
   </borders>
   <cellStyleXfs count="310">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="39" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="40" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="219">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -1707,374 +1723,374 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="31" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="4"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="30" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="31" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="35" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="24" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="165" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="4"/>
-    </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="34" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="23" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="24" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="177" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="17" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="166" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="166" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="34" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="14" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="10" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="35" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="26" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="31" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="36" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="168" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="168" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="38" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
     <xf numFmtId="49" fontId="5" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="38" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="24" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" xfId="177" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="24" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="2" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="0" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="3" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="3" fillId="6" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="169" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="15" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" indent="3"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="22" xfId="309" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="2" fontId="37" fillId="4" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="2" fontId="22" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="37" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="2" fontId="23" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="0" xfId="177" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="23" fillId="2" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="2" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="0" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="2" fillId="2" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="170" fontId="2" fillId="6" borderId="22" xfId="308" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="2" fillId="6" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="15" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="22" xfId="309" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="30" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="38" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="29" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="310">
     <cellStyle name="Comma" xfId="308" builtinId="3"/>
@@ -2386,7 +2402,7 @@
     <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="177" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Percent" xfId="309" builtinId="5"/>
+    <cellStyle name="Per cent" xfId="309" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -3274,12 +3290,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="68" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="68" customWidth="1"/>
     <col min="2" max="2" width="12" style="32" customWidth="1"/>
-    <col min="3" max="3" width="38.5" style="32" customWidth="1"/>
-    <col min="4" max="16384" width="10.6640625" style="32"/>
+    <col min="3" max="3" width="38.42578125" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="10.7109375" style="32"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="66" customFormat="1">
@@ -3455,22 +3471,22 @@
   <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="3.6640625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="4" customWidth="1"/>
-    <col min="6" max="6" width="4.5" style="4" customWidth="1"/>
-    <col min="7" max="7" width="35.33203125" style="4" customWidth="1"/>
-    <col min="8" max="8" width="5.1640625" style="4" customWidth="1"/>
-    <col min="9" max="9" width="42.5" style="4" customWidth="1"/>
-    <col min="10" max="10" width="5.5" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="10.6640625" style="4"/>
+    <col min="1" max="1" width="3.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="12.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="4.42578125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="35.28515625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.140625" style="4" customWidth="1"/>
+    <col min="9" max="9" width="42.42578125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" style="4" customWidth="1"/>
+    <col min="11" max="16384" width="10.7109375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3484,42 +3500,42 @@
       <c r="I1" s="15"/>
     </row>
     <row r="2" spans="1:11">
-      <c r="B2" s="208" t="s">
+      <c r="B2" s="210" t="s">
         <v>126</v>
       </c>
-      <c r="C2" s="209"/>
-      <c r="D2" s="209"/>
-      <c r="E2" s="210"/>
+      <c r="C2" s="211"/>
+      <c r="D2" s="211"/>
+      <c r="E2" s="212"/>
       <c r="F2" s="16"/>
       <c r="G2" s="16"/>
       <c r="H2" s="16"/>
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="1:11">
-      <c r="B3" s="211"/>
-      <c r="C3" s="212"/>
-      <c r="D3" s="212"/>
-      <c r="E3" s="213"/>
+      <c r="B3" s="213"/>
+      <c r="C3" s="214"/>
+      <c r="D3" s="214"/>
+      <c r="E3" s="215"/>
       <c r="F3" s="16"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="15"/>
     </row>
     <row r="4" spans="1:11">
-      <c r="B4" s="211"/>
-      <c r="C4" s="212"/>
-      <c r="D4" s="212"/>
-      <c r="E4" s="213"/>
+      <c r="B4" s="213"/>
+      <c r="C4" s="214"/>
+      <c r="D4" s="214"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="16"/>
       <c r="G4" s="16"/>
       <c r="H4" s="16"/>
       <c r="I4" s="15"/>
     </row>
     <row r="5" spans="1:11">
-      <c r="B5" s="214"/>
-      <c r="C5" s="215"/>
-      <c r="D5" s="215"/>
-      <c r="E5" s="216"/>
+      <c r="B5" s="216"/>
+      <c r="C5" s="217"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="218"/>
       <c r="F5" s="16"/>
       <c r="G5" s="16"/>
       <c r="H5" s="16"/>
@@ -3824,7 +3840,7 @@
         <v>26</v>
       </c>
       <c r="H22" s="30"/>
-      <c r="I22" s="218" t="s">
+      <c r="I22" s="209" t="s">
         <v>180</v>
       </c>
       <c r="J22" s="129"/>
@@ -3924,8 +3940,7 @@
         <v>3</v>
       </c>
       <c r="E27" s="100">
-        <f>'Research data'!H25</f>
-        <v>0.05</v>
+        <v>0.04</v>
       </c>
       <c r="F27" s="30"/>
       <c r="G27" s="30" t="s">
@@ -3933,7 +3948,7 @@
       </c>
       <c r="H27" s="30"/>
       <c r="I27" s="160" t="s">
-        <v>107</v>
+        <v>181</v>
       </c>
       <c r="J27" s="129"/>
     </row>
@@ -4321,24 +4336,24 @@
       <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" style="39" customWidth="1"/>
-    <col min="2" max="2" width="3.5" style="39" customWidth="1"/>
-    <col min="3" max="3" width="43.1640625" style="39" customWidth="1"/>
-    <col min="4" max="4" width="16.5" style="39" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="39" hidden="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="39" customWidth="1"/>
-    <col min="7" max="7" width="2.6640625" style="39" customWidth="1"/>
-    <col min="8" max="8" width="13.33203125" style="39" customWidth="1"/>
-    <col min="9" max="9" width="2.5" style="39" customWidth="1"/>
-    <col min="10" max="10" width="1.83203125" style="39" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" style="39" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" style="39" customWidth="1"/>
+    <col min="3" max="3" width="43.140625" style="39" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" style="39" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="39" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" style="39" customWidth="1"/>
+    <col min="7" max="7" width="2.7109375" style="39" customWidth="1"/>
+    <col min="8" max="8" width="13.28515625" style="39" customWidth="1"/>
+    <col min="9" max="9" width="2.42578125" style="39" customWidth="1"/>
+    <col min="10" max="10" width="1.85546875" style="39" customWidth="1"/>
     <col min="11" max="11" width="13" style="39" customWidth="1"/>
-    <col min="12" max="12" width="2.6640625" style="39" customWidth="1"/>
+    <col min="12" max="12" width="2.7109375" style="39" customWidth="1"/>
     <col min="13" max="13" width="13" style="39" customWidth="1"/>
-    <col min="14" max="14" width="2.1640625" style="39" customWidth="1"/>
+    <col min="14" max="14" width="2.140625" style="39" customWidth="1"/>
     <col min="15" max="15" width="55" style="39" customWidth="1"/>
-    <col min="16" max="16384" width="10.6640625" style="39"/>
+    <col min="16" max="16384" width="10.7109375" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:15" ht="17" thickBot="1"/>
@@ -4768,7 +4783,7 @@
       <c r="L20" s="50"/>
       <c r="M20" s="32"/>
       <c r="N20" s="32"/>
-      <c r="O20" s="217" t="s">
+      <c r="O20" s="208" t="s">
         <v>179</v>
       </c>
     </row>
@@ -4922,18 +4937,18 @@
       <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="33.1640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="33.140625" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.5" style="87" customWidth="1"/>
+    <col min="1" max="1" width="3.42578125" style="87" customWidth="1"/>
     <col min="2" max="2" width="3" style="87" customWidth="1"/>
-    <col min="3" max="3" width="27.83203125" style="87" customWidth="1"/>
-    <col min="4" max="4" width="16.1640625" style="87" customWidth="1"/>
+    <col min="3" max="3" width="27.85546875" style="87" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="87" customWidth="1"/>
     <col min="5" max="5" width="14" style="87" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" style="87" customWidth="1"/>
-    <col min="7" max="8" width="12.6640625" style="88" customWidth="1"/>
-    <col min="9" max="9" width="32.5" style="88" customWidth="1"/>
-    <col min="10" max="10" width="76.5" style="87" customWidth="1"/>
-    <col min="11" max="16384" width="33.1640625" style="87"/>
+    <col min="6" max="6" width="13.28515625" style="87" customWidth="1"/>
+    <col min="7" max="8" width="12.7109375" style="88" customWidth="1"/>
+    <col min="9" max="9" width="32.42578125" style="88" customWidth="1"/>
+    <col min="10" max="10" width="76.42578125" style="87" customWidth="1"/>
+    <col min="11" max="16384" width="33.140625" style="87"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="17" thickBot="1"/>
@@ -5307,14 +5322,14 @@
       <selection activeCell="D142" sqref="D142"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.6640625" defaultRowHeight="16"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="4.5" style="138" customWidth="1"/>
-    <col min="2" max="2" width="5.5" style="138" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="138" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" style="138" customWidth="1"/>
+    <col min="2" max="2" width="5.42578125" style="138" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="138" customWidth="1"/>
     <col min="4" max="4" width="34" style="138" customWidth="1"/>
     <col min="5" max="5" width="23" style="138" customWidth="1"/>
-    <col min="6" max="16384" width="10.6640625" style="138"/>
+    <col min="6" max="16384" width="10.7109375" style="138"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:14" ht="17" thickBot="1"/>
